--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>基本介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较直观、容易理解，但是比较难以实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,11 +168,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无法给出数据的内在含义，可能产生过渡匹配的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>度量集合无序程度的方法是基尼不纯度Gini purity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.无法给出数据的内在含义
+2.可能产生过渡匹配的问题
+3.不稳定
+4.如果一类占主导地位创建的数就有偏差
+5.是NP问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较直观、容易理解，但是比较难以实现。
+基于熵值的决策树(ID3)和基于C4.5以及CART的决策树
+ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,23 +390,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -432,23 +425,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,7 +580,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -635,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -646,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -659,7 +635,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
@@ -669,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
@@ -690,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -705,7 +681,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -717,7 +693,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -729,7 +705,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -741,7 +717,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -752,12 +728,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -769,7 +747,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -784,7 +762,7 @@
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,7 +164,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据形式非常容易理解且计算复杂度并不高，对中间值的缺失不敏感，可以处理不相关特征数据</t>
+    <t>聚类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较直观、容易理解，但是比较难以实现。
+基于熵值的决策树(ID3)和基于C4.5以及CART(Classifacation and Regression Tree)的决策树
+ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,21 +182,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聚类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.无法给出数据的内在含义
+    <t>其它解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基尼不纯度，是指将来自集合中某一数据项的预期误差率，如果集合中每个数据项都属于同一分类，那么预测的结果总是正确的，因而误差率为0
+信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，例如所有的用户都是付费用户，则熵值就为0，所分的群组越混乱，相应的熵值就越高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic回归的目的是寻找一个非线性函数Sigmoid的最佳拟合参数，求解过程可以由最优化算法来完成，最优化算法中，最常用的就是梯度上升算法，而梯度上升算法又可以简化为随机梯度上升算法，随机梯度上升算法与梯度上升算法效果相当，但占用更少的计算资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.无法给出数据的内在含义
 2.可能产生过渡匹配的问题
 3.不稳定
 4.如果一类占主导地位创建的数就有偏差
-5.是NP问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较直观、容易理解，但是比较难以实现。
-基于熵值的决策树(ID3)和基于C4.5以及CART的决策树
-ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。</t>
+5.是NP问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>决策树是局部最优，不是全局最优？每一个分支都是采用了次分支得到的最大熵值，并不一定是全局最大情况下的分支情况，因为有可能第一层划分熵值增加不是很多，第二层熵值却增加很多的情况？？？？？？？？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关于剪枝：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
+处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据形式非常容易理解且计算复杂度并不高，对中间值的缺失不敏感，可以处理不相关特征数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +289,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -264,11 +335,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,6 +371,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -390,6 +479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -425,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,21 +700,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="6" customWidth="1"/>
-    <col min="7" max="8" width="24.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="40.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="37.375" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,12 +742,18 @@
       <c r="H1" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -634,14 +766,16 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -656,83 +790,101 @@
       <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -740,29 +892,33 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="协同过滤" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K-means</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用情景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,49 +115,6 @@
   </si>
   <si>
     <t>计算复杂度高、空间复杂度高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最简单的分类算法，使用距离矩阵进行分类(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>既适应离散也适应连续型数据</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k近邻(KNN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>度量集合无序程度的方法是基尼不纯度Gini purity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其它解释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +142,182 @@
   </si>
   <si>
     <t>Logistic回归的目的是寻找一个非线性函数Sigmoid的最佳拟合参数，求解过程可以由最优化算法来完成，最优化算法中，最常用的就是梯度上升算法，而梯度上升算法又可以简化为随机梯度上升算法，随机梯度上升算法与梯度上升算法效果相当，但占用更少的计算资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关于剪枝：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
+处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度量集合无序程度的方法是基尼不纯度Gini purity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于物品的协同过滤：为每件物品预先计算好最好相近的物品，然后当我们希望为某位用户推荐时，就可以查看其曾经评过分的物品，并从中选出排位靠前者，再构造一个加权列表，其中包含了这些物品最为相近的其它物品。
+由此可以看出UserCF是推荐用户所在兴趣小组中的热点，更注重社会化，而ItemCF则是根据用户历史行为推荐相似物品，更注重个性化。所以UserCF一般用在新闻类网站中，如Digg,而ItemCF则用在其他非新闻类网站中，如Amazon,hulu等等。
+因为在新闻类网站中，用户的兴趣爱好往往比较粗粒度，很少会有用户说只看某个话题的新闻，往往某个话题也不是天天会有新闻的。个性化新闻推荐更强盗新闻热点，热门程度和时效性是个性化新闻推荐的重点，个性化是补充，所以UserCF给用户推荐和他有相同兴趣爱好的人关注的新闻，这样在保证了热点和时效性的同时，兼顾了个性化。另外一个原因是从技术上考虑的，作为一种物品，新闻的更新非常快，而且实时会有新的新闻出现，而如果使用ItemCF的话，需要维护一张物品之间相似度的表，实际工业界这表一般是一天一更新的，这在新闻领域是万万不能接受的。
+但是，在图书，电子商务和电影网站等方面，ItemCF则能更好的发挥作用。因为在这些网站中，用户的兴趣爱好一般是比较固定的，而且相比于新闻网站更细腻。在这些网站中，个性化推荐一般是给用户推荐他自己领域的相关物品。另外，这些网站的物品数量更新速度不快，一天一次更新可以接受。而且在这些网站中，用户数量往往远远大于物品数量，从存储的角度来讲，UserCF需要消耗更大的空间复杂度，另外，ItemCF可以方便的提供推荐理由，增加用户对推荐系统的信任度，所以更适合这些网站。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于用户的协作型过滤主要分为两步：1）找到和目标用户兴趣相似的用户集合 
+2）找到这个集合中的用户喜欢的，且目标用户没有听说过的物品推荐给目标用户。
+基于物品的协同过滤算法主要有两步：
+1）计算物品之间的相似度。
+2）根据物品的相似度和用户的历史行为给用户生成推荐列表。
+由此可以看出UserCF是推荐用户所在兴趣小组中的热点，更注重社会化，而ItemCF则是根据用户历史行为推荐相似物品，更注重个性化。所以UserCF一般用在新闻类网站中，如Digg,而ItemCF则用在其他非新闻类网站中，如Amazon,hulu等等。
+基于物品的协作型过滤，在拥有大量数据集的情况下，基于物品的协作型过滤能够得到更好的结论，而且它允许将大量的计算提前执行，从而可以更快的得到推荐结果。
+关键是理清楚一点，是用户多还是物品多，如果物品多，那显然使用用户协同过滤，如果是用户多，显然使用物品协同过滤，P49页也说明了这个问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+注意关联推荐和协同过滤之间的区别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对一大群人进行搜索，并从中找到与我们品味相近的一小群人，算法会对这些人所偏爱的其它内容进行考察，并将它们组合起来构造一个经过排名的推荐列表，有许多不同的方法帮助我们确定哪些人与自己的品味相近(最常用的方法是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欧几里得距离</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(值介于0、1之间)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和皮尔逊相关系数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(指介于-1、1之间，其中1表示完全正相关、0表示完全不相关、-1表示完全负相关)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，皮尔逊相关系数在数据不是很规范</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(尤其是一部分数据很大、一部分数据很小时)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候会给出更好的结果，皮尔逊相关系数是判断两组数据与某一直线的拟合程度，例如评分过程中某人的评分始终比另外一个人严格，或者两人的评分差始终保持一致，欧式距离会得出两个人不想近的结论，即使两个人的品味是如此的相近，这显然不是我们想要的结果，这个时候就需要皮尔逊相关系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，并将它们的学则组合成列表。两者都是数据越大，相似度越大</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,14 +339,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>决策树是局部最优，不是全局最优？每一个分支都是采用了次分支得到的最大熵值，并不一定是全局最大情况下的分支情况，因为有可能第一层划分熵值增加不是很多，第二层熵值却增加很多的情况？？？？？？？？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
+      <t xml:space="preserve">决策树是局部最优，不是全局最优？每一个分支都是采用了次分支得到的最大熵值，并不一定是全局最大情况下的分支情况，因为有可能第一层划分熵值增加不是很多，第二层熵值却增加很多的情况？？？？？？？？
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.如果输出结果是成千上百种，决策树就会变得异常复杂，预测效果也可能会大打折扣。
+7.决策树的分支只能处理大于\小于的情况，而对于复杂的组合，决策树处理起来就比较困难，比如结果由两个变量的差决定。
+8.对于大量数值型决策树比较不太适合，决策树适合大量分类数据和数值数据共同组成的数据集。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据形式非常容易理解且计算复杂度并不高，对中间值的缺失不敏感，可以处理不相关特征数据
+决策树最大优势为可以轻易的对一个训练模型给予解释，决策树可以同时接受分类数据(category)和数值(numerical)数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k近邻(KNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最简单的分类算法，寻找聚类最近的k个节点，根据k哥节点的属性判断自己属于哪一类，使用距离矩阵进行分类(</t>
     </r>
     <r>
       <rPr>
@@ -232,24 +384,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>关于剪枝：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
-处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据形式非常容易理解且计算复杂度并不高，对中间值的缺失不敏感，可以处理不相关特征数据</t>
+      <t>既适应离散也适应连续型数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-means的基本方法是分级聚类，分级聚类是循环的测量任意两个输入样本的皮尔逊相关系数，对于距离最小的两个输入节点，进行合并，然后再网关测量所有数据变量的最邻近节点，分级聚类的缺点为计算量太大
+K-means算法首先会随机确定k哥中心位置（位于空间中代表聚类中心的点），然后将各个数据项分配给最邻近的中心店，待分配完成之后，聚类中心就会移到分配给该聚类的所有节点的平均位置处，然后整个分配过程重新开始，这一个过程会一直重复下去，直到分配过程不再发生变化为止。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,11 +512,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,17 +533,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,6 +591,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3241524</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4218214" y="3605893"/>
+          <a:ext cx="8466667" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,223 +935,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="40.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="37.375" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47" style="5" customWidth="1"/>
+    <col min="8" max="8" width="45" style="5" customWidth="1"/>
+    <col min="9" max="9" width="75.75" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>31</v>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="22" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="3" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+    <row r="10" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="6" t="s">
-        <v>30</v>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -936,4 +1176,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="46.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="87.75" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="协同过滤" sheetId="2" r:id="rId2"/>
+    <sheet name="部分专有名词" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,14 +108,6 @@
   </si>
   <si>
     <t>算法缺点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精度高、对异常值不敏感、无数据输入假定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算复杂度高、空间复杂度高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,19 +364,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>最简单的分类算法，寻找聚类最近的k个节点，根据k哥节点的属性判断自己属于哪一类，使用距离矩阵进行分类(</t>
+    <t>K-means的基本方法是分级聚类，分级聚类是循环的测量任意两个输入样本的皮尔逊相关系数，对于距离最小的两个输入节点，进行合并，然后再网关测量所有数据变量的最邻近节点，分级聚类的缺点为计算量太大
+K-means算法首先会随机确定k个中心位置（位于空间中代表聚类中心的点），然后将各个数据项分配给最邻近的中心点(通常根据皮尔逊距离)，待分配完成之后，聚类中心就会移到分配给该聚类的所有节点的平均位置处，然后整个分配过程重新开始，这一个过程会一直重复下去，直到分配过程不再发生变化为止。其中k值表示最终希望的分类的数量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了避免由于输入值区间的不同对结果造成的影响，在建模初期需要对输入参数做数据归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算复杂度高、空间复杂度高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">精度高、对异常值不敏感、无数据输入假定 
+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>k近邻算法需要重新熟悉一下</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最简单的分类算法，寻找聚类最近的k个节点，根据k个节点的属性判断自己属于哪一类，一般来说我们选择样本数据集中前k个最相似的数据，通常k不大于20，然后选择k个最详细数据中出现次数最多的分类，作为新数据的分类。使用距离矩阵进行分类(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>既适应离散也适应连续型数据</t>
     </r>
     <r>
@@ -405,13 +430,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K-means的基本方法是分级聚类，分级聚类是循环的测量任意两个输入样本的皮尔逊相关系数，对于距离最小的两个输入节点，进行合并，然后再网关测量所有数据变量的最邻近节点，分级聚类的缺点为计算量太大
-K-means算法首先会随机确定k哥中心位置（位于空间中代表聚类中心的点），然后将各个数据项分配给最邻近的中心店，待分配完成之后，聚类中心就会移到分配给该聚类的所有节点的平均位置处，然后整个分配过程重新开始，这一个过程会一直重复下去，直到分配过程不再发生变化为止。</t>
+      <t>)，注意knn中的k不是指选取k个样本数据计算距离，而是计算所有和样本数据之间的距离，选择其中距离最小的k个样本，并统计这k个样本中哪个分类最多，则将该数据分配到具体的类别中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanimoto系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示交集与并集的比例(集体智慧编程P69）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +490,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -512,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,30 +597,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -935,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,17 +1022,17 @@
         <v>21</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1002,59 +1048,61 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="1:10" ht="145.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+    <row r="4" spans="1:10" s="20" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1065,10 +1113,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1079,15 +1127,15 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1095,10 +1143,10 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1109,15 +1157,15 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>24</v>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1128,16 +1176,16 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+    <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1158,7 +1206,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1183,30 +1231,30 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="46.375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="87.75" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="46.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="87.75" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1214,4 +1262,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
     <sheet name="协同过滤" sheetId="2" r:id="rId2"/>
     <sheet name="部分专有名词" sheetId="3" r:id="rId3"/>
+    <sheet name="优化方法" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +449,83 @@
   </si>
   <si>
     <t>表示交集与并集的比例(集体智慧编程P69）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定可以取到最优的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬山法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选取一部分路径分别计算最小的成本代价，取其最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个随机解开始，然后在其邻近的解集中寻找更好的题解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以取到一个比较好的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟退火算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较大的缺陷为输出很有可能为局部最小值，可以通过随机爬山法，通过多次的随机爬山，来弥补这种缺陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟退火算法之所以管用，不仅因为它总是会接受一个更优的解，而且还因为它在退火额过程的开始阶段会接受较差的解，随着退火过程的不断进行，算法越来越不可能接受较差的解（这个过程通过一个概率分布函数来进行调节），直到最后，它将只会接受更优的解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先从随机解开始，每一次迭代，算法会在随机解中选取解中的某个数字，然后朝着某个方向变化一定的step，然后不断往复，且这个过程中可能接受较差的结果，只不过接受较差结果的概率会越来越低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机生成一组解，称之为种群，在优化过程中每一步，算法会计算整个种群的收入成本函数，从而得到一个有关题解的有序列表，然后对题解进行排序，将当前种群中位于最顶端的题解加入其所在的新种群，称这一过程为精英选拔，有两种修改题解的方法，一种较为简单，成为变异，通常的做法是对一个既有的解进行微小的，简单的随机的改变，修改题解的另外一种方法成为交叉或者配对，即对最优解中的两个解进行变异，即按照某种方式进行组合。
+一个新的种群是通过对最优解进行随机的变异与配对处理构造出来的，他的大小通常与旧的种群相同，尔后这一个过程会一直重复进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些算法的前提都是将问题的潜在解转化成数字列表，这样就可以很容易的使用遗传算法或者模拟退火算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -553,11 +631,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,13 +702,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1029,10 +1124,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1049,12 +1144,12 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="145.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1075,10 +1170,10 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" s="20" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1099,10 +1194,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1113,10 +1208,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1127,10 +1222,10 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1143,10 +1238,10 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1157,14 +1252,14 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1177,10 +1272,10 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1279,10 +1374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1298,4 +1393,133 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="96.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这些算法的前提都是将问题的潜在解转化成数字列表，这样就可以很容易的使用遗传算法或者模拟退火算法</t>
+    <t>这些算法的前提都是将问题的潜在解转化成数字列表，这样就可以很容易的使用遗传算法或者模拟退火算法，优化算法需要注意到一种这样的应用，如果我们希望对一组人进行分组，让组员的技能得以均匀分布，在一个小型的竞赛活动，希望将参赛者进行组队，使得每个人都能在体育、历史、文学以及电视方面具备足够的只是，优化算法可以找到任务分解的最佳方案，从而使任务列表得以在最短时间内完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,15 +705,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,10 +1130,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1144,12 +1150,12 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="145.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1170,10 +1176,10 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" s="20" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1194,10 +1200,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1208,10 +1214,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1222,10 +1228,10 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1238,10 +1244,10 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1252,14 +1258,14 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1272,10 +1278,10 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1399,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,77 +1419,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
@@ -1521,5 +1527,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
     <sheet name="协同过滤" sheetId="2" r:id="rId2"/>
     <sheet name="部分专有名词" sheetId="3" r:id="rId3"/>
     <sheet name="优化方法" sheetId="4" r:id="rId4"/>
+    <sheet name="分类方法" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +527,14 @@
   </si>
   <si>
     <t>这些算法的前提都是将问题的潜在解转化成数字列表，这样就可以很容易的使用遗传算法或者模拟退火算法，优化算法需要注意到一种这样的应用，如果我们希望对一组人进行分组，让组员的技能得以均匀分布，在一个小型的竞赛活动，希望将参赛者进行组队，使得每个人都能在体育、历史、文学以及电视方面具备足够的只是，优化算法可以找到任务分解的最佳方案，从而使任务列表得以在最短时间内完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素贝叶斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素贝叶斯之所以称为朴素的原因为假设将要被组合的各个概率是彼此独立的，即一个单词属于某个指定的分类的文档中的概率和其它单词出现在该文档中的概率是不相关的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +731,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,4 +1544,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
+    <col min="3" max="5" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="870" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
     <sheet name="协同过滤" sheetId="2" r:id="rId2"/>
     <sheet name="部分专有名词" sheetId="3" r:id="rId3"/>
     <sheet name="优化方法" sheetId="4" r:id="rId4"/>
-    <sheet name="分类方法" sheetId="5" r:id="rId5"/>
+    <sheet name="分类器" sheetId="5" r:id="rId5"/>
+    <sheet name="辅助算法" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支撑向量机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AdaBoost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,12 +107,6 @@
   </si>
   <si>
     <t>聚类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较直观、容易理解，但是比较难以实现。
-基于熵值的决策树(ID3)和基于C4.5以及CART(Classifacation and Regression Tree)的决策树
-ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,10 +120,6 @@
   <si>
     <t>基尼不纯度，是指将来自集合中某一数据项的预期误差率，如果集合中每个数据项都属于同一分类，那么预测的结果总是正确的，因而误差率为0
 信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，例如所有的用户都是付费用户，则熵值就为0，所分的群组越混乱，相应的熵值就越高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logistic回归的目的是寻找一个非线性函数Sigmoid的最佳拟合参数，求解过程可以由最优化算法来完成，最优化算法中，最常用的就是梯度上升算法，而梯度上升算法又可以简化为随机梯度上升算法，随机梯度上升算法与梯度上升算法效果相当，但占用更少的计算资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,10 +151,6 @@
       <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
 处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协同过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,48 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.无法给出数据的内在含义
-2.可能产生过渡匹配的问题
-3.不稳定
-4.如果一类占主导地位创建的数就有偏差
-5.是NP问题
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">决策树是局部最优，不是全局最优？每一个分支都是采用了次分支得到的最大熵值，并不一定是全局最大情况下的分支情况，因为有可能第一层划分熵值增加不是很多，第二层熵值却增加很多的情况？？？？？？？？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.如果输出结果是成千上百种，决策树就会变得异常复杂，预测效果也可能会大打折扣。
-7.决策树的分支只能处理大于\小于的情况，而对于复杂的组合，决策树处理起来就比较困难，比如结果由两个变量的差决定。
-8.对于大量数值型决策树比较不太适合，决策树适合大量分类数据和数值数据共同组成的数据集。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据形式非常容易理解且计算复杂度并不高，对中间值的缺失不敏感，可以处理不相关特征数据
-决策树最大优势为可以轻易的对一个训练模型给予解释，决策树可以同时接受分类数据(category)和数值(numerical)数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K-means</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,11 +467,459 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朴素贝叶斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴素贝叶斯之所以称为朴素的原因为假设将要被组合的各个概率是彼此独立的，即一个单词属于某个指定的分类的文档中的概率和其它单词出现在该文档中的概率是不相关的</t>
+    <t>在数据较少的情况下仍然有效，可以处理多类别问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型使用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个常见的使用场景是文档分类，垃圾邮件的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为监督学习，贝叶斯概率提供了一种利用已知值来估计未知概率的有效方法这种随机选择数据的一部分作为训练集，而剩余部分作为测试集的过程称之为留存交叉验证(hold-out cross validation),通常会做多次留存交叉验证，取多次的平均值作为结果输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于输入数据的准备方式较为敏感
+可以通过特征之间的条件独立性假设，降低对数据量的要求，独立性假设是指一个词出现的概率并不依赖于文档中的其它词，当然这个假设过于简单，这就是之所以成为朴素贝叶斯的原因，尽管条件福利性假设并不正确，但是朴素贝叶斯让然是一种有效的分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素贝叶斯分类器通常有两种实现方式，一种基于贝努利模型实现，一种基于多项式模型实现，前一种不考虑词在文档中出现的次数，相当于假设词是等权的
+使用朴素贝叶斯时需要考虑很多因素，下溢就是其中一个问题，他可以通过对概率取对数来解决，此袋模型在解决文档分类问题上比词集模型有所提高。当然也可以花大量的时间对分类器进行优化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素贝叶斯之所以称为朴素的原因为假设将要被组合的各个概率是彼此独立的，即一个单词属于某个指定的分类的文档中的概率和其它单词出现在该文档中的概率是不相关的，由统计学知，如果每个特征需要N个样本，那么对于10个特征将需要N的十次方个样本，如果特征之间相互独立，那么样本数就可以从N的十次方减少到N*10个样本，这个假设正是朴素贝叶斯分类器中朴素（naive ) 一词的含义，朴素贝叶斯分类器中的另一个假设是，每个特征同等重要，贝叶斯适合二分类器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic回归的目的是寻找一个非线性函数Sigmoid的最佳拟合参数，求解过程可以由最优化算法来完成，最优化算法中，最常用的就是梯度上升算法，而梯度上升算法又可以简化为随机梯度上升算法，随机梯度上升算法与梯度上升算法效果相当，但占用更少的计算资源，逻辑回归适合二分类器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑向量机(SVM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性可分：在图中画一条直线，可以将方点和圆点分隔开，即成为线性可分，将两部分数据分隔开的直线称为分隔超平面，数据集到分隔面的距离称之为间隔（margin），希望找到离分隔面最近的点，确保他们离分隔面的距离尽可能远，常见的间隔有两种，一种为数据集到分隔面的间隔，称为点相对于分隔面的间隔，另外一种是所有数据集中点到分隔面的最小间隔的2倍，称之为分类器或数据集的间隔，支持向量就是离分隔超平面最近的那些点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人认为SVM是最好的现成的分类器，这里的现成的分类器指的是不加修改即可直接使用，SVM有很多实现方式，其中最流行的一种即序列最小化（Sequential Minimal Optimization SMO），可以通过核函数（kernael）的方式将SVM扩展到更多的数据集上，几乎所有的分类问题都可以使用SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据从一个特征空间转换到另外一个特征空间，通常是将低纬度映射到高纬度，核函数就是完成了这个特征空间的映射，使用核函数的原因为数据在低纬不是线性可分，映射到高纬以后就可以线性可分，径向基函数是SVM最常使用的一种核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛化错误率低，易编码，可以应用在大部分分类器上，无参数调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对离群点敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元算法是对其它算法进行组合的一种方式，其中AdaBoost(adaptive boosting的缩写)是最流行的元算法（或者集成方法），有些人认为AdaBoost是最流行的元算法，所以该方法是机器学习工具箱中最强有力的工具之一。使用集成方法时有多种形式，可以是不同算法的集成，也可以是同一算法在不同设置下的集成，还可以是数据集不同部分分配给不同分类器之后的集成。Boosting和bagging不同的地方在于boosting是通过集中关注被已有分类器错分的哪些数据来获得新的分类器，由于boosting分类器的结果是基于所有分类器的加权求和的结果，bagging的加权器的权重是相同的，而boosting中的分类器加权并不相等，每个权重代表的是其分类器在上一轮迭代中的成功度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost运行过程如下：训练数据中的每一个样本，并赋予其一个去找你红，这些权重构成了向量D，一开始这些权重都被初始化成相等值，首先在训练数据上训练出一个弱分类器，并计算该分类器的错误率，然后在同一数据集上再次训练弱分类器，在分类器大的第二次训练中，将会重新调整每个样本的权重，其中第一次分对的样本的权重将会降低，而第一次分错的样本的权重将会提高，为了从所有的弱分类器中得到最终的分类结果，AdaBoost为每个分类器都分配了一个权值alpha(区分与前面一个权值)，这些alpha指是基于每个弱分类器的错误率进行计算的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging：基于数据随机重抽样的分类器构建方法，是在原始数据集中选择S次后得到S个新的数据集的一种技术，在S个数据集建好之后，将某个学习方法分别作用于每个数据集就得到了S个分类器，选择分类器投票结果中最多的类别作为最后的分类结果，当然还有更先进的bagging方法，比如随机森林
+在机器学习中有一个普遍适应的称为混淆矩阵(confusion matrix)的工具，它可以帮助人们更好地了解分类器中的错误，如果矩阵中的非对角元素均为0，就会得到一个完美的分类器。正确率= TP/(TP+FP)给出的是预测为正例样本中的真正正例的比例，第二个是召回率，它等于TP/(TP+FN)，给出的是预测为正例的占所有真实正例的比例
+另一个用户度量分类器中的非均衡性的工具是ROC曲线，ROC（receiver operating characteristic）代表接收者操作特征，对不同的ROC曲线进行比较的一个特征指标是曲线下的面积（Area Under the Cureve AUC），AUC给出的是分类器的平均性能值，当然它并不能完全代替对整条曲线的观察，一个完美的分类器的AUC为1，而随机猜测的AUC为0.5
+另外一种针对非均衡问题调节分类的方法就时通过对训练数据进行改造，可以通过欠抽样和过抽样来实现，过抽样意味着赋值样例，而欠抽样意味着删除样例，对于信用卡违约来说，可以通过反例类别欠抽样和正例类别过抽样混合的方法，但是正例离别的过抽样可能会导致过拟合的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类器细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类器说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boosting 是一种将弱分类器转化为强分类器的方法统称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用了exponential loss function（其实就是用指数的权重），根据不同的loss function还可以有其他算法，比如L2Boosting, logitboost,Gradient Boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xgboost是GB算法的高效实现,使用C++实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgboost最大的特点在于，它能够自动利用CPU的多线程进行并行，同时在算法上加以改进提高了精度，xgboost的特点有三个：速度快，效果好，功能多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBM(Gradient Boosting Machines)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Gradient Boosting中，每个新的模型的建立是为了使得之前模型的残差往梯度方向减少，与传统Boosting对正确、错误样本进行加权有着很大的区别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对非线性的数据拟合不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过相关系数评估拟合的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果易于理解，计算上不复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基本的线性回归方法普通最小二乘法(Ordinary Least Sequence OLS)，线性回归的一个问题是可能会出现欠拟合的现象，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部加权线性回归（Loaclly Weighted Linear Regression LWLR），在该算法中，我们给待预测点附近的每个点赋予一定的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于最小二乘法的线性回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部加权线性回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩减系数线性回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当数据的特征比样本点还多时，输入数据矩阵不是满秩矩阵，非满秩矩阵在求逆的时候会出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.岭回归：在矩阵上加上一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λI从而使矩阵非奇异,岭回归最先用于处理特征数多于样本数的情况，现在也用于在估计中加入偏差，从而得到更好的估计，通过引入λ来限制了所有的w之和，通过引用该惩罚项，能够减少不重要的参数，这项技术在统计学中也叫做缩减。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.lasso:
+3.前向逐步回归：前向逐步回归可以得到和lasso差不多的效果，但是更加简单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树回归（Classification And Regression Trees ，分类回归树）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对复杂和非线性的数据建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果不易理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+数据形式非常容易理解且计算复杂度并不高，对中间值的缺失不敏感，可以处理不相关特征数据
+决策树最大优势为可以轻易的对一个训练模型给予解释，决策树可以同时接受分类数据(category)和数值(numerical)数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗数如果节点过多，表明该模型可能对数据进行了过拟合，可以通过交叉验证的方式来发现过拟合，通过降低决策树的复杂度来避免过拟合的过程称为剪枝（pruning）剪枝可以通过预剪枝（预剪枝在树的构建过程中就进行剪枝）和后剪枝两种方式。 后剪枝不需要用户指定参数，是一种更理想化的剪枝方式
+当输入数据和目标变量之间呈现非线性关系，对于这种复杂的关系建模，一种可行的方式是使用树对预测值分段，相应地，如果叶节点使用的模型是分段常数则称为回归树，若叶节点使用的模型是线性回归方程，则称为模型树，CART可以用于构建二元数，若使用不同的误差准则，就可以通过CART算法构建模型树和回归树，该算法构建的树会倾向于数据过拟合，所以需要后剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较直观、容易理解，但是比较难以实现。
+基于熵值的决策树(ID3)和基于C4.5以及CART(Classifacation and Regression Tree)的决策树
+ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。
+有两种切分方法，一种是按照当前最佳的特征来分割数据，并按照该特征的所有可能值来切分，也就是说一个特征有4种取值，那么数据将被切分成4份，一旦按照某种特征切分后，该特征在之后的算法执行过程中不会再起作用（ID3即使用该方法），另外一种方法是二元切分法，即每次把数据集切分成两份，对于符合或不符合的数据集分别放到左右子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.无法给出数据的内在含义
+2.可能产生过渡匹配的问题
+3.不稳定
+4.如果一类占主导地位创建的数就有偏差
+5.是NP问题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">决策树是局部最优，不是全局最优？每一个分支都是采用了次分支得到的最大熵值，并不一定是全局最大情况下的分支情况，因为有可能第一层划分熵值增加不是很多，第二层熵值却增加很多的情况？？？？？？？？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.如果输出结果是成千上百种，决策树就会变得异常复杂，预测效果也可能会大打折扣。
+7.决策树的分支只能处理大于\小于的情况，而对于复杂的组合，决策树处理起来就比较困难，比如结果由两个变量的差决定。
+8.对于大量数值型决策树比较不太适合，决策树适合大量分类数据和数值数据共同组成的数据集。
+9.切分过于迅速，不能处理连续性变量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CART使用二元切分法
+线性回归存在两个问题：1.需要拟合所有的样本点，计算量比较大，尤其是数据拥有众多的特征，且特征之间的关系十分复杂时 2.实际生活中很多问题都是非线性的，不可能使用全局线性模型来拟合任何数据。
+一种可行的方法是将数据集切分成很多份易建模的数据，然后利用线性回归来建模，如果首次切分后仍然难以拟合线性回归模型，则继续切换
+CART即可用来分类，又可以用于回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归和分类的区别在于分类输出的是标称型类别，回归方法预测输出的是一个连续值（即一个线性回归方程，通过线性回归方程的预测值与实际值之间的预测误差作为构造树过程中求解最优化的目标变量）
+CART和决策树的区别在于，决策树用来进行分类，但是当输出变量比较分散时，比如一类的输出集中于0-1，另外一类的输出集中在100-101，使用决策树，可能有多个分类器，而使用CART只需要两个分类，CART相当于在决策树的叶子节点的结果做了一次逻辑回归，然后再输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能收敛到局部最小值，在大规模数据集上收敛较慢，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了克服K均值算法的问题，提出了二分K均值算法，该算法首先将所有的点作为一个簇，然后将该簇一分为二，之后选择其中的一个簇继续进行划分，选择哪个簇进行划分取决于对其划分是否可以最大程度降低SSE的值，上述基于SSE的划分过程不断重复，直到得到用户指定的簇数目为止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apriori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易编码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在大数据集上可能比较慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持度和置信度为衡量的主要标准，支持度为样本占所有样本的比例，置信度为买了A又买了B的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP-growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apriori算法是发现频繁项集的一种方法，算法的两种数据参数分别是最小支持度和数据集，算法有两个步骤构成：1.发现频繁项集：该算法首先会生成所有单个物品的项集列表，扫码交易记录中哪些相集中满足最小支持度要求，那些不满足最小支持度的集合会被去掉，然后对剩下来的集合进行组合，生成包含两个元素的集合，重新扫面这个集合，去掉不满足最小支持度的项集，重复上述过程，直到所有的项集。 2关联规则：.类似与频繁项生成，可以为每个频繁项集产生许多关联规则，如果能够减少规则数据来确保问题的可解性，那么计算起来就会好很多，可以首先从一个频繁项集开始，接着创建一个规范列表，其中规则右部只包含一个元素，然后对这些规则进行测试，接下来合并所有的剩余规则来创建一个新的规则列表，其中规则右部包含两个元素，这种方法也称为分级法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度比Apriori快两个数量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要对数据库进行两次扫描，而Apriori算法对每个潜在的项集都会扫描数据集判定模式是否频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但不能够发现关联规则
+实现比较困难，对某些数据集上性能会下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有具体看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用情景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA(Principal Component Analysis)主成分分析法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子分析法(Factor Analysis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在PCA中，数据从原来的坐标系转换到了新的坐标系，新坐标系的选择由数据本身决定，第一个新坐标轴选择的是原始数据中方差最大的方向，第二个新的坐标轴的选择和第一个坐标轴正交，且具有最大方差的方向，该过程一直重复，重复次数为原始数据中特征的数目，可以发现，大部分方差都包含在最前面的几个新坐标轴中，因此，可以忽略剩下的坐标轴，即对数据进行了降维处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设在观察数据生成中有一些观察不到的隐变量，假设观察数据是这些隐变量和某些噪声的线性组合，隐变量的数量可能比观察数据的数目少，也达到了降维的目的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前使用最为广泛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立成分分析(Independent Component Analysis ICA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA假设数据是从N个数据源生成的，这一点和因子分析有些类似，这些数据源之间在统计上是相互独立的，而在PCA中只假设数据是不相关的，同因子分析法一样，如果数据源的数据少于观察数据的数目，则可以实现降维的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定需要，且可能损失有用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异值分解SVD(Singular Value Decomposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化数据，取出噪声，提高算法的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用三种相似度之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮尔逊相关系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对离群值数据点并不敏感，对噪声的抑制能力比较好，取值范围为-1到1，可以通过0.5+0.5*皮尔逊相关系统完成0至1的归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个向量夹角的余弦值，如果夹角为90度，相似度为0，如果两个向量的方向相同，则相似度为1，取值范围为-1至1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于用户的协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于物品的协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户or物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中行与行之间比较的是基于用户的相似度，列与列之间比较的是基于物品的相似度，使用哪种相似度，取决于用户和物品的数据，基于用物品相似度计算时间会随着物品数量的增加而增加，基于用户的相似度会随着用户的增加而增加，如果用户过多，倾向于选择基于物品的相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉验证，评价推荐引擎的指标称为最小均方根误差（Root Mean Squared Error RMSE），计算均方差误差的平均值然后取其平方根，如果评级在1星到5星这个范围内，我们得到的RMSE为1.0，那么久意味着我们的预测值和用户给出的真实评价之间差了一个星级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常使用SVD优化协同过滤的计算速度，且SVD可以通过每天离线计算一次，节省效率，同时物品的相似度得分通常也是通过离线计算，然后保存对应得分，进行数据的复用
+推荐引擎面临的一个问题是如何在缺乏数据时给出好的推荐，这称为冷启动，冷启动通常使用基于内容的推荐来解决这个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用SVD能够用小的多的数据集来表示原始数据集，很多情况下数据中的一小部分数据集代表了数据集中的大部分信息，其它要么是噪声要么是毫不相关的信息，SVD便是一种矩阵分解，将原始数据分解成三个矩阵的乘积，其中一个矩阵是奇异值矩阵，科学工程中一直存在这样的普遍事实：某个奇异值的数据（r个）之后，其它的奇异值都为0，这就意味着数据集中仅有r个重要特征，其余特征都是噪声，或冗余信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +927,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +976,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,8 +997,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -649,23 +1047,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,12 +1108,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,7 +1123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -729,14 +1140,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,20 +1215,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2177143</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3241524</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6715</xdr:rowOff>
+      <xdr:colOff>152703</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -785,8 +1247,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4218214" y="3605893"/>
+          <a:off x="2857500" y="4626428"/>
           <a:ext cx="8466667" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2204357</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485548</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7032F2-8B3A-4BB7-97B3-83FA56091F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2884714" y="6177643"/>
+          <a:ext cx="2819048" cy="2171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,246 +1601,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47" style="5" customWidth="1"/>
-    <col min="8" max="8" width="45" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="47" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45" style="3" customWidth="1"/>
     <col min="9" max="9" width="75.75" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
+    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="E13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="145.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="20" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="10">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,33 +2018,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="46.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="87.75" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="46.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="87.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="53.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>31</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1382,32 +2084,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>45</v>
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +2147,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,107 +2160,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1548,57 +2274,227 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5" customWidth="1"/>
-    <col min="3" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="24" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="41.5" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="870" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="556"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
@@ -1152,6 +1152,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,21 +1192,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1655,16 +1655,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="34" t="s">
         <v>109</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -1686,10 +1686,10 @@
       <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="26" t="s">
         <v>96</v>
       </c>
@@ -1703,10 +1703,10 @@
       <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="26" t="s">
         <v>97</v>
       </c>
@@ -1722,9 +1722,9 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="25" t="s">
         <v>108</v>
       </c>
@@ -1749,12 +1749,12 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -1776,10 +1776,10 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="16" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="25" t="s">
         <v>9</v>
       </c>
@@ -1801,10 +1801,10 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="25" t="s">
         <v>14</v>
       </c>
@@ -1828,10 +1828,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="25" t="s">
         <v>12</v>
       </c>
@@ -1843,10 +1843,10 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="25" t="s">
         <v>11</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="25" t="s">
         <v>67</v>
       </c>
@@ -1881,10 +1881,10 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="25" t="s">
         <v>13</v>
       </c>
@@ -1906,14 +1906,14 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -1935,10 +1935,10 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="25" t="s">
         <v>118</v>
       </c>
@@ -1958,10 +1958,10 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="25" t="s">
         <v>29</v>
       </c>
@@ -2036,22 +2036,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="31" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       <c r="B2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -2097,10 +2097,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       <c r="A4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       <c r="A5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="29" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="41" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       <c r="D3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -2219,7 +2219,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="36"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="36"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -2408,7 +2408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="556"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="优化方法" sheetId="4" r:id="rId4"/>
     <sheet name="分类器" sheetId="5" r:id="rId5"/>
     <sheet name="辅助算法" sheetId="6" r:id="rId6"/>
+    <sheet name="数据预处理" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,42 +116,6 @@
   </si>
   <si>
     <t>其它解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基尼不纯度，是指将来自集合中某一数据项的预期误差率，如果集合中每个数据项都属于同一分类，那么预测的结果总是正确的，因而误差率为0
-信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，例如所有的用户都是付费用户，则熵值就为0，所分的群组越混乱，相应的熵值就越高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关于剪枝：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
-处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Logistic回归的目的是寻找一个非线性函数Sigmoid的最佳拟合参数，求解过程可以由最优化算法来完成，最优化算法中，最常用的就是梯度上升算法，而梯度上升算法又可以简化为随机梯度上升算法，随机梯度上升算法与梯度上升算法效果相当，但占用更少的计算资源，逻辑回归适合二分类器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支撑向量机(SVM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,15 +569,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最基本的线性回归方法普通最小二乘法(Ordinary Least Sequence OLS)，线性回归的一个问题是可能会出现欠拟合的现象，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>局部加权线性回归（Loaclly Weighted Linear Regression LWLR），在该算法中，我们给待预测点附近的每个点赋予一定的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于最小二乘法的线性回归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,6 +640,357 @@
 基于熵值的决策树(ID3)和基于C4.5以及CART(Classifacation and Regression Tree)的决策树
 ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。
 有两种切分方法，一种是按照当前最佳的特征来分割数据，并按照该特征的所有可能值来切分，也就是说一个特征有4种取值，那么数据将被切分成4份，一旦按照某种特征切分后，该特征在之后的算法执行过程中不会再起作用（ID3即使用该方法），另外一种方法是二元切分法，即每次把数据集切分成两份，对于符合或不符合的数据集分别放到左右子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CART使用二元切分法
+线性回归存在两个问题：1.需要拟合所有的样本点，计算量比较大，尤其是数据拥有众多的特征，且特征之间的关系十分复杂时 2.实际生活中很多问题都是非线性的，不可能使用全局线性模型来拟合任何数据。
+一种可行的方法是将数据集切分成很多份易建模的数据，然后利用线性回归来建模，如果首次切分后仍然难以拟合线性回归模型，则继续切换
+CART即可用来分类，又可以用于回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归和分类的区别在于分类输出的是标称型类别，回归方法预测输出的是一个连续值（即一个线性回归方程，通过线性回归方程的预测值与实际值之间的预测误差作为构造树过程中求解最优化的目标变量）
+CART和决策树的区别在于，决策树用来进行分类，但是当输出变量比较分散时，比如一类的输出集中于0-1，另外一类的输出集中在100-101，使用决策树，可能有多个分类器，而使用CART只需要两个分类，CART相当于在决策树的叶子节点的结果做了一次逻辑回归，然后再输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能收敛到局部最小值，在大规模数据集上收敛较慢，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了克服K均值算法的问题，提出了二分K均值算法，该算法首先将所有的点作为一个簇，然后将该簇一分为二，之后选择其中的一个簇继续进行划分，选择哪个簇进行划分取决于对其划分是否可以最大程度降低SSE的值，上述基于SSE的划分过程不断重复，直到得到用户指定的簇数目为止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apriori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易编码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在大数据集上可能比较慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持度和置信度为衡量的主要标准，支持度为样本占所有样本的比例，置信度为买了A又买了B的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP-growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apriori算法是发现频繁项集的一种方法，算法的两种数据参数分别是最小支持度和数据集，算法有两个步骤构成：1.发现频繁项集：该算法首先会生成所有单个物品的项集列表，扫码交易记录中哪些相集中满足最小支持度要求，那些不满足最小支持度的集合会被去掉，然后对剩下来的集合进行组合，生成包含两个元素的集合，重新扫面这个集合，去掉不满足最小支持度的项集，重复上述过程，直到所有的项集。 2关联规则：.类似与频繁项生成，可以为每个频繁项集产生许多关联规则，如果能够减少规则数据来确保问题的可解性，那么计算起来就会好很多，可以首先从一个频繁项集开始，接着创建一个规范列表，其中规则右部只包含一个元素，然后对这些规则进行测试，接下来合并所有的剩余规则来创建一个新的规则列表，其中规则右部包含两个元素，这种方法也称为分级法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度比Apriori快两个数量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要对数据库进行两次扫描，而Apriori算法对每个潜在的项集都会扫描数据集判定模式是否频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但不能够发现关联规则
+实现比较困难，对某些数据集上性能会下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有具体看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用情景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA(Principal Component Analysis)主成分分析法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子分析法(Factor Analysis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立成分分析(Independent Component Analysis ICA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA假设数据是从N个数据源生成的，这一点和因子分析有些类似，这些数据源之间在统计上是相互独立的，而在PCA中只假设数据是不相关的，同因子分析法一样，如果数据源的数据少于观察数据的数目，则可以实现降维的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异值分解SVD(Singular Value Decomposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化数据，取出噪声，提高算法的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用三种相似度之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮尔逊相关系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对离群值数据点并不敏感，对噪声的抑制能力比较好，取值范围为-1到1，可以通过0.5+0.5*皮尔逊相关系统完成0至1的归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个向量夹角的余弦值，如果夹角为90度，相似度为0，如果两个向量的方向相同，则相似度为1，取值范围为-1至1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于用户的协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于物品的协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户or物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中行与行之间比较的是基于用户的相似度，列与列之间比较的是基于物品的相似度，使用哪种相似度，取决于用户和物品的数据，基于用物品相似度计算时间会随着物品数量的增加而增加，基于用户的相似度会随着用户的增加而增加，如果用户过多，倾向于选择基于物品的相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉验证，评价推荐引擎的指标称为最小均方根误差（Root Mean Squared Error RMSE），计算均方差误差的平均值然后取其平方根，如果评级在1星到5星这个范围内，我们得到的RMSE为1.0，那么久意味着我们的预测值和用户给出的真实评价之间差了一个星级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常使用SVD优化协同过滤的计算速度，且SVD可以通过每天离线计算一次，节省效率，同时物品的相似度得分通常也是通过离线计算，然后保存对应得分，进行数据的复用
+推荐引擎面临的一个问题是如何在缺乏数据时给出好的推荐，这称为冷启动，冷启动通常使用基于内容的推荐来解决这个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用SVD能够用小的多的数据集来表示原始数据集，很多情况下数据中的一小部分数据集代表了数据集中的大部分信息，其它要么是噪声要么是毫不相关的信息，SVD便是一种矩阵分解，将原始数据分解成三个矩阵的乘积，其中一个矩阵是奇异值矩阵，科学工程中一直存在这样的普遍事实：某个奇异值的数据（r个）之后，其它的奇异值都为0，这就意味着数据集中仅有r个重要特征，其余特征都是噪声，或冗余信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic回归的目的是寻找一个非线性函数Sigmoid的最佳拟合参数，求解过程可以由最优化算法来完成，最优化算法中，最常用的就是梯度上升算法，而梯度上升算法又可以简化为随机梯度上升算法，随机梯度上升算法与梯度上升算法效果相当，但占用更少的计算资源，逻辑回归适合二分类器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前使用最为广泛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定需要，且可能损失有用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在PCA中，数据从原来的坐标系转换到了新的坐标系，新坐标系的选择由数据本身决定，第一个新坐标轴选择的是原始数据中方差最大的方向，第二个新的坐标轴的选择和第一个坐标轴正交，且具有最大方差的方向，该过程一直重复，重复次数为原始数据中特征的数目，可以发现，大部分方差都包含在最前面的几个新坐标轴中，因此，可以忽略剩下的坐标轴，即对数据进行了降维处理
+输出结果为：主成分会生成几个虚拟的主成分，这几个虚拟的主成分是原来自变量的线性组合，前几个虚拟主成分会占了样本的大量变化维度，自变量线性组合的大小代表了对应自变量的权值，通过对权值大小的评估，可以给出生成的虚拟变量的业务解释，同时前三、四个主成本可以占到了总体的样本变化的80%，将多个维度通过生成的三四个维度来代替，也起到了降维的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设在观察数据生成中有一些观察不到的隐变量，假设观察数据是这些隐变量和某些噪声的线性组合，隐变量的数量可能比观察数据的数目少，也达到了降维的目的。
+输出结果为：自变量通过生成的虚拟因子进行线性组合，对于同一个虚拟因子权重均比较大的自变量，找到这些自变量之间的隐藏关系，完成发现潜在的因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主成分和因子分子法的主要区别为，主成分通过自变量的线性组合生成虚拟的因子，因子分析通过虚拟因子的线性组合表示自变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类VS回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若模型预测的结果是离散值，例如好瓜、坏瓜，此类学习任务称为分类，若预测的结果是连续值，例如西瓜的成熟度0.95、0.37这类学习称之为回归，分类和回归都是有监督学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛化能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型适应新样本的能力叫做泛化能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归纳与演绎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归纳与演绎是科学推理的两个基本手段，前者是从特殊到一般的泛化，从具体的事实归结出一般性规律，后者则是从一般到特殊的特殊化，即从基础原理推演出具体状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Free Lunch Theorem，无论算法多么优秀，他们的期望性能相同，这就是没有免费的午餐，但是NFL有一个重要的前提，即所有问题出现的机会相同，或者所有问题同等重要，但是事实上并不是这样，NFL更重要的寓意，是让我们清楚地认识到，脱离具体的问题，空泛第谈论什么学习算法更好毫无意义，因为若是考虑所有潜在的问题，则所有的算法都一样好，要谈论算法的相对优劣，必须要针对具体的学习问题，所以数据挖掘更需要结合实际的业务使用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习与数据挖掘区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘是全台的流程，包括数据管理、机器学习和统计学为数据挖掘提供数据分析技术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据验证方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>留出法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：把用本中30%数据流出来作为验证样本，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但是必须保证留出的验证样本与训练样本保持数据分布上的一致，避免因数据划分过程引入额外的偏差而对最终结果产生影响，即使这样，单次使用留出法得到的估计结果往往不够稳定，通常采用若干次随机划分，例如进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100次随机划分，每一次产生一个训练、测试集用户评估结果，100次之后就得到100个结果，而留出法返回的就是这100个结果的平均。通常将2/3~4/5的样本用户训练，剩余样本用户测试
+2.交叉验证：和留出法的区别在于，上来把样本按照某种规则切分成k块，然后每次选k中的一块作为验证集，余下的作为训练集，然后最终的输出为所有k个输出的平均值，k最常用的为10，由于k的划分方式也存在差异，k折交叉验证通常要随机使用不同的划分重复p次，最终的评估结果是p次k折交叉验证结果的均值，交叉验证中有一个特例：留一法，即样本的最低粒度为单个样本，留一法的评估结果往往比较准确，但是留一法在数据集比较大时，训练开销太大
+自助法：从m个样本中每次采用放回抽样，抽m次之后，生成一个新的数据集合，使用该数据集合作为训练集，而该数据集合以外的数据作为测试即，自助法在数据集较小的时候很有用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据验证是应该验证模型的稳定性和准确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集、验证集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集是测试模型的实际落地效果，验证集是把训练的样本数据划分出来一小部分作为验证数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混淆矩阵、查准率、查全率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查准率P = TP/(TP+FP),查全率R = TP/(TP+FN)，查准率和查全率是一堆矛盾的变量，一般来说查准率高时，查全率往往偏低，反之亦然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据标准化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于离散属性，若属性之间存在序的关系，例如、高、中、矮，可以通过连续化将其转换为连续值，例如高为1,中为0.5,矮为0,如果属性之间不存在序关系，通常转化为k维向量，例如属性瓜类取值，西瓜、南瓜、黄瓜、可以转化为(0,0,1),(0,1,0),(1,0,0),若无序属性联系化，则会不恰当的引入序关系，即可能连续变量表示了实际的业务含义，影响后续的距离计算等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于最小二乘法的线性回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基本的线性回归方法普通最小二乘法(Ordinary Least Sequence OLS)，线性回归的一个问题是可能会出现欠拟合的现象，
+在线性回归中最小二乘法就是试图找到一条直线，使所有的样本到直线上的欧式距离之和最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别不平衡问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归应该是线性回归的一个特例，只是将目标变量从y变成了ln(y/(1-y))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线性回归过程，存在正负样本分布不均衡的问题，处理这个问题的方法有三个：1.样本少的数据进行过采样，但是过采样不能够简单的对现有样本进行重复采样，这样很容易造成过拟合的情况，过采样的代表算法是SMOTE，通过对训练集里面的正例进行插值来产生额外的正例；2.样本多的数据进行欠采样，如果随机丢去部分样本，可能会丢失部分细节，通常的做法是EasyEnsemble，将返利划分成若干个集合供不同的学习器使用，这样每个学习器看来都欠采样，但在全局来看却不会丢失信息；3再缩放，对预测值进行调整，乘以一个比例，即相当于调整了对应的阶跃函数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -728,198 +1032,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-CART使用二元切分法
-线性回归存在两个问题：1.需要拟合所有的样本点，计算量比较大，尤其是数据拥有众多的特征，且特征之间的关系十分复杂时 2.实际生活中很多问题都是非线性的，不可能使用全局线性模型来拟合任何数据。
-一种可行的方法是将数据集切分成很多份易建模的数据，然后利用线性回归来建模，如果首次切分后仍然难以拟合线性回归模型，则继续切换
-CART即可用来分类，又可以用于回归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归和分类的区别在于分类输出的是标称型类别，回归方法预测输出的是一个连续值（即一个线性回归方程，通过线性回归方程的预测值与实际值之间的预测误差作为构造树过程中求解最优化的目标变量）
-CART和决策树的区别在于，决策树用来进行分类，但是当输出变量比较分散时，比如一类的输出集中于0-1，另外一类的输出集中在100-101，使用决策树，可能有多个分类器，而使用CART只需要两个分类，CART相当于在决策树的叶子节点的结果做了一次逻辑回归，然后再输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容易实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能收敛到局部最小值，在大规模数据集上收敛较慢，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了克服K均值算法的问题，提出了二分K均值算法，该算法首先将所有的点作为一个簇，然后将该簇一分为二，之后选择其中的一个簇继续进行划分，选择哪个簇进行划分取决于对其划分是否可以最大程度降低SSE的值，上述基于SSE的划分过程不断重复，直到得到用户指定的簇数目为止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apriori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易编码实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在大数据集上可能比较慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持度和置信度为衡量的主要标准，支持度为样本占所有样本的比例，置信度为买了A又买了B的概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FP-growth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apriori算法是发现频繁项集的一种方法，算法的两种数据参数分别是最小支持度和数据集，算法有两个步骤构成：1.发现频繁项集：该算法首先会生成所有单个物品的项集列表，扫码交易记录中哪些相集中满足最小支持度要求，那些不满足最小支持度的集合会被去掉，然后对剩下来的集合进行组合，生成包含两个元素的集合，重新扫面这个集合，去掉不满足最小支持度的项集，重复上述过程，直到所有的项集。 2关联规则：.类似与频繁项生成，可以为每个频繁项集产生许多关联规则，如果能够减少规则数据来确保问题的可解性，那么计算起来就会好很多，可以首先从一个频繁项集开始，接着创建一个规范列表，其中规则右部只包含一个元素，然后对这些规则进行测试，接下来合并所有的剩余规则来创建一个新的规则列表，其中规则右部包含两个元素，这种方法也称为分级法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度比Apriori快两个数量级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只需要对数据库进行两次扫描，而Apriori算法对每个潜在的项集都会扫描数据集判定模式是否频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但不能够发现关联规则
-实现比较困难，对某些数据集上性能会下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有具体看懂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用情景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降维分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCA(Principal Component Analysis)主成分分析法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子分析法(Factor Analysis)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降维分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在PCA中，数据从原来的坐标系转换到了新的坐标系，新坐标系的选择由数据本身决定，第一个新坐标轴选择的是原始数据中方差最大的方向，第二个新的坐标轴的选择和第一个坐标轴正交，且具有最大方差的方向，该过程一直重复，重复次数为原始数据中特征的数目，可以发现，大部分方差都包含在最前面的几个新坐标轴中，因此，可以忽略剩下的坐标轴，即对数据进行了降维处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设在观察数据生成中有一些观察不到的隐变量，假设观察数据是这些隐变量和某些噪声的线性组合，隐变量的数量可能比观察数据的数目少，也达到了降维的目的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前使用最为广泛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立成分分析(Independent Component Analysis ICA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICA假设数据是从N个数据源生成的，这一点和因子分析有些类似，这些数据源之间在统计上是相互独立的，而在PCA中只假设数据是不相关的，同因子分析法一样，如果数据源的数据少于观察数据的数目，则可以实现降维的过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不一定需要，且可能损失有用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇异值分解SVD(Singular Value Decomposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化数据，取出噪声，提高算法的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用三种相似度之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧式距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮尔逊相关系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对离群值数据点并不敏感，对噪声的抑制能力比较好，取值范围为-1到1，可以通过0.5+0.5*皮尔逊相关系统完成0至1的归一化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余弦相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个向量夹角的余弦值，如果夹角为90度，相似度为0，如果两个向量的方向相同，则相似度为1，取值范围为-1至1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于用户的协同过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于物品的协同过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协同过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户or物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上图中行与行之间比较的是基于用户的相似度，列与列之间比较的是基于物品的相似度，使用哪种相似度，取决于用户和物品的数据，基于用物品相似度计算时间会随着物品数量的增加而增加，基于用户的相似度会随着用户的增加而增加，如果用户过多，倾向于选择基于物品的相似度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交叉验证，评价推荐引擎的指标称为最小均方根误差（Root Mean Squared Error RMSE），计算均方差误差的平均值然后取其平方根，如果评级在1星到5星这个范围内，我们得到的RMSE为1.0，那么久意味着我们的预测值和用户给出的真实评价之间差了一个星级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通常使用SVD优化协同过滤的计算速度，且SVD可以通过每天离线计算一次，节省效率，同时物品的相似度得分通常也是通过离线计算，然后保存对应得分，进行数据的复用
-推荐引擎面临的一个问题是如何在缺乏数据时给出好的推荐，这称为冷启动，冷启动通常使用基于内容的推荐来解决这个问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用SVD能够用小的多的数据集来表示原始数据集，很多情况下数据中的一小部分数据集代表了数据集中的大部分信息，其它要么是噪声要么是毫不相关的信息，SVD便是一种矩阵分解，将原始数据分解成三个矩阵的乘积，其中一个矩阵是奇异值矩阵，科学工程中一直存在这样的普遍事实：某个奇异值的数据（r个）之后，其它的奇异值都为0，这就意味着数据集中仅有r个重要特征，其余特征都是噪声，或冗余信息。</t>
+    <r>
+      <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关于剪枝：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
+处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。
+ID3和C4.5主要区别为ID3使用信息增益作为决策树的判断标准可能会对取值数目较多的属性有所偏好，例如对所有样本进行自增的标号，将编号带入模型中，可能会导致标号作为子分类器，这样信息增益最大，为了减少这种影响，C4.5不直接使用信息增益，而是使用信息增益率来选择最优划分方法，CART则使用基尼指数来选择划分属性，直观来说基尼指数反映了从数据集中随机抽取两个样本，其类别标记不一致的概率，因此，基尼系数越小，则数据集合的纯度越高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基尼不纯度，是指将来自集合中某一数据项的预期误差率，如果集合中每个数据项都属于同一分类，那么预测的结果总是正确的，因而误差率为0
+信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，例如所有的用户都是付费用户，则熵值就为0，所分的群组越混乱，相应的熵值就越高。
+剪枝是决策树中对付过拟合的主要手段，分为预剪枝和后剪枝，预剪枝会给决策树带来欠拟合的风险，后剪枝通常比预剪枝保留了更多的分值，且欠拟合的风险很小，泛化能力旺旺优于预剪枝，但是后剪枝过程是在生成决策树之后进行的，并且要自底向上对所有非叶节点进行逐一考察，因此其训练时间开销比未剪枝决策树和预剪枝决策树大的多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点是，单纯以"词频"衡量一个词的重要性，不够全面，有时重要的词可能出现次数并不多。而且，这种算法无法体现词的位置信息，出现位置靠前的词与出现位置靠后的词，都被视为重要性相同，这是不正确的。（一种解决方法是，对全文的第一段和每一段的第一句话，给予较大的权重。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF算法的优点是简单快速，结果比较符合实际情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原理为"词频"（Term Frequency，缩写为TF）*（Inverse Document Frequency，缩写为IDF=log(语料库文档总数/(包含该词的文档数+1))）
+（1）使用TF-IDF算法，找出两篇文章的关键词；
+（2）每篇文章各取出若干个关键词（比如20个），合并成一个集合，计算每篇文章对于这个集合中的词的词频（为了避免文章长度的差异，可以使用相对词频）；
+（3）生成两篇文章各自的词频向量；
+（4）计算两个向量的余弦相似度，值越大就表示越相似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF模型足够胜任普通的文本分析任务，用TF-IDF模型计算文本相似度已经比较靠谱了，但是细究的话还存在不足之处。实际的中文文本，用TF-IDF表示的向量维数可能是几百、几千，不易分析计算。此外，一些文本的主题或者说中心思想，并不能很好地通过文本中的词来表示，能真正概括这篇文本内容的词可能没有直接出现在文本中。
+因此，这里引入了Latent Semantic Indexing（LSI）从文本潜在的主题来进行分析。LSI是概率主题模型的一种，另一种常见的是LDA，核心思想是：每篇文本中有多个概率分布不同的主题；每个主题中都包含所有已知词，但是这些词在不同主题中的概率分布不同。LSI通过奇异值分解的方法计算出文本中各个主题的概率分布，严格的数学证明需要看相关论文。假设有5个主题，那么通过LSI模型，文本向量就可以降到5维，每个分量表示对应主题的权重。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1073,11 +1245,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,19 +1289,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,10 +1348,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1193,6 +1383,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,6 +1411,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1061357</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>900792</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7DF304-FD15-4253-8BE2-CAC66AE5B830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2422071" y="30861000"/>
+          <a:ext cx="10058400" cy="6271094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1293,6 +1547,55 @@
         <a:xfrm>
           <a:off x="2884714" y="6177643"/>
           <a:ext cx="2819048" cy="2171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4247030</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580690</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AAC8A6-7C90-4A67-9383-DC6CD4CF6C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5277971" y="7328647"/>
+          <a:ext cx="2676190" cy="1180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1601,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1651,368 +1954,382 @@
         <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="K8" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="H13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2020,59 +2337,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="87.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="53.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="46.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="87.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="53.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>151</v>
+      <c r="A1" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>152</v>
+      <c r="B2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2084,61 +2401,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.25" customWidth="1"/>
+    <col min="2" max="2" width="56.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>143</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2160,77 +2548,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="41"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -2277,91 +2665,91 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="24" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.375" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="15.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="19" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2408,24 +2796,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="41.5" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="44.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="63.125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="22.375" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -2443,54 +2833,97 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>137</v>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="76.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="706"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="706" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
     <sheet name="协同过滤" sheetId="2" r:id="rId2"/>
     <sheet name="部分专有名词" sheetId="3" r:id="rId3"/>
     <sheet name="优化方法" sheetId="4" r:id="rId4"/>
-    <sheet name="分类器" sheetId="5" r:id="rId5"/>
+    <sheet name="集成方法" sheetId="5" r:id="rId5"/>
     <sheet name="辅助算法" sheetId="6" r:id="rId6"/>
-    <sheet name="数据预处理" sheetId="7" r:id="rId7"/>
+    <sheet name="特征工程" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="235">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采用了exponential loss function（其实就是用指数的权重），根据不同的loss function还可以有其他算法，比如L2Boosting, logitboost,Gradient Boosting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GBDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,10 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xgboost最大的特点在于，它能够自动利用CPU的多线程进行并行，同时在算法上加以改进提高了精度，xgboost的特点有三个：速度快，效果好，功能多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GBM(Gradient Boosting Machines)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,10 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bagging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对非线性的数据拟合不好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,10 +554,6 @@
   </si>
   <si>
     <t>结果易于理解，计算上不复杂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>局部加权线性回归（Loaclly Weighted Linear Regression LWLR），在该算法中，我们给待预测点附近的每个点赋予一定的权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,6 +1016,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>基尼不纯度，是指将来自集合中某一数据项的预期误差率，如果集合中每个数据项都属于同一分类，那么预测的结果总是正确的，因而误差率为0
+信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，例如所有的用户都是付费用户，则熵值就为0，所分的群组越混乱，相应的熵值就越高。
+剪枝是决策树中对付过拟合的主要手段，分为预剪枝和后剪枝，预剪枝会给决策树带来欠拟合的风险，后剪枝通常比预剪枝保留了更多的分值，且欠拟合的风险很小，泛化能力旺旺优于预剪枝，但是后剪枝过程是在生成决策树之后进行的，并且要自底向上对所有非叶节点进行逐一考察，因此其训练时间开销比未剪枝决策树和预剪枝决策树大的多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点是，单纯以"词频"衡量一个词的重要性，不够全面，有时重要的词可能出现次数并不多。而且，这种算法无法体现词的位置信息，出现位置靠前的词与出现位置靠后的词，都被视为重要性相同，这是不正确的。（一种解决方法是，对全文的第一段和每一段的第一句话，给予较大的权重。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF算法的优点是简单快速，结果比较符合实际情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原理为"词频"（Term Frequency，缩写为TF）*（Inverse Document Frequency，缩写为IDF=log(语料库文档总数/(包含该词的文档数+1))）
+（1）使用TF-IDF算法，找出两篇文章的关键词；
+（2）每篇文章各取出若干个关键词（比如20个），合并成一个集合，计算每篇文章对于这个集合中的词的词频（为了避免文章长度的差异，可以使用相对词频）；
+（3）生成两篇文章各自的词频向量；
+（4）计算两个向量的余弦相似度，值越大就表示越相似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF模型足够胜任普通的文本分析任务，用TF-IDF模型计算文本相似度已经比较靠谱了，但是细究的话还存在不足之处。实际的中文文本，用TF-IDF表示的向量维数可能是几百、几千，不易分析计算。此外，一些文本的主题或者说中心思想，并不能很好地通过文本中的词来表示，能真正概括这篇文本内容的词可能没有直接出现在文本中。
+因此，这里引入了Latent Semantic Indexing（LSI）从文本潜在的主题来进行分析。LSI是概率主题模型的一种，另一种常见的是LDA，核心思想是：每篇文本中有多个概率分布不同的主题；每个主题中都包含所有已知词，但是这些词在不同主题中的概率分布不同。LSI通过奇异值分解的方法计算出文本中各个主题的概率分布，严格的数学证明需要看相关论文。假设有5个主题，那么通过LSI模型，文本向量就可以降到5维，每个分量表示对应主题的权重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部加权线性回归（Loaclly Weighted Linear Regression LWLR），在该算法中，我们给待预测点附近的每个点赋予一定的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成学习方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据个体学习器生成方式，目前的继承学习方法大致会分为两大类，即个体学习器间存在强以来关系、必须串行生成的序列化方法，以及个体学习器间不存在强依赖关系、可同时生成的并行化方法，前者代表是booting，后者代表是bagging和随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在模型训练过程中，通常希望模型在训练数据上有最小的误差，而规则化参数则是防止模型过度你和我们的训练数据，规则化函数有多种选择，一般是模型复杂度的单调递增函数，模型越复杂，规则化值越大，比如规则化项可以是模型参数向量的范数，在论文中常见的都聚焦在：零范数、一范数、二范数、迹范数、Frobenius范数和核范数等等
+L0范数：向量中 非0元素的个数
+L1范数(Lasso)：向量中各个元素绝对值之和(L0没有规模使用的原因为求解不方便，L1范数是L0范数的最优凸近似),L1会趋向于产生少量的热证，而其他的特征都是0
+L2范数(Ridge)：向量各个元素的平方和然后求平方根，L2范数不但可以防止过拟合，还可以让优化求解变的稳定和快速，L2会选择更多的特征，这些特征都会接近于0，Lasso在特征选择时候非常有用，而Ridge就只是一种规划化而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用了exponential loss function（其实就是用指数的权重），根据不同的loss function还可以有其他算法，比如L2Boosting, logitboost,Gradient Boosting的基分类器常采用回归树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归树劣势：
+缺乏平滑性(回归预测时只能输出有效的若干种数值)
+不适合处理高纬稀疏数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归树优势：
+可解释性强
+可处理混合类型特征
+具体伸缩不变性(不用规划一化特征)
+有特征组合的作用
+可自然地处理缺失值
+对异常点鲁棒 
+有特征选择作用
+可扩展性强、容易并行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的随机选取：
+第一，从原始的数据集中采取有放回的抽样，构造子数据集，子数据集的数据量是和原始数据集相同的。不同子数据集的元素可以重复，同一个子数据集中的元素也可以重复。
+第二，利用子数据集来构建子决策树，将这个数据放到每个子决策树中，每个子决策树输出一个结果。最后，如果有了新的数据需要通过随机森林得到分类结果，就可以通过对子决策树的判断结果的投票，得到随机森林的输出结果了。
+待选特征的随机选取：
+与数据集的随机选取类似，随机森林中的子树的每一个分裂过程并未用到所有的待选特征，而是从所有的待选特征中随机选取一定的特征，之后再在随机选取的特征中选取最优的特征。这样能够使得随机森林中的决策树都能够彼此不同，提升系统的多样性，从而提升分类性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bias-variance tradeoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较感性的理解，Bias可以理解为假设我们有无限多数据的时候，可以训练出最好的模型所拿到的误差。而Variance是因为我们只有有限数据，其中随机性带来的误差。而正则化项则鼓励更加简单的模型。因为当模型简单之后，有限数据拟合出来结果的随机性比较小，不容易过拟合，使得最后模型的预测更加稳定。
+广义的偏差（bias）描述的是预测值和真实值之间的差异，方差（variance）描述距的是预测值作为随机变量的离散程度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱模型、强模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们常说集成学习框架中的基模型是弱模型，通常来说弱模型是偏差高（在训练集上准确度低）方差小（防止过拟合能力强）的模型。但是，并不是所有集成学习框架中的基模型都是弱模型。bagging和stacking中的基模型为强模型（偏差低方差高），boosting中的基模型为弱模型。造成两者区别的主要原因为boosting中的不同树之间相关性很强，而RF不同树之间相关性很低，如果相关性很强，会存在类似方差传递的感觉
+模型调参的意义就是为了在训练集上准确度(偏差)和防止过拟合的能力(方差)大大提升，对于bagging来说，整体模型的偏差和基模型近似，随着训练的进行，整体模型的方差降低，对于boosting来说，整体模型的初始偏差较高，方差较低，随着训练的进行，整体模型的偏差降低，但是方差会增高，当训练过度时，因方差增高，整体模型的准确度反而会降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然都是有放回的抽样，但二者的区别在于：Bagging采用有放回的均匀取样，而Boosting根据错误率来取样（Boosting初始化时对每一个训练例赋相等的权重1／n，然后用该学算法对训练集训练t轮，每次训练后，对训练失败的训练例赋以较大的权重），因此Boosting的分类精度要优于Bagging。Bagging的训练集的选择是随机的，各轮训练集之间相互独立，而Boostlng的各轮训练集的选择与前面各轮的学习结果有关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging、boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损失函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差描述了模型在训练集的准确度，则损失函数则是描述了该准确度的间接纲领，模型采用不同的损失函数，其训练过程会朝着不同的方向进行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT在函数空间利用梯度下降法进行优化，XGBoost在函数空间利用牛顿法进行优化
+xgboost最大的特点在于，它能够自动利用CPU的多线程进行并行，同时在算法上加以改进提高了精度，xgboost的特点有三个：速度快，效果好，功能多
+GBDT是以决策树（CART）为基学习器的GB算法，GBDT中的树都是回归树，而不是分类树。
+Boost是"提升"的意思，一般Boosting算法都是一个迭代的过程，每一次新的训练都是为了改进上一次的结果。
+GBDT的核心就在于：每一棵树学的是之前所有树结论和的残差，这个残差就是一个加预测值后能得真实值的累加量。比如A的真实年龄是18岁，但第一棵树的预测年龄是12岁，差了6岁，即残差为6岁。那么在第二棵树里我们把A的年龄设为6岁去学习，如果第二棵树真的能把A分到6岁的叶子节点，那累加两棵树的结论就是A的真实年龄；如果第二棵树的结论是5岁，则A仍然存在1岁的残差，第三棵树里A的年龄就变成1岁，继续学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
 </t>
@@ -1057,41 +1171,255 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
+      <t xml:space="preserve">未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
 处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。
-ID3和C4.5主要区别为ID3使用信息增益作为决策树的判断标准可能会对取值数目较多的属性有所偏好，例如对所有样本进行自增的标号，将编号带入模型中，可能会导致标号作为子分类器，这样信息增益最大，为了减少这种影响，C4.5不直接使用信息增益，而是使用信息增益率来选择最优划分方法，CART则使用基尼指数来选择划分属性，直观来说基尼指数反映了从数据集中随机抽取两个样本，其类别标记不一致的概率，因此，基尼系数越小，则数据集合的纯度越高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基尼不纯度，是指将来自集合中某一数据项的预期误差率，如果集合中每个数据项都属于同一分类，那么预测的结果总是正确的，因而误差率为0
-信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，例如所有的用户都是付费用户，则熵值就为0，所分的群组越混乱，相应的熵值就越高。
-剪枝是决策树中对付过拟合的主要手段，分为预剪枝和后剪枝，预剪枝会给决策树带来欠拟合的风险，后剪枝通常比预剪枝保留了更多的分值，且欠拟合的风险很小，泛化能力旺旺优于预剪枝，但是后剪枝过程是在生成决策树之后进行的，并且要自底向上对所有非叶节点进行逐一考察，因此其训练时间开销比未剪枝决策树和预剪枝决策树大的多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺点是，单纯以"词频"衡量一个词的重要性，不够全面，有时重要的词可能出现次数并不多。而且，这种算法无法体现词的位置信息，出现位置靠前的词与出现位置靠后的词，都被视为重要性相同，这是不正确的。（一种解决方法是，对全文的第一段和每一段的第一句话，给予较大的权重。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF算法的优点是简单快速，结果比较符合实际情况。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本原理为"词频"（Term Frequency，缩写为TF）*（Inverse Document Frequency，缩写为IDF=log(语料库文档总数/(包含该词的文档数+1))）
-（1）使用TF-IDF算法，找出两篇文章的关键词；
-（2）每篇文章各取出若干个关键词（比如20个），合并成一个集合，计算每篇文章对于这个集合中的词的词频（为了避免文章长度的差异，可以使用相对词频）；
-（3）生成两篇文章各自的词频向量；
-（4）计算两个向量的余弦相似度，值越大就表示越相似。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF模型足够胜任普通的文本分析任务，用TF-IDF模型计算文本相似度已经比较靠谱了，但是细究的话还存在不足之处。实际的中文文本，用TF-IDF表示的向量维数可能是几百、几千，不易分析计算。此外，一些文本的主题或者说中心思想，并不能很好地通过文本中的词来表示，能真正概括这篇文本内容的词可能没有直接出现在文本中。
-因此，这里引入了Latent Semantic Indexing（LSI）从文本潜在的主题来进行分析。LSI是概率主题模型的一种，另一种常见的是LDA，核心思想是：每篇文本中有多个概率分布不同的主题；每个主题中都包含所有已知词，但是这些词在不同主题中的概率分布不同。LSI通过奇异值分解的方法计算出文本中各个主题的概率分布，严格的数学证明需要看相关论文。假设有5个主题，那么通过LSI模型，文本向量就可以降到5维，每个分量表示对应主题的权重。</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID3和C4.5主要区别为ID3使用信息增益作为决策树的判断标准可能会对取值数目较多的属性有所偏好(信息熵的本质就是希望将样本尽可能分分开，分开之后两个叶子节点的数量尽量远离1:1，而如果样本的预测值就是1:1的分布，则熵值就不适合这种情况)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，例如对所有样本进行自增的标号，将编号带入模型中，可能会导致标号作为子分类器，这样信息增益最大，为了减少这种影响，C4.5不直接使用信息增益，而是使用信息增益率来选择最优划分方法，CART则使用基尼指数来选择划分属性，直观来说基尼指数反映了从数据集中随机抽取两个样本，其类别标记不一致的概率，因此，基尼系数越小，则数据集合的纯度越高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归树、分类树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类树只用信息增益(ID3)、信息增益比(C4.5)或者基尼系数(CART)作为分支的损失函数，每一个叶子节点的数值使用叶子下多数特征作为该叶子的特征，而回归树使用均方差作为损失函数，分支上每个叶子的数值为该叶子节点上所有样本的平均值作为该叶子节点的预测值，回归树与分类树的共同点为在树的分类过程中均通过穷举每一个feature的枚举值，不会差生新的枚举值进行树的分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>那么哪里体现了Gradient呢？其实回到第一棵树结束时想一想，无论此时的cost function是什么，是均方差还是均差，只要它以误差作为衡量标准，残差向量(-1, 1, -1, 1)都是它的全局最优方向，这就是Gradient，将残向量作为Gradient，这就是GBDT名字的由来
+Boosting的最大好处在于，每一步的残差计算其实变相地增大了分错instance的权重，而已经分对的instance则都趋向于0。这样后面的树就能越来越专注那些前面被分错的instance。就像我们做互联网，总是先解决60%用户的需求凑合着，再解决35%用户的需求，最后才关注那5%人的需求，这样就能逐渐把产品做好，因为不同类型用户需求可能完全不同，需要分别独立分析。如果反过来做，或者刚上来就一定要做到尽善尽美，往往最终会竹篮打水一场空。
+本质上，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shrinkage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为每棵树设置了一个weight，累加时要乘以这个weight，但和Gradient并没有关系。这个weight就是step。就像Adaboost一样，Shrinkage能减少过拟合发生也是经验证明的，目前还没有看到从理论的证明。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体方法说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无量纲化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间缩放法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间缩放法利用了边界值信息，将特征的取值区间缩放到某个特点的范围，例如[0, 1]等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间缩放法的思路有多种，常见的一种为利用两个最值进行缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化的前提是特征值服从正态分布，标准化后，其转换成标准正态分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化、归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>归一化是将数据归一化为(0,1)之间的数据集，方便数据的处理，同时可以把数据的有量纲变为无量纲，数据的标准化是指将数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按照比例进行缩放，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使之落入到一个特定的区间，有些模型需要归一化，有些模型不需要归一化，例如逻辑回归，不需要归一化，但是做了归一化的预处理可以加快模型的收敛速度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无量纲化使不同规格的数据转换到同一规格。常见的无量纲化方法有标准化和区间缩放法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征是否发散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征与目标的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个特征如果不发散，例如方差为0，那么样本在这个特征上基本没有差异，这个特征对于模型并没有意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与目标相关性高的特征，应当优选选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据特征选择的形式又可以将特征选择方法分为3种：
+Filter：过滤法，按照发散性或者相关性对各个特征进行评分，设定阈值或者待选择阈值的个数，选择特征，过滤法分为方差选择法，相关系数法，卡方检验(经典的卡方检验是检验定性自变量对定性因变量的相关性),互信息法
+Wrapper：包装法，根据目标函数（通常是预测效果评分），每次选择若干特征，或者排除若干特征,常用的方法为递归特征消除法
+Embedded：集成法，先使用某些机器学习的算法和模型进行训练，得到各个特征的权值系数，根据系数从大到小选择特征。类似于Filter方法，但是是通过训练来确定特征的优劣，常用的方法为基于惩罚项的特征选择法，L1惩罚项降维的原理在于保留多个对目标值具有同等相关性的特征中的一个，所以没选到的特征不代表不重要。故，可结合L2惩罚项来优化。具体操作为：若一个特征在L1中的权值为1，选择在L2中权值差别不大且在L1中权值为0的特征构成同类集合，将这一集合中的特征平分L1中的权值，故需要构建一个新的逻辑回归模型；还有一个方法为基于树模型的特征选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征矩阵较大，导致计算量非常大，训练时间长时降低特征矩阵的维度必不可少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于L1惩罚项的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主成分分析法（PCA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性判别分析（LDA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其本质是要将原始的样本映射到维度更低的样本空间中，但是PCA和LDA的映射目标不一样：PCA是为了让映射后的样本具有最大的发散性；而LDA是为了让映射后的样本有最好的分类性能。所以说PCA是一种无监督的降维方法，而LDA是一种有监督的降维方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random forest对输入的数据要进行行(行采样就是bagging，样本的采样)、列的采样(就是feature的采样，每次只对特定的feature建立对应的决策树)。对于行采样，采用有放回的方式，也就是在采样得到的样本集合中，可能有重复的样本。假设输入样本为N个，那 么采样的样本也为N个。这样使得在训练的时候，每一棵树的输入样本都不是全部的样本，使得相对不容易出现over-fitting。然后进行列采样，从M 个feature中，选择m个(m &lt;&lt; M)。之后就是对采样之后的数据使用完全分裂的方式建立出决策树，这样决策树的某一个叶子节点要么是无法继续分裂的，要么里面的所有样本的都是指向的同一 个分类。
+random forest对输入的数据要进行行、列的采样。对于行采样，采用有放回的方式，也就是在采样得到的样本集合中，可能有重复的样本。假设输入样本为N个，那 么采样的样本也为N个。这样使得在训练的时候，每一棵树的输入样本都不是全部的样本，使得相对不容易出现over-fitting。然后进行列采样，从M 个feature中，选择m个(m &lt;&lt; M)。之后就是对采样之后的数据使用完全分裂的方式建立出决策树，这样决策树的某一个叶子节点要么是无法继续分裂的，要么里面的所有样本的都是指向的同一 个分类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型的填充均值，字符串型的填充众值</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">字符型数据填充None，将缺失作为一种特征来进行one-hot编码可以既不丢失信息也不增加噪声；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特征工程决定了上限，模型和调参只是逼近这个上限</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥卡姆剃刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个具有相同泛化误差的模型，较简单的模型比较复杂的模型更可取。以免模型过于复杂，出现过拟合的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM和ML的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先说，绝大部分的Kaggle比赛是Data Mining(DM)比赛（除少数是和Discrete Optimization还有Computer Vision(CV) 有关），最重要的是和Machine Learning(ML)关系不大。这是很多人一个误区，往往希望在Kaggle上学到很多ML的知识。Kaggle教给我的第一件事情，就是让我清晰领会到了这两者之间的不同：ML一般从模型或者算法出发，讲的是模型或者算法本身存在的不合理的地方，然后提出新的假设，从而去优化模型或算法。在这个过程中并不针对某一个具体的特殊的问题。而DM恰恰相反，它是从数据本身问题本身出发，希望针对问题的特性来设计最适合的方案。关键是在于对问题和数据的理解。之前总是觉得，DM/CV的paper都好水，到处找一个应用套。在我想明白这个问题之后，我就开始懂得欣赏DM/CV的paper。
+前面提到Kaggle主要是以Data Mining的比赛为主，那么这个答案就非常直接了：Feature Engineering  无数经验告诉我们，做Kaggle比赛如果是抱着Machine Learning的态度，沉迷于facny的模型而忽略数据本身，一定会死得很惨很惨！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle winner = feature engineering + ensemble + good machine + domain knowledge。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,14 +1632,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1333,12 +1656,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,51 +1665,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1562,16 +1911,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4247030</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>580690</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>37952</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210896</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>553424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1594,12 +1943,78 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5277971" y="7328647"/>
+          <a:off x="8325971" y="8034619"/>
           <a:ext cx="2676190" cy="1180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285021</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76783214-2121-4B1F-B317-49A934EBF313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14896371" y="409575"/>
+          <a:ext cx="6696804" cy="7400925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1906,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1958,111 +2373,111 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>169</v>
+      <c r="D2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="I5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -2074,43 +2489,43 @@
       <c r="H6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="20" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" s="16"/>
+        <v>171</v>
+      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="20" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -2133,43 +2548,43 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="20" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="20" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="20" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2183,14 +2598,14 @@
       <c r="J11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="20" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -2208,105 +2623,105 @@
       <c r="J12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="16"/>
+        <v>102</v>
+      </c>
+      <c r="I15" s="13"/>
       <c r="J15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="16" t="s">
-        <v>177</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+        <v>176</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="3" t="s">
@@ -2315,16 +2730,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2353,43 +2768,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2401,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2414,119 +2829,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>133</v>
-      </c>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="27" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="C11" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="B12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="B13" s="27" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>166</v>
+      <c r="C13" s="47"/>
+    </row>
+    <row r="14" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="47"/>
+    </row>
+    <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+      <c r="A23" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2535,7 +3057,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2548,89 +3070,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="39"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="39"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -2665,18 +3185,19 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="19" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2692,79 +3213,89 @@
       <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="342" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2772,8 +3303,8 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2781,8 +3312,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -2812,10 +3343,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -2835,56 +3366,56 @@
     </row>
     <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>145</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="41"/>
+        <v>144</v>
+      </c>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2898,36 +3429,222 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="76.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="21" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="D4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="706" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="593" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="集成方法" sheetId="5" r:id="rId5"/>
     <sheet name="辅助算法" sheetId="6" r:id="rId6"/>
     <sheet name="特征工程" sheetId="7" r:id="rId7"/>
+    <sheet name="算法常见问题" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="400">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有人认为SVM是最好的现成的分类器，这里的现成的分类器指的是不加修改即可直接使用，SVM有很多实现方式，其中最流行的一种即序列最小化（Sequential Minimal Optimization SMO），可以通过核函数（kernael）的方式将SVM扩展到更多的数据集上，几乎所有的分类问题都可以使用SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将数据从一个特征空间转换到另外一个特征空间，通常是将低纬度映射到高纬度，核函数就是完成了这个特征空间的映射，使用核函数的原因为数据在低纬不是线性可分，映射到高纬以后就可以线性可分，径向基函数是SVM最常使用的一种核函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,14 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据标准化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于离散属性，若属性之间存在序的关系，例如、高、中、矮，可以通过连续化将其转换为连续值，例如高为1,中为0.5,矮为0,如果属性之间不存在序关系，通常转化为k维向量，例如属性瓜类取值，西瓜、南瓜、黄瓜、可以转化为(0,0,1),(0,1,0),(1,0,0),若无序属性联系化，则会不恰当的引入序关系，即可能连续变量表示了实际的业务含义，影响后续的距离计算等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于最小二乘法的线性回归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,10 +961,6 @@
   </si>
   <si>
     <t>逻辑回归应该是线性回归的一个特例，只是将目标变量从y变成了ln(y/(1-y))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线性回归过程，存在正负样本分布不均衡的问题，处理这个问题的方法有三个：1.样本少的数据进行过采样，但是过采样不能够简单的对现有样本进行重复采样，这样很容易造成过拟合的情况，过采样的代表算法是SMOTE，通过对训练集里面的正例进行插值来产生额外的正例；2.样本多的数据进行欠采样，如果随机丢去部分样本，可能会丢失部分细节，通常的做法是EasyEnsemble，将返利划分成若干个集合供不同的学习器使用，这样每个学习器看来都欠采样，但在全局来看却不会丢失信息；3再缩放，对预测值进行调整，乘以一个比例，即相当于调整了对应的阶跃函数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1283,8 +1269,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>降维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征矩阵较大，导致计算量非常大，训练时间长时降低特征矩阵的维度必不可少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于L1惩罚项的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主成分分析法（PCA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性判别分析（LDA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其本质是要将原始的样本映射到维度更低的样本空间中，但是PCA和LDA的映射目标不一样：PCA是为了让映射后的样本具有最大的发散性；而LDA是为了让映射后的样本有最好的分类性能。所以说PCA是一种无监督的降维方法，而LDA是一种有监督的降维方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random forest对输入的数据要进行行(行采样就是bagging，样本的采样)、列的采样(就是feature的采样，每次只对特定的feature建立对应的决策树)。对于行采样，采用有放回的方式，也就是在采样得到的样本集合中，可能有重复的样本。假设输入样本为N个，那 么采样的样本也为N个。这样使得在训练的时候，每一棵树的输入样本都不是全部的样本，使得相对不容易出现over-fitting。然后进行列采样，从M 个feature中，选择m个(m &lt;&lt; M)。之后就是对采样之后的数据使用完全分裂的方式建立出决策树，这样决策树的某一个叶子节点要么是无法继续分裂的，要么里面的所有样本的都是指向的同一 个分类。
+random forest对输入的数据要进行行、列的采样。对于行采样，采用有放回的方式，也就是在采样得到的样本集合中，可能有重复的样本。假设输入样本为N个，那 么采样的样本也为N个。这样使得在训练的时候，每一棵树的输入样本都不是全部的样本，使得相对不容易出现over-fitting。然后进行列采样，从M 个feature中，选择m个(m &lt;&lt; M)。之后就是对采样之后的数据使用完全分裂的方式建立出决策树，这样决策树的某一个叶子节点要么是无法继续分裂的，要么里面的所有样本的都是指向的同一 个分类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型的填充均值，字符串型的填充众值</t>
+  </si>
+  <si>
     <r>
-      <t>归一化是将数据归一化为(0,1)之间的数据集，方便数据的处理，同时可以把数据的有量纲变为无量纲，数据的标准化是指将数据</t>
+      <t xml:space="preserve">字符型数据填充None，将缺失作为一种特征来进行one-hot编码可以既不丢失信息也不增加噪声；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特征工程决定了上限，模型和调参只是逼近这个上限</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥卡姆剃刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个具有相同泛化误差的模型，较简单的模型比较复杂的模型更可取。以免模型过于复杂，出现过拟合的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM和ML的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先说，绝大部分的Kaggle比赛是Data Mining(DM)比赛（除少数是和Discrete Optimization还有Computer Vision(CV) 有关），最重要的是和Machine Learning(ML)关系不大。这是很多人一个误区，往往希望在Kaggle上学到很多ML的知识。Kaggle教给我的第一件事情，就是让我清晰领会到了这两者之间的不同：ML一般从模型或者算法出发，讲的是模型或者算法本身存在的不合理的地方，然后提出新的假设，从而去优化模型或算法。在这个过程中并不针对某一个具体的特殊的问题。而DM恰恰相反，它是从数据本身问题本身出发，希望针对问题的特性来设计最适合的方案。关键是在于对问题和数据的理解。之前总是觉得，DM/CV的paper都好水，到处找一个应用套。在我想明白这个问题之后，我就开始懂得欣赏DM/CV的paper。
+前面提到Kaggle主要是以Data Mining的比赛为主，那么这个答案就非常直接了：Feature Engineering  无数经验告诉我们，做Kaggle比赛如果是抱着Machine Learning的态度，沉迷于facny的模型而忽略数据本身，一定会死得很惨很惨！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle winner = feature engineering + ensemble + good machine + domain knowledge。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人认为SVM是最好的现成的分类器，这里的现成的分类器指的是不加修改即可直接使用，SVM有很多实现方式，其中最流行的一种即序列最小化（Sequential Minimal Optimization SMO），可以通过核函数（kernael）的方式将SVM扩展到更多的数据集上，几乎所有的分类问题都可以使用SVM
+Support Vector RegressionSVR：输出 wx+b，即某个样本点到分类面的距离，是连续值，所以是回归模型
+SVR：输出 wx+b，即某个样本点到分类面的距离，是连续值，所以是回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归分类区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类更多是找到区分每个类别的边界的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>归一化是将数据归一化为(0,1)之间的数据集(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>归一化是依照特征矩阵的行处理数据，其目的在于样本向量在点乘运算或其他核函数计算相似性时，拥有统一的标准，也就是说都转化为“单位向量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，方便数据的处理，同时可以把数据的有量纲变为无量纲
+数据的标准化是指将数据</t>
     </r>
     <r>
       <rPr>
@@ -1312,76 +1415,274 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无量纲化使不同规格的数据转换到同一规格。常见的无量纲化方法有标准化和区间缩放法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征是否发散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征与目标的相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个特征如果不发散，例如方差为0，那么样本在这个特征上基本没有差异，这个特征对于模型并没有意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与目标相关性高的特征，应当优选选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据特征选择的形式又可以将特征选择方法分为3种：
-Filter：过滤法，按照发散性或者相关性对各个特征进行评分，设定阈值或者待选择阈值的个数，选择特征，过滤法分为方差选择法，相关系数法，卡方检验(经典的卡方检验是检验定性自变量对定性因变量的相关性),互信息法
-Wrapper：包装法，根据目标函数（通常是预测效果评分），每次选择若干特征，或者排除若干特征,常用的方法为递归特征消除法
-Embedded：集成法，先使用某些机器学习的算法和模型进行训练，得到各个特征的权值系数，根据系数从大到小选择特征。类似于Filter方法，但是是通过训练来确定特征的优劣，常用的方法为基于惩罚项的特征选择法，L1惩罚项降维的原理在于保留多个对目标值具有同等相关性的特征中的一个，所以没选到的特征不代表不重要。故，可结合L2惩罚项来优化。具体操作为：若一个特征在L1中的权值为1，选择在L2中权值差别不大且在L1中权值为0的特征构成同类集合，将这一集合中的特征平分L1中的权值，故需要构建一个新的逻辑回归模型；还有一个方法为基于树模型的特征选择法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征矩阵较大，导致计算量非常大，训练时间长时降低特征矩阵的维度必不可少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于L1惩罚项的模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主成分分析法（PCA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性判别分析（LDA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其本质是要将原始的样本映射到维度更低的样本空间中，但是PCA和LDA的映射目标不一样：PCA是为了让映射后的样本具有最大的发散性；而LDA是为了让映射后的样本有最好的分类性能。所以说PCA是一种无监督的降维方法，而LDA是一种有监督的降维方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random forest对输入的数据要进行行(行采样就是bagging，样本的采样)、列的采样(就是feature的采样，每次只对特定的feature建立对应的决策树)。对于行采样，采用有放回的方式，也就是在采样得到的样本集合中，可能有重复的样本。假设输入样本为N个，那 么采样的样本也为N个。这样使得在训练的时候，每一棵树的输入样本都不是全部的样本，使得相对不容易出现over-fitting。然后进行列采样，从M 个feature中，选择m个(m &lt;&lt; M)。之后就是对采样之后的数据使用完全分裂的方式建立出决策树，这样决策树的某一个叶子节点要么是无法继续分裂的，要么里面的所有样本的都是指向的同一 个分类。
-random forest对输入的数据要进行行、列的采样。对于行采样，采用有放回的方式，也就是在采样得到的样本集合中，可能有重复的样本。假设输入样本为N个，那 么采样的样本也为N个。这样使得在训练的时候，每一棵树的输入样本都不是全部的样本，使得相对不容易出现over-fitting。然后进行列采样，从M 个feature中，选择m个(m &lt;&lt; M)。之后就是对采样之后的数据使用完全分裂的方式建立出决策树，这样决策树的某一个叶子节点要么是无法继续分裂的，要么里面的所有样本的都是指向的同一 个分类。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据填充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值型的填充均值，字符串型的填充众值</t>
+    <t>问题分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正相关的特征结果变成了负相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成这种情况很有可能是抽样与整体不相符，模型过于复杂，导致了过拟合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性模型通常有含有属性coef_，当系数值大于0时为正相关，当系数值小于0时为负相关；另外一些模型含有属性feature_importances_，顾名思义，表示特征的重要性。根据以上两个属性，便可以与先前假设中的特征的相关性（或重要性）进行对比了。但是，理想是丰满的，现实是骨感的。经过复杂的特征转换之后，特征矩阵X已不再是原来的样子：哑变量使特征变多了，特征选择使特征变少了，降维使特征映射到另一个维度中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数列表</t>
+  </si>
+  <si>
+    <t>参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>无监督</t>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+  </si>
+  <si>
+    <t>在线性回归过程，存在正负样本分布不均衡的问题，处理这个问题的方法有三个：1.样本少的数据进行过采样，但是过采样不能够简单的对现有样本进行重复采样，这样很容易造成过拟合的情况，过采样的代表算法是SMOTE，通过对训练集里面的正例进行插值来产生额外的正例；2.样本多的数据进行欠采样，如果随机丢去部分样本，可能会丢失部分细节，通常的做法是EasyEnsemble，将返利划分成若干个集合供不同的学习器使用，这样每个学习器看来都欠采样，但在全局来看却不会丢失信息；3再缩放，对预测值进行调整，乘以一个比例，即相当于调整了对应的阶跃函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.decomposition</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>sklearn.lda</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>特征+目标值</t>
+  </si>
+  <si>
+    <t>有监督</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>fit方法有用</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>标准化</t>
+  </si>
+  <si>
+    <t>区间缩放</t>
+  </si>
+  <si>
+    <t>Normalizer</t>
+  </si>
+  <si>
+    <t>无信息</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>归一化</t>
+  </si>
+  <si>
+    <t>Binarizer</t>
+  </si>
+  <si>
+    <t>定量特征二值化</t>
+  </si>
+  <si>
+    <t>OneHotEncoder</t>
+  </si>
+  <si>
+    <t>定性特征编码</t>
+  </si>
+  <si>
+    <t>Imputer</t>
+  </si>
+  <si>
+    <t>缺失值计算</t>
+  </si>
+  <si>
+    <t>PolynomialFeatures</t>
+  </si>
+  <si>
+    <t>多项式变换（fit方法仅仅生成了多项式的表达式）</t>
+  </si>
+  <si>
+    <t>FunctionTransformer</t>
+  </si>
+  <si>
+    <t>自定义函数变换（自定义函数在transform方法中调用）</t>
+  </si>
+  <si>
+    <t>sklearn.feature_selection</t>
+  </si>
+  <si>
+    <t>VarianceThreshold</t>
+  </si>
+  <si>
+    <t>方差选择法</t>
+  </si>
+  <si>
+    <t>SelectKBest</t>
+  </si>
+  <si>
+    <t>特征/特征+目标值</t>
+  </si>
+  <si>
+    <t>无监督/有监督</t>
+  </si>
+  <si>
+    <t>自定义特征评分选择法</t>
+  </si>
+  <si>
+    <t>SelectKBest+chi2</t>
+  </si>
+  <si>
+    <t>卡方检验选择法</t>
+  </si>
+  <si>
+    <t>RFE</t>
+  </si>
+  <si>
+    <t>递归特征消除法</t>
+  </si>
+  <si>
+    <t>SelectFromModel</t>
+  </si>
+  <si>
+    <t>自定义模型训练选择法</t>
+  </si>
+  <si>
+    <t>PCA降维</t>
+  </si>
+  <si>
+    <t>LDA降维</t>
+  </si>
+  <si>
+    <t>无量纲化使不同规格的数据转换到同一规格。常见的无量纲化方法有标准化、归一化和区间缩放法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对定性特征哑编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneHotEncoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独热编码即 One-Hot 编码，又称一位有效编码，其方法是使用N位状态寄存器来对N个状态进行编码，每个状态都由他独立的寄存器位，并且在任意时候，其中只有一位有效。对于每一个特征，如果它有m个可能值，那么经过独热编码后，就变成了m个二元特征。并且，这些特征互斥，每次只有一个激活。因此，数据会变成稀疏的。
+这样做的好处主要有：
+解决了分类器不好处理非连续型数值特征的问题
+在一定程度上也起到了扩充特征的作用
+使用one-hot编码，将离散特征的取值扩展到了欧式空间，离散特征的某个取值就对应欧式空间的某个点。 
+将离散型特征使用one-hot编码，可以会让特征之间的距离计算更加合理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">字符型数据填充None，将缺失作为一种特征来进行one-hot编码可以既不丢失信息也不增加噪声；
-</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Onehot编码是基于列的编码，即每一个feature的枚举值进行编码，对应的列的编码就有几位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+基于树的方法不需要进行特征的归一化。例如随机森林，bagging与boosting等方法。如果是基于参数的模型或者基于距离的模型，因为需要对参数或者距离进行计算，都需要进行归一化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标准化与归一化区别：简单来说，标准化是依照特征矩阵的列处理数据，其通过求z-score的方法，</t>
     </r>
     <r>
       <rPr>
@@ -1393,33 +1694,430 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>特征工程决定了上限，模型和调参只是逼近这个上限</t>
+      <t>将样本的特征值转换到同一量纲下。归一化是依照特征矩阵的行处理数据，其目的在于样本向量在点乘运算或其他核函数计算相似性时，拥有统一的标准，也就是说都转化为“单位向量”。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奥卡姆剃刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定两个具有相同泛化误差的模型，较简单的模型比较复杂的模型更可取。以免模型过于复杂，出现过拟合的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM和ML的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先说，绝大部分的Kaggle比赛是Data Mining(DM)比赛（除少数是和Discrete Optimization还有Computer Vision(CV) 有关），最重要的是和Machine Learning(ML)关系不大。这是很多人一个误区，往往希望在Kaggle上学到很多ML的知识。Kaggle教给我的第一件事情，就是让我清晰领会到了这两者之间的不同：ML一般从模型或者算法出发，讲的是模型或者算法本身存在的不合理的地方，然后提出新的假设，从而去优化模型或算法。在这个过程中并不针对某一个具体的特殊的问题。而DM恰恰相反，它是从数据本身问题本身出发，希望针对问题的特性来设计最适合的方案。关键是在于对问题和数据的理解。之前总是觉得，DM/CV的paper都好水，到处找一个应用套。在我想明白这个问题之后，我就开始懂得欣赏DM/CV的paper。
-前面提到Kaggle主要是以Data Mining的比赛为主，那么这个答案就非常直接了：Feature Engineering  无数经验告诉我们，做Kaggle比赛如果是抱着Machine Learning的态度，沉迷于facny的模型而忽略数据本身，一定会死得很惨很惨！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kaggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kaggle winner = feature engineering + ensemble + good machine + domain knowledge。</t>
+    <t>数据归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归一化即行的平方和为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy = mean表示使用均值替换NAN
+strategy = median表示中众数替换NAN
+stratgy = most_frequent表示使用众数替代NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的数据变换有基于多项式的、基于指数函数的、基于对数函数的。默认的度为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于单变元函数的数据变换可以使用一个统一的方式完成，使用preproccessing库的FunctionTransformer对数据进行对数函数转换
+FunctionTransformer(log1p).fit_transform(iris.data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolynomialFeatures/FunctionTransformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个特征不发散，例如方差接近于0，也就是说样本在这个特征上基本上没有差异，这个特征对于样本的区分并没有什么用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这点比较显见，与目标相关性高的特征，应当优选选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征是否发散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征与目标的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarianceThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出满足对应方差的feature，过滤掉不满足的feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡方检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互信息法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归特征消除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于惩罚项的特征选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于树模型的特征选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主成分分析法（PCA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性判别分析法（LDA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectKBest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用相关系数法，先要计算各个特征对目标值的相关系数以及相关系数的P值，选择K个最好的特征，返回选择特征后的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算方式为减去均值除以标准差
+对于离散属性，若属性之间存在序的关系，例如、高、中、矮，可以通过连续化将其转换为连续值，例如高为1,中为0.5,矮为0,如果属性之间不存在序关系，通常转化为k维向量，例如属性瓜类取值，西瓜、南瓜、黄瓜、可以转化为(0,0,1),(0,1,0),(1,0,0),若无序属性联系化，则会不恰当的引入序关系，即可能连续变量表示了实际的业务含义，影响后续的距离计算等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据标准化(别名z-score)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮尔逊相关系数，就是将减去均值的变量，求其余弦夹角
+SelectKBest(lambda X, Y: array(map(lambda x:pearsonr(x, Y), X.T)).T, k=2).fit_transform(iris.data, iris.target)
+上述代指保留k个最相关的feature，注意上述计算皮尔逊相关系数时使用了矩阵的转置，原因为，皮尔逊是计算每一个feature和target之间的相关性，非计算不同feature与target之间的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典的卡方检验是检验定性自变量对定性因变量的相关性。假设自变量有N种取值，因变量有M种取值，考虑自变量等于i且因变量等于j的样本频数的观察值与期望的差距,这个统计量的含义简而言之就是自变量对因变量的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectKBest
+chi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minepy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个基模型来进行多轮训练，每轮训练后，消除若干权值系数的特征，再基于新的特征集进行下一轮训练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤法，按照发散性或者相关性对各个特征进行评分，设定阈值或者待选择阈值的个数，选择特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装法，根据目标函数（通常是预测效果评分），每次选择若干特征，或者排除若干特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入法，先使用某些机器学习的算法和模型进行训练，得到各个特征的权值系数，根据系数从大到小选择特征。类似于Filter方法，但是是通过训练来确定特征的优劣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectFromModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用带惩罚项的基模型，除了筛选出特征外，同时也进行了降维。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_selection
+sklearn.ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectFromModel
+GradientBoostingClassifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当特征选择完成后，可以直接训练模型了，但是可能由于特征矩阵过大，导致计算量大，训练时间长的问题，因此降低特征矩阵维度也是必不可少的。常见的降维方法除了以上提到的基于L1惩罚项的模型以外，另外还有主成分分析法（PCA）和线性判别分析（LDA），线性判别分析本身也是一个分类模型。PCA和LDA有很多的相似点，其本质是要将原始的样本映射到维度更低的样本空间中，但是PCA和LDA的映射目标不一样：PCA是为了让映射后的样本具有最大的发散性；而LDA是为了让映射后的样本有最好的分类性能。所以说PCA是一种无监督的降维方法，而LDA是一种有监督的降维方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.decomposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDA的中心思想即：最大化类间距离，最小化类内距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.discriminant_analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinearDiscriminantAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用来检测自变量、因变量之间是否显著相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征变换方法分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无信息转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有信息转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不利用任何其他信息进行转换，比如指数、对数函数转换等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只利用特征的统计信息的转换，统计信息包括均值、标准差、边界等等，比如标准化、PCA法降维等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既利用了特征信息又利用了目标值信息的转换，比如通过模型选择特征、LDA法降维等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二值化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binarizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binarizer(threshold=3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量特征二值化的核心在于设定一个阈值，大于阈值的赋值为1，小于等于阈值的赋值为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不难看到，只有有信息的转换类的fit方法才实际有用，显然fit方法的主要工作是获取特征信息和目标值信息，在这点上，fit方法和模型训练时的fit方法就能够联系在一起了：都是通过分析特征和目标值，提取有价值的信息，对于转换类来说是某些统计量，对于模型来说可能是特征的权值系数等。另外，只有有监督的转换类的fit和transform方法才需要特征和目标值两个参数。fit方法无用不代表其没实现，而是除合法性校验以外，其并没有对特征和目标值进行任何处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行处理，流水线处理，自动化调参，持久化是使用sklearn优雅地进行数据挖掘的核心。并行处理和流水线处理将多个特征处理工作，甚至包括模型训练工作组合成一个工作（从代码的角度来说，即将多个对象组合成了一个对象）。在组合的前提下，自动化调参技术帮我们省去了人工调参的反锁。训练好的模型是贮存在内存中的数据，持久化能够将这些数据保存在文件系统中，之后使用时无需再进行训练，直接从文件系统中加载即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线处理(串行处理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline可以用于把多个estimators级联成一个estimator，这么 做的原因是考虑了数据处理过程中一系列前后相继的固定流程，比如feature selection-&gt;normalization-&gt;classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipleline中最后一个之外的所有estimators都必须是变换器（transformers），最后一个estimator可以是任意类型（transformer，classifier，regresser）
+如果最后一个estimator是个分类器，则整个pipeline就可以作为分类器使用，如果最后一个estimator是个聚类器，则整个pipeline就可以作为聚类器使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureUnion把若干个transformer objects组合成一个新的transformer，这个新的transformer组合了他们的输出，一个FeatureUnion对象接受一个transformer对象列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline提供了两种服务：
+Convenience:只需要调用一次fit和predict就可以在数据集上训练一组estimators
+Joint parameter selection可以把grid search 用在pipeline中所有的estimators参数的参数组合上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline提供了两种服务：
+Convenience:只需要调用一次fit和transform就可以在数据集上训练一组estimators
+Joint parameter selection:可以把grid_search用在FeatureUnion中所有的estimators的参数组合上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn数据挖掘四个核心步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化调参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimators = [('pca',PCA()),('clf',LogisticRegression())]
+pipe = Pipeline(estimators)
+pipe.set_params(clf__C = 10)
+params = dict(pca__n_components = [2,5,10],clf__C = [0,1,10,100])
+params2 = dict(pca = [None,PCA(5),PCA(10)],clf = [SVC(),LogisticRegression()],clf__C = [0.1,10,100])
+grid_research = GridSearchCV(pipe,param_grid=params)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>externals.joblib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#第三个参数为压缩级别，0为不压缩，3为合适的压缩级别
+5 dump(grid_search, 'grid_search.dmp', compress=3)
+6 #从文件系统中加载数据到内存中
+7 grid_search = load('grid_search.dmp')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1427,7 +2125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1483,8 +2181,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1500,6 +2219,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32CD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACD32"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1680,12 +2441,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,35 +2557,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1960,16 +2778,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285021</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142146</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1999,7 +2817,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14896371" y="409575"/>
+          <a:off x="35613246" y="409575"/>
           <a:ext cx="6696804" cy="7400925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2015,6 +2833,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>366177</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1559110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B1664F-C530-474F-8BFE-0021365E60B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34189555" y="11215255"/>
+          <a:ext cx="7792213" cy="3141991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2321,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2373,48 +3235,48 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>99</v>
+      <c r="D2" s="58" t="s">
+        <v>98</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2423,18 +3285,18 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="13"/>
@@ -2442,39 +3304,39 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -2496,35 +3358,35 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="17" t="s">
         <v>14</v>
       </c>
@@ -2548,10 +3410,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
@@ -2563,15 +3425,15 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2579,21 +3441,21 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+    <row r="11" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>65</v>
@@ -2601,87 +3463,87 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="F14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="23" t="s">
         <v>27</v>
       </c>
@@ -2689,36 +3551,36 @@
         <v>29</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -2752,7 +3614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2769,22 +3631,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="C1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
@@ -2792,7 +3654,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>25</v>
@@ -2801,10 +3663,10 @@
         <v>24</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2816,10 +3678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B27:B28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2850,198 +3712,206 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>127</v>
       </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>129</v>
       </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>147</v>
       </c>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>149</v>
       </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>151</v>
       </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>153</v>
       </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C11" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="49"/>
+        <v>175</v>
+      </c>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>177</v>
+      </c>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="49"/>
+        <v>187</v>
+      </c>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
-        <v>187</v>
+      <c r="A17" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="47"/>
+        <v>184</v>
+      </c>
+      <c r="C17" s="35"/>
     </row>
     <row r="18" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="47"/>
-    </row>
-    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B20" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="47"/>
-    </row>
-    <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="47"/>
-    </row>
-    <row r="21" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>211</v>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
-        <v>229</v>
+      <c r="A22" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
-        <v>231</v>
+      <c r="A23" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>233</v>
+      <c r="A24" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3952,7 @@
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3099,7 +3969,7 @@
       <c r="D2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="65" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3116,7 +3986,7 @@
       <c r="D3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
@@ -3129,7 +3999,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="27"/>
-      <c r="E4" s="36"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
@@ -3140,7 +4010,7 @@
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="36"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="26"/>
@@ -3194,21 +4064,21 @@
     <col min="2" max="2" width="27.875" style="16" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="39" customWidth="1"/>
-    <col min="6" max="6" width="41.375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="28" customWidth="1"/>
+    <col min="6" max="6" width="41.375" style="28" customWidth="1"/>
     <col min="7" max="7" width="43.375" style="16" customWidth="1"/>
     <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>55</v>
@@ -3220,55 +4090,55 @@
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="43" t="s">
-        <v>195</v>
+      <c r="D3" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="43" t="s">
-        <v>199</v>
+      <c r="G3" s="32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -3276,17 +4146,17 @@
     </row>
     <row r="5" spans="1:7" ht="342" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="41" t="s">
-        <v>186</v>
+      <c r="D5" s="30" t="s">
+        <v>182</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,7 +4197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -3343,10 +4213,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -3366,56 +4236,56 @@
     </row>
     <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>145</v>
+      <c r="F2" s="66" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="38"/>
+        <v>143</v>
+      </c>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3429,222 +4299,1189 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="21" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="40" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="36" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="8" customWidth="1"/>
+    <col min="9" max="9" width="97.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="K1" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="63"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="63"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="63"/>
+      <c r="B10" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="68"/>
+    </row>
+    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="68"/>
+    </row>
+    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="63"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="64"/>
+      <c r="B13" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26" t="s">
+      <c r="C13" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="68"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="68"/>
+    </row>
+    <row r="15" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="60"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="K15" s="68"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" s="68"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="68"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="68"/>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="68"/>
+    </row>
+    <row r="22" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="68"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="46"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="43"/>
+    </row>
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="43"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+    </row>
+    <row r="70" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+    </row>
+    <row r="71" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+    </row>
+    <row r="72" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+    </row>
+    <row r="78" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D8:D9"/>
+  <mergeCells count="17">
+    <mergeCell ref="K2:K22"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A70:C72"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="23.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="70.125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="593" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="487" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,7 @@
     <sheet name="特征工程" sheetId="7" r:id="rId7"/>
     <sheet name="算法常见问题" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="487">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +117,6 @@
   </si>
   <si>
     <t>其它解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度量集合无序程度的方法是基尼不纯度Gini purity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,25 +279,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">精度高、对异常值不敏感、无数据输入假定 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k近邻算法需要重新熟悉一下</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>最简单的分类算法，寻找聚类最近的k个节点，根据k个节点的属性判断自己属于哪一类，一般来说我们选择样本数据集中前k个最相似的数据，通常k不大于20，然后选择k个最详细数据中出现次数最多的分类，作为新数据的分类。使用距离矩阵进行分类(</t>
     </r>
     <r>
@@ -446,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为监督学习，贝叶斯概率提供了一种利用已知值来估计未知概率的有效方法这种随机选择数据的一部分作为训练集，而剩余部分作为测试集的过程称之为留存交叉验证(hold-out cross validation),通常会做多次留存交叉验证，取多次的平均值作为结果输出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对于输入数据的准备方式较为敏感
 可以通过特征之间的条件独立性假设，降低对数据量的要求，独立性假设是指一个词出现的概率并不依赖于文档中的其它词，当然这个假设过于简单，这就是之所以成为朴素贝叶斯的原因，尽管条件福利性假设并不正确，但是朴素贝叶斯让然是一种有效的分类器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朴素贝叶斯之所以称为朴素的原因为假设将要被组合的各个概率是彼此独立的，即一个单词属于某个指定的分类的文档中的概率和其它单词出现在该文档中的概率是不相关的，由统计学知，如果每个特征需要N个样本，那么对于10个特征将需要N的十次方个样本，如果特征之间相互独立，那么样本数就可以从N的十次方减少到N*10个样本，这个假设正是朴素贝叶斯分类器中朴素（naive ) 一词的含义，朴素贝叶斯分类器中的另一个假设是，每个特征同等重要，贝叶斯适合二分类器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支撑向量机(SVM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,18 +452,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元算法是对其它算法进行组合的一种方式，其中AdaBoost(adaptive boosting的缩写)是最流行的元算法（或者集成方法），有些人认为AdaBoost是最流行的元算法，所以该方法是机器学习工具箱中最强有力的工具之一。使用集成方法时有多种形式，可以是不同算法的集成，也可以是同一算法在不同设置下的集成，还可以是数据集不同部分分配给不同分类器之后的集成。Boosting和bagging不同的地方在于boosting是通过集中关注被已有分类器错分的哪些数据来获得新的分类器，由于boosting分类器的结果是基于所有分类器的加权求和的结果，bagging的加权器的权重是相同的，而boosting中的分类器加权并不相等，每个权重代表的是其分类器在上一轮迭代中的成功度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AdaBoost运行过程如下：训练数据中的每一个样本，并赋予其一个去找你红，这些权重构成了向量D，一开始这些权重都被初始化成相等值，首先在训练数据上训练出一个弱分类器，并计算该分类器的错误率，然后在同一数据集上再次训练弱分类器，在分类器大的第二次训练中，将会重新调整每个样本的权重，其中第一次分对的样本的权重将会降低，而第一次分错的样本的权重将会提高，为了从所有的弱分类器中得到最终的分类结果，AdaBoost为每个分类器都分配了一个权值alpha(区分与前面一个权值)，这些alpha指是基于每个弱分类器的错误率进行计算的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bagging：基于数据随机重抽样的分类器构建方法，是在原始数据集中选择S次后得到S个新的数据集的一种技术，在S个数据集建好之后，将某个学习方法分别作用于每个数据集就得到了S个分类器，选择分类器投票结果中最多的类别作为最后的分类结果，当然还有更先进的bagging方法，比如随机森林
-在机器学习中有一个普遍适应的称为混淆矩阵(confusion matrix)的工具，它可以帮助人们更好地了解分类器中的错误，如果矩阵中的非对角元素均为0，就会得到一个完美的分类器。正确率= TP/(TP+FP)给出的是预测为正例样本中的真正正例的比例，第二个是召回率，它等于TP/(TP+FN)，给出的是预测为正例的占所有真实正例的比例
-另一个用户度量分类器中的非均衡性的工具是ROC曲线，ROC（receiver operating characteristic）代表接收者操作特征，对不同的ROC曲线进行比较的一个特征指标是曲线下的面积（Area Under the Cureve AUC），AUC给出的是分类器的平均性能值，当然它并不能完全代替对整条曲线的观察，一个完美的分类器的AUC为1，而随机猜测的AUC为0.5
-另外一种针对非均衡问题调节分类的方法就时通过对训练数据进行改造，可以通过欠抽样和过抽样来实现，过抽样意味着赋值样例，而欠抽样意味着删除样例，对于信用卡违约来说，可以通过反例类别欠抽样和正例类别过抽样混合的方法，但是正例离别的过抽样可能会导致过拟合的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树回归（Classification And Regression Trees ，分类回归树）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以对复杂和非线性的数据建模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,26 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一颗数如果节点过多，表明该模型可能对数据进行了过拟合，可以通过交叉验证的方式来发现过拟合，通过降低决策树的复杂度来避免过拟合的过程称为剪枝（pruning）剪枝可以通过预剪枝（预剪枝在树的构建过程中就进行剪枝）和后剪枝两种方式。 后剪枝不需要用户指定参数，是一种更理想化的剪枝方式
-当输入数据和目标变量之间呈现非线性关系，对于这种复杂的关系建模，一种可行的方式是使用树对预测值分段，相应地，如果叶节点使用的模型是分段常数则称为回归树，若叶节点使用的模型是线性回归方程，则称为模型树，CART可以用于构建二元数，若使用不同的误差准则，就可以通过CART算法构建模型树和回归树，该算法构建的树会倾向于数据过拟合，所以需要后剪枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较直观、容易理解，但是比较难以实现。
-基于熵值的决策树(ID3)和基于C4.5以及CART(Classifacation and Regression Tree)的决策树
-ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。
-有两种切分方法，一种是按照当前最佳的特征来分割数据，并按照该特征的所有可能值来切分，也就是说一个特征有4种取值，那么数据将被切分成4份，一旦按照某种特征切分后，该特征在之后的算法执行过程中不会再起作用（ID3即使用该方法），另外一种方法是二元切分法，即每次把数据集切分成两份，对于符合或不符合的数据集分别放到左右子树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CART使用二元切分法
-线性回归存在两个问题：1.需要拟合所有的样本点，计算量比较大，尤其是数据拥有众多的特征，且特征之间的关系十分复杂时 2.实际生活中很多问题都是非线性的，不可能使用全局线性模型来拟合任何数据。
-一种可行的方法是将数据集切分成很多份易建模的数据，然后利用线性回归来建模，如果首次切分后仍然难以拟合线性回归模型，则继续切换
-CART即可用来分类，又可以用于回归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>离散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,10 +608,6 @@
   </si>
   <si>
     <t>FP-growth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apriori算法是发现频繁项集的一种方法，算法的两种数据参数分别是最小支持度和数据集，算法有两个步骤构成：1.发现频繁项集：该算法首先会生成所有单个物品的项集列表，扫码交易记录中哪些相集中满足最小支持度要求，那些不满足最小支持度的集合会被去掉，然后对剩下来的集合进行组合，生成包含两个元素的集合，重新扫面这个集合，去掉不满足最小支持度的项集，重复上述过程，直到所有的项集。 2关联规则：.类似与频繁项生成，可以为每个频繁项集产生许多关联规则，如果能够减少规则数据来确保问题的可解性，那么计算起来就会好很多，可以首先从一个频繁项集开始，接着创建一个规范列表，其中规则右部只包含一个元素，然后对这些规则进行测试，接下来合并所有的剩余规则来创建一个新的规则列表，其中规则右部包含两个元素，这种方法也称为分级法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -951,11 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最基本的线性回归方法普通最小二乘法(Ordinary Least Sequence OLS)，线性回归的一个问题是可能会出现欠拟合的现象，
-在线性回归中最小二乘法就是试图找到一条直线，使所有的样本到直线上的欧式距离之和最小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别不平衡问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,23 +944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本原理为"词频"（Term Frequency，缩写为TF）*（Inverse Document Frequency，缩写为IDF=log(语料库文档总数/(包含该词的文档数+1))）
-（1）使用TF-IDF算法，找出两篇文章的关键词；
-（2）每篇文章各取出若干个关键词（比如20个），合并成一个集合，计算每篇文章对于这个集合中的词的词频（为了避免文章长度的差异，可以使用相对词频）；
-（3）生成两篇文章各自的词频向量；
-（4）计算两个向量的余弦相似度，值越大就表示越相似。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF模型足够胜任普通的文本分析任务，用TF-IDF模型计算文本相似度已经比较靠谱了，但是细究的话还存在不足之处。实际的中文文本，用TF-IDF表示的向量维数可能是几百、几千，不易分析计算。此外，一些文本的主题或者说中心思想，并不能很好地通过文本中的词来表示，能真正概括这篇文本内容的词可能没有直接出现在文本中。
-因此，这里引入了Latent Semantic Indexing（LSI）从文本潜在的主题来进行分析。LSI是概率主题模型的一种，另一种常见的是LDA，核心思想是：每篇文本中有多个概率分布不同的主题；每个主题中都包含所有已知词，但是这些词在不同主题中的概率分布不同。LSI通过奇异值分解的方法计算出文本中各个主题的概率分布，严格的数学证明需要看相关论文。假设有5个主题，那么通过LSI模型，文本向量就可以降到5维，每个分量表示对应主题的权重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>局部加权线性回归（Loaclly Weighted Linear Regression LWLR），在该算法中，我们给待预测点附近的每个点赋予一定的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集成学习方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,13 +953,6 @@
   </si>
   <si>
     <t>范数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在模型训练过程中，通常希望模型在训练数据上有最小的误差，而规则化参数则是防止模型过度你和我们的训练数据，规则化函数有多种选择，一般是模型复杂度的单调递增函数，模型越复杂，规则化值越大，比如规则化项可以是模型参数向量的范数，在论文中常见的都聚焦在：零范数、一范数、二范数、迹范数、Frobenius范数和核范数等等
-L0范数：向量中 非0元素的个数
-L1范数(Lasso)：向量中各个元素绝对值之和(L0没有规模使用的原因为求解不方便，L1范数是L0范数的最优凸近似),L1会趋向于产生少量的热证，而其他的特征都是0
-L2范数(Ridge)：向量各个元素的平方和然后求平方根，L2范数不但可以防止过拟合，还可以让优化求解变的稳定和快速，L2会选择更多的特征，这些特征都会接近于0，Lasso在特征选择时候非常有用，而Ridge就只是一种规划化而已</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1121,69 +1021,6 @@
   </si>
   <si>
     <t>偏差描述了模型在训练集的准确度，则损失函数则是描述了该准确度的间接纲领，模型采用不同的损失函数，其训练过程会朝着不同的方向进行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBDT在函数空间利用梯度下降法进行优化，XGBoost在函数空间利用牛顿法进行优化
-xgboost最大的特点在于，它能够自动利用CPU的多线程进行并行，同时在算法上加以改进提高了精度，xgboost的特点有三个：速度快，效果好，功能多
-GBDT是以决策树（CART）为基学习器的GB算法，GBDT中的树都是回归树，而不是分类树。
-Boost是"提升"的意思，一般Boosting算法都是一个迭代的过程，每一次新的训练都是为了改进上一次的结果。
-GBDT的核心就在于：每一棵树学的是之前所有树结论和的残差，这个残差就是一个加预测值后能得真实值的累加量。比如A的真实年龄是18岁，但第一棵树的预测年龄是12岁，差了6岁，即残差为6岁。那么在第二棵树里我们把A的年龄设为6岁去学习，如果第二棵树真的能把A分到6岁的叶子节点，那累加两棵树的结论就是A的真实年龄；如果第二棵树的结论是5岁，则A仍然存在1岁的残差，第三棵树里A的年龄就变成1岁，继续学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">度量算法方式最常用的两种：基尼不纯度(Gini Impurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>关于剪枝：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
-处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID3和C4.5主要区别为ID3使用信息增益作为决策树的判断标准可能会对取值数目较多的属性有所偏好(信息熵的本质就是希望将样本尽可能分分开，分开之后两个叶子节点的数量尽量远离1:1，而如果样本的预测值就是1:1的分布，则熵值就不适合这种情况)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，例如对所有样本进行自增的标号，将编号带入模型中，可能会导致标号作为子分类器，这样信息增益最大，为了减少这种影响，C4.5不直接使用信息增益，而是使用信息增益率来选择最优划分方法，CART则使用基尼指数来选择划分属性，直观来说基尼指数反映了从数据集中随机抽取两个样本，其类别标记不一致的概率，因此，基尼系数越小，则数据集合的纯度越高</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1257,10 +1094,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区间缩放法的思路有多种，常见的一种为利用两个最值进行缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标准化的前提是特征值服从正态分布，标准化后，其转换成标准正态分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1305,25 +1138,6 @@
     <t>数值型的填充均值，字符串型的填充众值</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">字符型数据填充None，将缺失作为一种特征来进行one-hot编码可以既不丢失信息也不增加噪声；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>特征工程决定了上限，模型和调参只是逼近这个上限</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奥卡姆剃刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1346,12 +1160,6 @@
   </si>
   <si>
     <t>kaggle winner = feature engineering + ensemble + good machine + domain knowledge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有人认为SVM是最好的现成的分类器，这里的现成的分类器指的是不加修改即可直接使用，SVM有很多实现方式，其中最流行的一种即序列最小化（Sequential Minimal Optimization SMO），可以通过核函数（kernael）的方式将SVM扩展到更多的数据集上，几乎所有的分类问题都可以使用SVM
-Support Vector RegressionSVR：输出 wx+b，即某个样本点到分类面的距离，是连续值，所以是回归模型
-SVR：输出 wx+b，即某个样本点到分类面的距离，是连续值，所以是回归模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1655,6 +1463,722 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy = mean表示使用均值替换NAN
+strategy = median表示中众数替换NAN
+stratgy = most_frequent表示使用众数替代NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolynomialFeatures/FunctionTransformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个特征不发散，例如方差接近于0，也就是说样本在这个特征上基本上没有差异，这个特征对于样本的区分并没有什么用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这点比较显见，与目标相关性高的特征，应当优选选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征是否发散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征与目标的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarianceThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出满足对应方差的feature，过滤掉不满足的feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡方检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互信息法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归特征消除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于惩罚项的特征选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于树模型的特征选择法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主成分分析法（PCA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性判别分析法（LDA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectKBest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用相关系数法，先要计算各个特征对目标值的相关系数以及相关系数的P值，选择K个最好的特征，返回选择特征后的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算方式为减去均值除以标准差
+对于离散属性，若属性之间存在序的关系，例如、高、中、矮，可以通过连续化将其转换为连续值，例如高为1,中为0.5,矮为0,如果属性之间不存在序关系，通常转化为k维向量，例如属性瓜类取值，西瓜、南瓜、黄瓜、可以转化为(0,0,1),(0,1,0),(1,0,0),若无序属性联系化，则会不恰当的引入序关系，即可能连续变量表示了实际的业务含义，影响后续的距离计算等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据标准化(别名z-score)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮尔逊相关系数，就是将减去均值的变量，求其余弦夹角
+SelectKBest(lambda X, Y: array(map(lambda x:pearsonr(x, Y), X.T)).T, k=2).fit_transform(iris.data, iris.target)
+上述代指保留k个最相关的feature，注意上述计算皮尔逊相关系数时使用了矩阵的转置，原因为，皮尔逊是计算每一个feature和target之间的相关性，非计算不同feature与target之间的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典的卡方检验是检验定性自变量对定性因变量的相关性。假设自变量有N种取值，因变量有M种取值，考虑自变量等于i且因变量等于j的样本频数的观察值与期望的差距,这个统计量的含义简而言之就是自变量对因变量的相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectKBest
+chi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minepy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个基模型来进行多轮训练，每轮训练后，消除若干权值系数的特征，再基于新的特征集进行下一轮训练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤法，按照发散性或者相关性对各个特征进行评分，设定阈值或者待选择阈值的个数，选择特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装法，根据目标函数（通常是预测效果评分），每次选择若干特征，或者排除若干特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入法，先使用某些机器学习的算法和模型进行训练，得到各个特征的权值系数，根据系数从大到小选择特征。类似于Filter方法，但是是通过训练来确定特征的优劣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectFromModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用带惩罚项的基模型，除了筛选出特征外，同时也进行了降维。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_selection
+sklearn.ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectFromModel
+GradientBoostingClassifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当特征选择完成后，可以直接训练模型了，但是可能由于特征矩阵过大，导致计算量大，训练时间长的问题，因此降低特征矩阵维度也是必不可少的。常见的降维方法除了以上提到的基于L1惩罚项的模型以外，另外还有主成分分析法（PCA）和线性判别分析（LDA），线性判别分析本身也是一个分类模型。PCA和LDA有很多的相似点，其本质是要将原始的样本映射到维度更低的样本空间中，但是PCA和LDA的映射目标不一样：PCA是为了让映射后的样本具有最大的发散性；而LDA是为了让映射后的样本有最好的分类性能。所以说PCA是一种无监督的降维方法，而LDA是一种有监督的降维方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.decomposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDA的中心思想即：最大化类间距离，最小化类内距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.discriminant_analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinearDiscriminantAnalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用来检测自变量、因变量之间是否显著相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征变换方法分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无信息转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有信息转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监督转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不利用任何其他信息进行转换，比如指数、对数函数转换等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只利用特征的统计信息的转换，统计信息包括均值、标准差、边界等等，比如标准化、PCA法降维等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既利用了特征信息又利用了目标值信息的转换，比如通过模型选择特征、LDA法降维等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二值化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binarizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binarizer(threshold=3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量特征二值化的核心在于设定一个阈值，大于阈值的赋值为1，小于等于阈值的赋值为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不难看到，只有有信息的转换类的fit方法才实际有用，显然fit方法的主要工作是获取特征信息和目标值信息，在这点上，fit方法和模型训练时的fit方法就能够联系在一起了：都是通过分析特征和目标值，提取有价值的信息，对于转换类来说是某些统计量，对于模型来说可能是特征的权值系数等。另外，只有有监督的转换类的fit和transform方法才需要特征和目标值两个参数。fit方法无用不代表其没实现，而是除合法性校验以外，其并没有对特征和目标值进行任何处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行处理，流水线处理，自动化调参，持久化是使用sklearn优雅地进行数据挖掘的核心。并行处理和流水线处理将多个特征处理工作，甚至包括模型训练工作组合成一个工作（从代码的角度来说，即将多个对象组合成了一个对象）。在组合的前提下，自动化调参技术帮我们省去了人工调参的反锁。训练好的模型是贮存在内存中的数据，持久化能够将这些数据保存在文件系统中，之后使用时无需再进行训练，直接从文件系统中加载即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线处理(串行处理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline可以用于把多个estimators级联成一个estimator，这么 做的原因是考虑了数据处理过程中一系列前后相继的固定流程，比如feature selection-&gt;normalization-&gt;classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureUnion把若干个transformer objects组合成一个新的transformer，这个新的transformer组合了他们的输出，一个FeatureUnion对象接受一个transformer对象列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline提供了两种服务：
+Convenience:只需要调用一次fit和transform就可以在数据集上训练一组estimators
+Joint parameter selection:可以把grid_search用在FeatureUnion中所有的estimators的参数组合上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn数据挖掘四个核心步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化调参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimators = [('pca',PCA()),('clf',LogisticRegression())]
+pipe = Pipeline(estimators)
+pipe.set_params(clf__C = 10)
+params = dict(pca__n_components = [2,5,10],clf__C = [0,1,10,100])
+params2 = dict(pca = [None,PCA(5),PCA(10)],clf = [SVC(),LogisticRegression()],clf__C = [0.1,10,100])
+grid_research = GridSearchCV(pipe,param_grid=params)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>externals.joblib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#第三个参数为压缩级别，0为不压缩，3为合适的压缩级别
+5 dump(grid_search, 'grid_search.dmp', compress=3)
+6 #从文件系统中加载数据到内存中
+7 grid_search = load('grid_search.dmp')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT在函数空间利用梯度下降法进行优化，XGBoost在函数空间利用牛顿法进行优化
+xgboost最大的特点在于，它能够自动利用CPU的多线程进行并行，同时在算法上加以改进提高了精度，xgboost的特点有三个：速度快，效果好，功能多
+GBDT是以决策树（CART）为基学习器的GB算法，GBDT中的树都是回归树，而不是分类树。
+Boost是"提升"的意思，一般Boosting算法都是一个迭代的过程，每一次新的训练都是为了改进上一次的结果。
+GBDT的核心就在于：每一棵树学的是之前所有树结论和的残差，这个残差就是一个加预测值后能得真实值的累加量。比如A的真实年龄是18岁，但第一棵树的预测年龄是12岁，差了6岁，即残差为6岁。那么在第二棵树里我们把A的年龄设为6岁去学习，如果第二棵树真的能把A分到6岁的叶子节点，那累加两棵树的结论就是A的真实年龄；如果第二棵树的结论是5岁，则A仍然存在1岁的残差，第三棵树里A的年龄就变成1岁，继续学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticNet可以看做Lasso和Ridge的中庸化的产物。它也是对普通的线性回归做了正则化，但是它的损失函数既不全是L1的正则化，也不全是L2的正则化，而是用一个权重参数ρ来平衡L1和L2正则化的比重，形成了一个全新的损失函数,即既包含了L1正则化，又包含了L2正则化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTaskLasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个线性回归模型共享样本特征，但是有不同的回归系数和特征输出，所谓的“MultiTask”这里其实就是指k个线性回归的模型一起去拟合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianRidge
+ARDRegression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/pinard/p/6026343.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在模型训练过程中，通常希望模型在训练数据上有最小的误差，而规则化参数则是防止模型过度你和我们的训练数据，规则化函数有多种选择，一般是模型复杂度的单调递增函数，模型越复杂，规则化值越大，比如规则化项可以是模型参数向量的范数，在论文中常见的都聚焦在：零范数、一范数、二范数、迹范数、Frobenius范数和核范数等等
+L0范数：向量中 非0元素的个数
+L1范数(Lasso)：向量中各个元素绝对值之和(L0没有规模使用的原因为求解不方便，L1范数是L0范数的最优凸近似),L1会趋向于产生少量的特征，而其他的特征都是0
+L2范数(Ridge)：向量各个元素的平方和然后求平方根，L2范数不但可以防止过拟合，还可以让优化求解变的稳定和快速，L2会选择更多的特征，这些特征都会接近于0，Lasso在特征选择时候非常有用，而Ridge就只是一种规划化而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的模型中有很多变量对模型都有些许影响，那么用Ridge；如果你的模型中只有少量变量对模型很大影响，那么用LASSO。LASSO可以使得很多变量的系数为0（相当于降维），但是Ridge却不能。
+因为Ridge计算起来更快，所以当数据量特别大的时候，更倾向于用Ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测精度：线性回归要处理好这样一对问题，即样本的数量n和特征的数量p(输入矩阵为n行p列):
+当n&gt;&gt;p时最小二乘回归会有较小的方差
+当n约等于p时，容易产生过拟合
+当n&lt;p时，最小二乘回归得不到有意义的结果，变量发生微量变化会导致回归系数比较大的方差，泛化能力很差
+LinearRegression没有考虑过拟合的问题，有可能泛化能力较差，这时损失函数可以加入正则化项来提高模型的泛化能力
+模型的解释能力：如果模型中的特征之间有相互关系，这样会增加模型的复杂程度，并且对整个模型的解释能力并没有提高，这时，我们就要进行特征选择。
+岭回归主要来解决两个问题，一个是样本数量少于变量个数，一个是变量之间存在共线性，变量之间存在共线性时，最小二乘法得到的系数不稳定，方差很大，
+岭回归是一种专用于共线性数据分析的有偏估计回归方法，实质上是一种改良的最小二乘估计法，通过放弃最小二乘法的无偏性，以损失部分信息、降低精度为代价，获得回归系数更为符合实际、更可靠的回归方法，对病态数据的耐受性远远强于最小二乘法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在进行特征选择时，一般有三种方式：
+1.子集选择
+2.收缩方式(Shrinkage method)，又称为正则化(Regularization)。主要包括岭回归个lasso回归。
+3.维数缩减
+线性回归的模型复杂度为 O(n p^2)，n行p列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果Ridge是为了解决泛化能力，那么使用RidgeCV去自动化调参的时候，不是应该参数最小的时候得到的误差最小?此时的泛化能力也是最差，也最容易出现过拟合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lasso:The Least Absolute Shrinkage and Selection Operator(看名字有两个主要功能，一个是Shrinkage(变量的缩减)，一个是Selection(变量的选择))，中文翻译为 ‘套索’
+Lasso回归可以使得一些特征的系数变小，甚至还是一些绝对值较小的系数直接变为0。增强模型的泛化能力。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>什么时候使用Lasso而非Ridge:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一般来说，对于高维的特征数据，尤其线性关系是稀疏的，我们会采用Lasso回归。或者是要在一堆特征里面找出主要的特征，那么Lasso回归更是首选了,Lasso回归可以使得一些变量的回归系数为0，而岭回归只能使回归系数趋于0，如果你有很多features，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不知道哪个最重要，那么你可以用L1，因为L1会更鼓励theta为0。这样你可以直接用非0的theta，那么模型的复杂程度会降低很多，总结成一句话Lasso主要用来降维，Ridge主要用来解决共线性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Lasso回归的损失函数优化方法常用的有两种，坐标轴下降法和最小角回归法。LassoLars类采用的是最小角回归法，Lasso类采用的是坐标轴下降法。
+LassoCV类是进行Lasso回归的首选。当我们面临在一堆高位特征中找出主要特征时，LassoCV类更是必选。当面对稀疏线性关系时，LassoCV也很好用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LassoLars和Lasso的选择:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LassoLarsCV类是进行Lasso回归的第二选择。第一选择是前面讲到LassoCV类。那么LassoLarsCV类有没有适用的场景呢？换句话说，用最小角回归法什么时候比坐标轴下降法好呢？</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景一：如果我们想探索超参数α更多的相关值的话，由于最小角回归可以看到回归路径，此时用LassoLarsCV比较好。场景二： 如果我们的样本数远小于样本特征数的话，用LassoLarsCV也比LassoCV好（更快）。其余场景最好用LassoCV。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthogonal Matching Pursuit (OMP)
+Bayesian Regression
+Bayesian Ridge Regression
+Automatic Relevance Determination - ARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似然函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后我们再回到L(\theta | \textbf{x}) = f(\textbf{x} | \theta)这个表达。首先我们严格记号，竖线|表示条件概率或者条件分布，分号;表示把参数隔开。所以这个式子的严格书写方式是L(\theta | \textbf{x}) = f(\textbf{x} ; \theta)因为\theta在右端只当作参数理解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型具有高偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习总是将方差与偏差之间进行trade-off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型具有高方差，如果我们多次重复训练一个模型，如使用训练集中不同的子集，方差可以用来衡量模型对特定样本预测的一致性，也就是模型的泛化能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基本的线性回归方法普通最小二乘法(OrdinaryLeastSequenceOLS)，线性回归的一个问题是可能会出现欠拟合的现象，
+在线性回归中最小二乘法就是试图找到一条直线，使所有的样本到直线上的欧式距离之和最小</t>
+  </si>
+  <si>
+    <t>局部加权线性回归（LoacllyWeightedLinearRegressionLWLR），在该算法中，我们给待预测点附近的每个点赋予一定的权重</t>
+  </si>
+  <si>
+    <t>树回归（ClassificationAndRegressionTrees，分类回归树）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CART使用二元切分法
+线性回归存在两个问题：1.需要拟合所有的样本点，计算量比较大，尤其是数据拥有众多的特征，且特征之间的关系十分复杂时2.实际生活中很多问题都是非线性的，不可能使用全局线性模型来拟合任何数据。
+一种可行的方法是将数据集切分成很多份易建模的数据，然后利用线性回归来建模，如果首次切分后仍然难以拟合线性回归模型，则继续切换
+CART即可用来分类，又可以用于回归</t>
+  </si>
+  <si>
+    <t>一颗数如果节点过多，表明该模型可能对数据进行了过拟合，可以通过交叉验证的方式来发现过拟合，通过降低决策树的复杂度来避免过拟合的过程称为剪枝（pruning）剪枝可以通过预剪枝（预剪枝在树的构建过程中就进行剪枝）和后剪枝两种方式。后剪枝不需要用户指定参数，是一种更理想化的剪枝方式
+当输入数据和目标变量之间呈现非线性关系，对于这种复杂的关系建模，一种可行的方式是使用树对预测值分段，相应地，如果叶节点使用的模型是分段常数则称为回归树，若叶节点使用的模型是线性回归方程，则称为模型树，CART可以用于构建二元数，若使用不同的误差准则，就可以通过CART算法构建模型树和回归树，该算法构建的树会倾向于数据过拟合，所以需要后剪枝</t>
+  </si>
+  <si>
+    <t>精度高、对异常值不敏感、无数据输入假定
+k近邻算法需要重新熟悉一下</t>
+  </si>
+  <si>
+    <t>比较直观、容易理解，但是比较难以实现。
+基于熵值的决策树(ID3)和基于C4.5以及CART(ClassifacationandRegressionTree)的决策树
+ID3无法直接处理数值型数据，尽管可以通过量化的方式将数值型数据转换成标称型数据，但是如果存在太多的特征划分，ID3仍有面临其它的问题。
+有两种切分方法，一种是按照当前最佳的特征来分割数据，并按照该特征的所有可能值来切分，也就是说一个特征有4种取值，那么数据将被切分成4份，一旦按照某种特征切分后，该特征在之后的算法执行过程中不会再起作用（ID3即使用该方法），另外一种方法是二元切分法，即每次把数据集切分成两份，对于符合或不符合的数据集分别放到左右子树</t>
+  </si>
+  <si>
+    <t>度量算法方式最常用的两种：基尼不纯度(GiniImpurity)和熵(Entropy),信息论中熵值代表了集合的无序程度，基本上相当于集合的混杂程度，基尼不纯度和熵值的主要区别在于熵值达到峰值的过程相对来说慢一点，因此熵值对混乱集合的判罚往往更重一点，平时使用熵值也更频繁一点。
+关于剪枝：未经剪枝的决策树可能存在过度拟合的情况，剪枝的方法是当熵值增加的数量小于某个值时，我们就停止分支的创建，为了防止出现某一次分支的创建并不会令熵值增加多少，但是随后创建的分支却会使熵值大幅增加，对此一种潜在的策略为先构造好整棵树，然后再尝试消除多余的节点，这个过程就是剪枝。
+处理数值型结果：数值当做不同的分类进行处理有一个问题就是有些数据相差的比较少，有些数字相差的比较多，为了解决这个问题当拥有一颗数字作为结果的决策树时，可以使用方差作为评价函数来取代熵值或者基尼不纯度。
+ID3和C4.5主要区别为ID3使用信息增益作为决策树的判断标准可能会对取值数目较多的属性有所偏好(信息熵的本质就是希望将样本尽可能分分开，分开之后两个叶子节点的数量尽量远离1:1，而如果样本的预测值就是1:1的分布，则熵值就不适合这种情况)，例如对所有样本进行自增的标号，将编号带入模型中，可能会导致标号作为子分类器，这样信息增益最大，为了减少这种影响，C4.5不直接使用信息增益，而是使用信息增益率来选择最优划分方法，CART则使用基尼指数来选择划分属性，直观来说基尼指数反映了从数据集中随机抽取两个样本，其类别标记不一致的概率，因此，基尼系数越小，则数据集合的纯度越高</t>
+  </si>
+  <si>
+    <t>朴素贝叶斯之所以称为朴素的原因为假设将要被组合的各个概率是彼此独立的，即一个单词属于某个指定的分类的文档中的概率和其它单词出现在该文档中的概率是不相关的，由统计学知，如果每个特征需要N个样本，那么对于10个特征将需要N的十次方个样本，如果特征之间相互独立，那么样本数就可以从N的十次方减少到N*10个样本，这个假设正是朴素贝叶斯分类器中朴素（naive)一词的含义，朴素贝叶斯分类器中的另一个假设是，每个特征同等重要，贝叶斯适合二分类器。</t>
+  </si>
+  <si>
+    <t>为监督学习，贝叶斯概率提供了一种利用已知值来估计未知概率的有效方法这种随机选择数据的一部分作为训练集，而剩余部分作为测试集的过程称之为留存交叉验证(hold-outcrossvalidation),通常会做多次留存交叉验证，取多次的平均值作为结果输出。</t>
+  </si>
+  <si>
+    <t>在实际分类任务中，线性逻辑斯谛回归与支持向量机往往能得到非常相似的结果。逻辑斯谛回归会尽量最大化训练数据集的条件似然，这使得它比支持向量机更易于处理离群点。而支持向量机则更关注接近决策边界（支持向量）的点。逻辑斯谛回归的另一个优势在于模型简单从而更容易实现。此外，逻辑斯谛回归模型更新方便，当应用于流数据分析时，这是非常具备吸引力的。</t>
+  </si>
+  <si>
+    <t>SVM是感知机(perceptron)的一种特例，感知器目的为了最小化分类误差，SVM优化目标是最大化分类间隔，有人认为SVM是最好的现成的分类器，这里的现成的分类器指的是不加修改即可直接使用，SVM有很多实现方式，其中最流行的一种即序列最小化（SequentialMinimalOptimizationSMO），可以通过核函数（kernael）的方式将SVM扩展到更多的数据集上，几乎所有的分类问题都可以使用SVM
+SupportVectorRegressionSVR：输出wx+b，即某个样本点到分类面的距离，是连续值，所以是回归模型
+SVR：输出wx+b，即某个样本点到分类面的距离，是连续值，所以是回归模型</t>
+  </si>
+  <si>
+    <t>元算法是对其它算法进行组合的一种方式，其中AdaBoost(adaptiveboosting的缩写)是最流行的元算法（或者集成方法），有些人认为AdaBoost是最流行的元算法，所以该方法是机器学习工具箱中最强有力的工具之一。使用集成方法时有多种形式，可以是不同算法的集成，也可以是同一算法在不同设置下的集成，还可以是数据集不同部分分配给不同分类器之后的集成。Boosting和bagging不同的地方在于boosting是通过集中关注被已有分类器错分的哪些数据来获得新的分类器，由于boosting分类器的结果是基于所有分类器的加权求和的结果，bagging的加权器的权重是相同的，而boosting中的分类器加权并不相等，每个权重代表的是其分类器在上一轮迭代中的成功度。</t>
+  </si>
+  <si>
+    <t>bagging：基于数据随机重抽样的分类器构建方法，是在原始数据集中选择S次后得到S个新的数据集的一种技术，在S个数据集建好之后，将某个学习方法分别作用于每个数据集就得到了S个分类器，选择分类器投票结果中最多的类别作为最后的分类结果，当然还有更先进的bagging方法，比如随机森林
+在机器学习中有一个普遍适应的称为混淆矩阵(confusionmatrix)的工具，它可以帮助人们更好地了解分类器中的错误，如果矩阵中的非对角元素均为0，就会得到一个完美的分类器。正确率=TP/(TP+FP)给出的是预测为正例样本中的真正正例的比例，第二个是召回率，它等于TP/(TP+FN)，给出的是预测为正例的占所有真实正例的比例
+另一个用户度量分类器中的非均衡性的工具是ROC曲线，ROC（receiveroperatingcharacteristic）代表接收者操作特征，对不同的ROC曲线进行比较的一个特征指标是曲线下的面积（AreaUndertheCureveAUC），AUC给出的是分类器的平均性能值，当然它并不能完全代替对整条曲线的观察，一个完美的分类器的AUC为1，而随机猜测的AUC为0.5
+另外一种针对非均衡问题调节分类的方法就时通过对训练数据进行改造，可以通过欠抽样和过抽样来实现，过抽样意味着赋值样例，而欠抽样意味着删除样例，对于信用卡违约来说，可以通过反例类别欠抽样和正例类别过抽样混合的方法，但是正例离别的过抽样可能会导致过拟合的问题。</t>
+  </si>
+  <si>
+    <t>Apriori算法是发现频繁项集的一种方法，算法的两种数据参数分别是最小支持度和数据集，算法有两个步骤构成：1.发现频繁项集：该算法首先会生成所有单个物品的项集列表，扫码交易记录中哪些相集中满足最小支持度要求，那些不满足最小支持度的集合会被去掉，然后对剩下来的集合进行组合，生成包含两个元素的集合，重新扫面这个集合，去掉不满足最小支持度的项集，重复上述过程，直到所有的项集。2关联规则：.类似与频繁项生成，可以为每个频繁项集产生许多关联规则，如果能够减少规则数据来确保问题的可解性，那么计算起来就会好很多，可以首先从一个频繁项集开始，接着创建一个规范列表，其中规则右部只包含一个元素，然后对这些规则进行测试，接下来合并所有的剩余规则来创建一个新的规则列表，其中规则右部包含两个元素，这种方法也称为分级法。</t>
+  </si>
+  <si>
+    <t>基本原理为"词频"（TermFrequency，缩写为TF）*（InverseDocumentFrequency，缩写为IDF=log(语料库文档总数/(包含该词的文档数+1))）
+（1）使用TF-IDF算法，找出两篇文章的关键词；
+（2）每篇文章各取出若干个关键词（比如20个），合并成一个集合，计算每篇文章对于这个集合中的词的词频（为了避免文章长度的差异，可以使用相对词频）；
+（3）生成两篇文章各自的词频向量；
+（4）计算两个向量的余弦相似度，值越大就表示越相似。</t>
+  </si>
+  <si>
+    <t>TF-IDF模型足够胜任普通的文本分析任务，用TF-IDF模型计算文本相似度已经比较靠谱了，但是细究的话还存在不足之处。实际的中文文本，用TF-IDF表示的向量维数可能是几百、几千，不易分析计算。此外，一些文本的主题或者说中心思想，并不能很好地通过文本中的词来表示，能真正概括这篇文本内容的词可能没有直接出现在文本中。
+因此，这里引入了LatentSemanticIndexing（LSI）从文本潜在的主题来进行分析。LSI是概率主题模型的一种，另一种常见的是LDA，核心思想是：每篇文本中有多个概率分布不同的主题；每个主题中都包含所有已知词，但是这些词在不同主题中的概率分布不同。LSI通过奇异值分解的方法计算出文本中各个主题的概率分布，严格的数学证明需要看相关论文。假设有5个主题，那么通过LSI模型，文本向量就可以降到5维，每个分量表示对应主题的权重。</t>
+  </si>
+  <si>
+    <t>度量集合无序程度的方法是基尼不纯度Ginipurity</t>
+  </si>
+  <si>
+    <r>
+      <t>标准化与归一化区别：简单来说，标准化是依照特征矩阵的列处理数据，其通过求z-score的方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将样本的特征值转换到同一量纲下。归一化是依照特征矩阵的行处理数据，其目的在于样本向量在点乘运算或其他核函数计算相似性时，拥有统一的标准，也就是说都转化为“单位向量”。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">字符型数据填充None，将缺失作为一种特征来进行one-hot编码可以既不丢失信息也不增加噪声；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特征工程决定了上限，模型和调参只是逼近这个上限</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1672,17 +2196,189 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+基于树的方法不需要进行特征的归一化。例如随机森林，bagging与boosting等方法。如果是基于参数的模型或者基于距离的模型，因为需要对参数或者距离进行计算，都需要进行归一化。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Onehot编码如果输出是多位，是将原来的feature衍生成多个feature吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y表示x作为正例的可能性，1-y表示为反例的可能性，两者的比值y/(1-y)，称为几率(odds),反映了x作为正例的可能性，对几率取对数则得到了对数几率log odds 亦称为logit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline存在的主要原因为，经常有固定顺序处理数据的需求，例如变量选择、变量均衡、分类
+pipeline提供了两种服务：
+Convenience:只需要调用一次fit和predict就可以在数据集上训练一组estimators
+Joint parameter selection可以把grid search 用在pipeline中所有的estimators参数的参数组合上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipleline中最后一个之外的所有estimators都必须是变换器（transformers），最后一个estimator可以是任意类型（transformer，classifier，regresser）
+如果最后一个estimator是个分类器，则整个pipeline就可以作为分类器使用，如果最后一个estimator是个聚类器，则整个pipeline就可以作为聚类器使用。
+为了避免pipeline重复的计算(尤其是使用grid_search的时候，通过cache，数据中间计算结果可以被重复利用)，sklearn支持cache，可以使用如下的命令新建cache：
+from tempfile import mkdtemp
+from shutil import rmtree
+cachedir = mkdtemp()
+pipe = Pipeline(estimators, memory=cachedir)
+rmtree(cachedir)
+如果没有使用cache，有一个负面情况，没有看懂该负面情况具体含义，可以参见：http://scikit-learn.org/stable/modules/pipeline.html
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.feature_extraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文本、或者图像信息提取出适合建模的feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有有信息的转换类的fit方法才实际有用，显然fit方法的主要工作是获取特征信息和目标值信息，在这点上，fit方法和模型训练时的fit方法就能够联系在一起了：都是通过分析特征和目标值，提取有价值的信息，对于转换类来说是某些统计量，对于模型来说可能是特征的权值系数等。另外，只有有监督的转换类的fit和transform方法才需要特征和目标值两个参数。fit方法无用不代表其没实现，而是除合法性校验以外，其并没有对特征和目标值进行任何处理
+fit() : used for generating learning model parameters from training data
+transform() : parameters generated from fit() method,applied upon model to generate transformed data set.
+fit_transform() : combination of fit() and transform() api on same data set
+fit加transform与fit_transform的区别在于，fit可以对任意的数据进行训练，然后将结果应用与transfrom，即fit和transform可以选择不同的数据集，而fit_tranfrom将这两个过程合二为一，必须选择相同的数据集，fit和transform分开使用的主要场景为需要对训练节和测试集使用相同的模型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAbsScaler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间缩放法的思路有多种，常见的一种为利用两个最值进行缩放，将区间缩放至[0,1]（通过减去最小值/（最大值减去最小值））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将区间缩放至[-1,1]（通过减去最小值/最大值）前提条件是样本已经做了标准化(均值为0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归一化即行的平方和为1
+可以选择参数norm='l2' or norm='l1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imputer有fit和transform方法，可以将训练集的样本均值用来填充测试集样本的空缺值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于单变元函数的数据变换可以使用一个统一的方式完成，使用preproccessing库的FunctionTransformer对数据进行对数函数转换
+FunctionTransformer(log1p).fit_transform(iris.data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的数据变换有基于多项式的、基于指数函数的、基于对数函数的。默认的度为2，在一些情况中，我们只需要特征中的相互作用项(interaction terms)，它可以通过传入参数``interaction_only=True``获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Projection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.random_projection.johnson_lindenstrauss_min_dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>johnson_lindenstrauss_min_dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.random_projection.GaussianRandomProjection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussianRandomProjection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.random_projection.SparseRandomProjection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparseRandomProjection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将高维数据投影到较低的维度，对于较大数据量的降维比较有优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来评估特定样本数量情况下，可以降到的维数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces the dimensionality by projecting the original input space on a randomly generated matrix where components are drawn from the following distribution(符合高斯分布)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> reduces the dimensionality by projecting the original input space using a sparse random matrix
+Sparse random matrices are an alternative to dense Gaussian random projection matrix that guarantees similar embedding quality while being much more memory efficient and allowing faster computation of the projected data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel Approximation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核函数是相似度的标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-基于树的方法不需要进行特征的归一化。例如随机森林，bagging与boosting等方法。如果是基于参数的模型或者基于距离的模型，因为需要对参数或者距离进行计算，都需要进行归一化。</t>
+      <t>，核函数必须是半正定性的，有很多方法将距离度量转换为相似度标准</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>标准化与归一化区别：简单来说，标准化是依照特征矩阵的列处理数据，其通过求z-score的方法，</t>
+      <t xml:space="preserve">先映射，再写出优化问题，求解过程中用到内积，内积计算时用到核函数简化计算，也就是说，核函数、内积、相似度这三个词是等价的。因为inner product其实就是一种similarity的度量。核函数和映射是无关的。
+那些搞svm，ridge regression的人，发现自己的算法对数据集的效果不好，他们认为这可能是因为数据集线性不可分。另外他们发现他们搞出的式子里，出现的都是两个数据点的内积。他们想，我们要是把原始数据集映射到高维可能就线性可分啦，但是这可是内积啊，而且怎么找映射函数呢？这时候Mercer Theorem出现了，简直就是黑暗中的一缕阳光啊！好的，那就构造一个kernel function吧，根据Mercer Theorem，那些原始维度的内积转换到高维内积只需要把数据点带进核函数就ok啦。
+</t>
     </r>
     <r>
       <rPr>
@@ -1694,430 +2390,201 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>将样本的特征值转换到同一量纲下。归一化是依照特征矩阵的行处理数据，其目的在于样本向量在点乘运算或其他核函数计算相似性时，拥有统一的标准，也就是说都转化为“单位向量”。</t>
+      <t>映射很难找，但是通常不需要知道映射长什么样子，直接通过核函数去简化计算映射之后的内积</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据归一化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归一化即行的平方和为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strategy = mean表示使用均值替换NAN
-strategy = median表示中众数替换NAN
-stratgy = most_frequent表示使用众数替代NAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据变换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.preprocessing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见的数据变换有基于多项式的、基于指数函数的、基于对数函数的。默认的度为2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于单变元函数的数据变换可以使用一个统一的方式完成，使用preproccessing库的FunctionTransformer对数据进行对数函数转换
-FunctionTransformer(log1p).fit_transform(iris.data)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PolynomialFeatures/FunctionTransformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果一个特征不发散，例如方差接近于0，也就是说样本在这个特征上基本上没有差异，这个特征对于样本的区分并没有什么用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这点比较显见，与目标相关性高的特征，应当优选选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征选择标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征是否发散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征与目标的相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据预处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.feature_selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarianceThreshold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出满足对应方差的feature，过滤掉不满足的feature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方差选择法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关系数法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡方检验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互信息法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wrapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归特征消除法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embedded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于惩罚项的特征选择法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于树模型的特征选择法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主成分分析法（PCA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性判别分析法（LDA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectKBest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用相关系数法，先要计算各个特征对目标值的相关系数以及相关系数的P值，选择K个最好的特征，返回选择特征后的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算方式为减去均值除以标准差
-对于离散属性，若属性之间存在序的关系，例如、高、中、矮，可以通过连续化将其转换为连续值，例如高为1,中为0.5,矮为0,如果属性之间不存在序关系，通常转化为k维向量，例如属性瓜类取值，西瓜、南瓜、黄瓜、可以转化为(0,0,1),(0,1,0),(1,0,0),若无序属性联系化，则会不恰当的引入序关系，即可能连续变量表示了实际的业务含义，影响后续的距离计算等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据标准化(别名z-score)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮尔逊相关系数，就是将减去均值的变量，求其余弦夹角
-SelectKBest(lambda X, Y: array(map(lambda x:pearsonr(x, Y), X.T)).T, k=2).fit_transform(iris.data, iris.target)
-上述代指保留k个最相关的feature，注意上述计算皮尔逊相关系数时使用了矩阵的转置，原因为，皮尔逊是计算每一个feature和target之间的相关性，非计算不同feature与target之间的相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典的卡方检验是检验定性自变量对定性因变量的相关性。假设自变量有N种取值，因变量有M种取值，考虑自变量等于i且因变量等于j的样本频数的观察值与期望的差距,这个统计量的含义简而言之就是自变量对因变量的相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectKBest
-chi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minepy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用一个基模型来进行多轮训练，每轮训练后，消除若干权值系数的特征，再基于新的特征集进行下一轮训练。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过滤法，按照发散性或者相关性对各个特征进行评分，设定阈值或者待选择阈值的个数，选择特征。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装法，根据目标函数（通常是预测效果评分），每次选择若干特征，或者排除若干特征。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌入法，先使用某些机器学习的算法和模型进行训练，得到各个特征的权值系数，根据系数从大到小选择特征。类似于Filter方法，但是是通过训练来确定特征的优劣。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.feature_selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectFromModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用带惩罚项的基模型，除了筛选出特征外，同时也进行了降维。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.feature_selection
-sklearn.ensemble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectFromModel
-GradientBoostingClassifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当特征选择完成后，可以直接训练模型了，但是可能由于特征矩阵过大，导致计算量大，训练时间长的问题，因此降低特征矩阵维度也是必不可少的。常见的降维方法除了以上提到的基于L1惩罚项的模型以外，另外还有主成分分析法（PCA）和线性判别分析（LDA），线性判别分析本身也是一个分类模型。PCA和LDA有很多的相似点，其本质是要将原始的样本映射到维度更低的样本空间中，但是PCA和LDA的映射目标不一样：PCA是为了让映射后的样本具有最大的发散性；而LDA是为了让映射后的样本有最好的分类性能。所以说PCA是一种无监督的降维方法，而LDA是一种有监督的降维方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.decomposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDA的中心思想即：最大化类间距离，最小化类内距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.discriminant_analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinearDiscriminantAnalysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用来检测自变量、因变量之间是否显著相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征变换方法分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无信息转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有信息转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无监督转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有监督转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不利用任何其他信息进行转换，比如指数、对数函数转换等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只利用特征的统计信息的转换，统计信息包括均值、标准差、边界等等，比如标准化、PCA法降维等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既利用了特征信息又利用了目标值信息的转换，比如通过模型选择特征、LDA法降维等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二值化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn.preprocessing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binarizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binarizer(threshold=3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定量特征二值化的核心在于设定一个阈值，大于阈值的赋值为1，小于等于阈值的赋值为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无监督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不难看到，只有有信息的转换类的fit方法才实际有用，显然fit方法的主要工作是获取特征信息和目标值信息，在这点上，fit方法和模型训练时的fit方法就能够联系在一起了：都是通过分析特征和目标值，提取有价值的信息，对于转换类来说是某些统计量，对于模型来说可能是特征的权值系数等。另外，只有有监督的转换类的fit和transform方法才需要特征和目标值两个参数。fit方法无用不代表其没实现，而是除合法性校验以外，其并没有对特征和目标值进行任何处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行处理，流水线处理，自动化调参，持久化是使用sklearn优雅地进行数据挖掘的核心。并行处理和流水线处理将多个特征处理工作，甚至包括模型训练工作组合成一个工作（从代码的角度来说，即将多个对象组合成了一个对象）。在组合的前提下，自动化调参技术帮我们省去了人工调参的反锁。训练好的模型是贮存在内存中的数据，持久化能够将这些数据保存在文件系统中，之后使用时无需再进行训练，直接从文件系统中加载即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线处理(串行处理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipeline可以用于把多个estimators级联成一个estimator，这么 做的原因是考虑了数据处理过程中一系列前后相继的固定流程，比如feature selection-&gt;normalization-&gt;classification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipleline中最后一个之外的所有estimators都必须是变换器（transformers），最后一个estimator可以是任意类型（transformer，classifier，regresser）
-如果最后一个estimator是个分类器，则整个pipeline就可以作为分类器使用，如果最后一个estimator是个聚类器，则整个pipeline就可以作为聚类器使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeatureUnion把若干个transformer objects组合成一个新的transformer，这个新的transformer组合了他们的输出，一个FeatureUnion对象接受一个transformer对象列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipeline提供了两种服务：
-Convenience:只需要调用一次fit和predict就可以在数据集上训练一组estimators
-Joint parameter selection可以把grid search 用在pipeline中所有的estimators参数的参数组合上面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pipeline提供了两种服务：
-Convenience:只需要调用一次fit和transform就可以在数据集上训练一组estimators
-Joint parameter selection:可以把grid_search用在FeatureUnion中所有的estimators的参数组合上面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn数据挖掘四个核心步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化调参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语法说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>estimators = [('pca',PCA()),('clf',LogisticRegression())]
-pipe = Pipeline(estimators)
-pipe.set_params(clf__C = 10)
-params = dict(pca__n_components = [2,5,10],clf__C = [0,1,10,100])
-params2 = dict(pca = [None,PCA(5),PCA(10)],clf = [SVC(),LogisticRegression()],clf__C = [0.1,10,100])
-grid_research = GridSearchCV(pipe,param_grid=params)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>externals.joblib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#第三个参数为压缩级别，0为不压缩，3为合适的压缩级别
-5 dump(grid_search, 'grid_search.dmp', compress=3)
-6 #从文件系统中加载数据到内存中
-7 grid_search = load('grid_search.dmp')</t>
+    <t>余弦相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn.metrics.pairwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosine_similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The advantage of using approximate explicit feature maps compared to the kernel trick, which makes use of feature maps implicitly, is that explicit mappings can be better suited for online learning and can significantly reduce the cost of learning with very large datasets. Standard kernelized SVMs do not scale well to large datasets, but using an approximate kernel map it is possible to use much more efficient linear SVMs. In particular, the combination of kernel map approximations with SGDClassifier can make non-linear learning on large datasets possible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算L2正则化的向量的点积，这种核函数对于计算以tf-idf向量表示的文档之间的相似度是一个通常的选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项式核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polynomial_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算两个向量的d次方的多项式核函数。 多项式核函数代表着两个向量之间的相似度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBF核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbf_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算计算两个向量之间的径向基函数核 (RBF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉普拉斯核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡方核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laplacian_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chi2_kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种径向基函数核的变体，已被证明在机器学习中运用到无噪声数据中是有用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计算机视觉应用中训练非线性支持向量机时，卡方核函数是一种非常流行的选择。 它能以 chi2_kernel 计算然后以参数 ``kernel=”precomputed”``传递到 sklearn.svm.SVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测目标(y)的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签二值化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 标签编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelBinarizer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelEncoder()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一个用来从多类别列表创建标签矩阵的工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一个可以用来将标签规范化的工具类，它可以将标签的编码值范围限定在[0,n_classes-1]。这在编写高效的Cython程序时是非常有用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程上常用的手段有计算皮尔逊系数和互信息系数，皮尔逊系数只能衡量线性相关性而互信息系数能够很好地度量各种相关性，但是计算相对复杂一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1正则方法具有稀疏解的特性，因此天然具备特征选择的特性，但是要注意，L1没有选到的特征不代表不重要，原因是两个具有高相关性的特征可能只保留了一个，如果要确定哪个特征重要应再通过L2正则方法交叉检验；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征创造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述众多方法均针对特征预处理或者特征选择而言，实际过程中，更重要的是通过raw数据创造新的特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找feature主要结合问题的domain knowledge，创造出新的特征后，然后跑model，比如random forest，跑完了你可能发现预测的并不理想，那就要再回头去试别的feature。过程是trial and error的循环模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actually the sucess of all Machine Learning algorithms depends on how you present the data
+Better feature means flexibility. Better feature means simpler models. Better feature means better results.
+Feature Engineering is the process of transforming raw data into features that better represent the underlying problem to the predictive models, resulting in improved model accuracy on unseen data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的实际工作中，对特征选择没有这么重视，我们目前常用的方式是：1、选择N多变量；2、然后扔到xgboost和Randomforest模型去跑一边，然后查看一下变量重要性排序；一般性选择用gini增益查看变量重要性排序；3、如果是数值型预测，也可以用xgboost加入lamda来进行变量的筛选；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核函数VS相似度VS内积VS映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在教科书中，似然常常被用作“概率”的同义词。但是在统计学中，二者有截然不同的用法。概率描述了已知参数时的随机变量的输出结果；似然则用来描述已知随机变量输出结果时，未知参数的可能取值。例如，对于“一枚正反对称的硬币上抛十次”这种事件，我们可以问硬币落地时十次都是正面向上的“概率”是多少；而对于“一枚硬币上抛十次，我们则可以问，这枚硬币正反面对称的“似然”程度是多少。
+统计学的观点始终是认为样本的出现是基于一个分布的。那么我们去假设这个分布为f，里面有参数theta。对于不同的theta，样本的分布不一样。f(x|θ)表示的就是在给定参数theta的情况下，x出现的可能性多大。L(θ|x)表示的是在给定样本x的时候，哪个参数theta使得x出现的可能性多大。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>极大似然估计提供了一种给定观察数据来评估模型参数的方法，即：“模型已定，参数未知，通过结果求模型参数”，例如模型符合正太分布，通过极大似然估计可以计算出正太分布的均值和方差，极大似然估计的一个重要假设就是所有的采样都是独立同分布的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">核函数和映射没有关系。核函数只是用来计算映射到高维空间之后的内积的一种简便方法。我们几乎可以认为（引用Caltech的课堂用语“We are safe but not certain”）原本在低维中线性不可分的数据集在足够高的维度中存在线性可分的超平面。这是由Mercer Theorem保证的，即只要核函数满足一定条件，那么映射空间一定存在。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常的思路是先找到映射函数，将低维度数据映射到高维度，然后再在高维度计算向量的内积，但是核函数的存在，使得可以跳过映射函数，即不知道映射函数是什么的情况下，用核函数表示高维度的向量内积(只要满足Mercer Theorem条件即可)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2166,26 +2633,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2196,11 +2648,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2357,10 +2827,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2399,170 +2870,233 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2736,9 +3270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>210896</xdr:colOff>
+      <xdr:colOff>210897</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>553424</xdr:rowOff>
+      <xdr:rowOff>553423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2771,6 +3305,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>626246</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>986023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA666042-C735-4E05-BE40-3A71D1EC65F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12326470" y="29874883"/>
+          <a:ext cx="5780952" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2786,8 +3364,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2841,13 +3419,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>193964</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>45028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>366177</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1559110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3183,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3231,52 +3809,52 @@
         <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>162</v>
+      <c r="D2" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="18" t="s">
-        <v>86</v>
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3285,18 +3863,18 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="18" t="s">
-        <v>87</v>
+      <c r="A4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="13"/>
@@ -3304,117 +3882,117 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>90</v>
+      <c r="A5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>91</v>
+        <v>399</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>28</v>
+      <c r="E6" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="17" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>95</v>
+        <v>402</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>192</v>
+        <v>403</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="17" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="9"/>
@@ -3425,169 +4003,173 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="17" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>417</v>
+      </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>223</v>
+    <row r="11" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="70"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>108</v>
+      <c r="E13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>410</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>110</v>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>29</v>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="25" t="s">
-        <v>168</v>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>172</v>
+        <v>412</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="3" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3630,43 +4212,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>136</v>
+      <c r="A1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>137</v>
+      <c r="D2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3678,247 +4260,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="65.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="D1" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C11" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="35"/>
-    </row>
-    <row r="11" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="171" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="35"/>
-    </row>
-    <row r="14" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="B15" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="37"/>
-    </row>
-    <row r="17" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="35"/>
-    </row>
-    <row r="18" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>225</v>
+      <c r="B21" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C32:C33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3941,85 +4668,85 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="74"/>
+    </row>
+    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4054,109 +4781,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="28" customWidth="1"/>
-    <col min="6" max="6" width="41.375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="43.375" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="15.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="26" customWidth="1"/>
+    <col min="6" max="6" width="41.375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="342" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>213</v>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4213,10 +4940,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -4236,56 +4963,56 @@
     </row>
     <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="67"/>
+        <v>132</v>
+      </c>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +5026,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4316,1114 +5043,1478 @@
     <col min="7" max="7" width="36" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="8" customWidth="1"/>
     <col min="9" max="9" width="97.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="86.375" style="8" customWidth="1"/>
     <col min="11" max="11" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="80"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="80"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="80"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="80"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="80"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="80"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="K8" s="77"/>
+    </row>
+    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="80"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="80"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="80"/>
+      <c r="B11" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="77"/>
+    </row>
+    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="80"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="77"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="81"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="77"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
+      <c r="B14" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="77"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="83"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="83"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="K17" s="77"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="83"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="77"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="83"/>
+      <c r="B19" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="77"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="83"/>
+      <c r="B20" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="77"/>
+    </row>
+    <row r="21" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="77"/>
+    </row>
+    <row r="22" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="78"/>
+    </row>
+    <row r="23" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="83"/>
+      <c r="B23" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="78"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="B24" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J26" s="56"/>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="82" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="83"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="65"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J29" s="61"/>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="65"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="J31" s="61"/>
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="J32" s="61"/>
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="65"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="J34" s="61"/>
+      <c r="K34" s="65"/>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="J35" s="61"/>
+      <c r="K35" s="65"/>
+    </row>
+    <row r="36" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="64"/>
+    </row>
+    <row r="37" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="D37" s="62"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J37" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="K37" s="64"/>
+    </row>
+    <row r="38" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="35"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F58" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E61" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="58" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+    </row>
+    <row r="76" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="76"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="B80" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="33"/>
+    </row>
+    <row r="81" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="K3" s="68"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="K5" s="68"/>
-    </row>
-    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="68"/>
-    </row>
-    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="K8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="68"/>
-    </row>
-    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="68"/>
-    </row>
-    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="68"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="68"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="68"/>
-    </row>
-    <row r="15" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="K15" s="68"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="J16" s="26" t="s">
+      <c r="B81" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" s="33"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+    </row>
+    <row r="86" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+    </row>
+    <row r="87" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="76"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+    </row>
+    <row r="88" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="76"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="K16" s="68"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="68"/>
-    </row>
-    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="68"/>
-    </row>
-    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="68"/>
-    </row>
-    <row r="20" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="68"/>
-    </row>
-    <row r="21" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="68"/>
-    </row>
-    <row r="22" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="68"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="C92" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="43" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="44" t="s">
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+    </row>
+    <row r="94" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" s="44" t="s">
+      <c r="E94" s="34" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="46"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="50" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="E55" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57" s="50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="C64" s="43"/>
-    </row>
-    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="43"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-    </row>
-    <row r="70" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-    </row>
-    <row r="71" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-    </row>
-    <row r="72" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-    </row>
-    <row r="78" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="K2:K22"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="I11:I12"/>
+  <mergeCells count="27">
+    <mergeCell ref="A86:C88"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="K2:K23"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A70:C72"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5449,35 +6540,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>232</v>
+      <c r="A2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据挖掘算法分类.xlsx
+++ b/数据挖掘算法分类.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991C696D-96F7-4603-87C9-3386CE7AD8CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="855" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8070" tabRatio="855" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本数据挖掘算法" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="机器学习理论" sheetId="15" r:id="rId14"/>
     <sheet name="机器学习发展方向" sheetId="11" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="823">
   <si>
     <t>是否监督</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2264,10 +2265,6 @@
   </si>
   <si>
     <t>判别式模型、生成式模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器学习索要实现的是基于有限训练样本集尽可能准确评估出后验概率P(c|x),大体上有两种策略，给定x，可以通过建模P(c|x)来预测x，这样得到的是判别式模型，也可以先对联合概率分布P(x,c)建模，然后再由此得到P(c|x),这样得到的是生成式模型，显然前面介绍的决策时，神经网络，支撑向量机等都是判断是模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4656,6 +4653,47 @@
   </si>
   <si>
     <t>注意：上述公式并不等同于贝叶斯推论，它是一个存在与贝叶斯推论之外的数据真理，在贝叶斯推论里它仅仅被用来连接先验概率和更新后的后验概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习的模型属于某个函数的集合，这个集合称之为假设空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计学习方法三要素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型的假设空间，模型选择准则，模型的学习方法简称为模型，策略和算法，这是统计学习方法的三要素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当样本容量足够大的时候，经验风险最小化能够保证良好的学习效果，比如极大似然估计就是经验风险最小化的一个例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构风险是为了样本容量过小，容易出现过拟合的情况下提出的，结构风险最小化等价于正则化，结构风险在经验风险的基础上加上表示模型复杂度的正则化项，贝叶斯估计中的最大后验概率就是结构风险最小化的一个例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习索要实现的是基于有限训练样本集尽可能准确评估出后验概率P(c|x),大体上有两种策略，给定x，可以通过建模P(c|x)来预测x，这样得到的是判别式模型，也可以先对联合概率分布P(x,c)建模，然后再由此得到P(c|x),这样得到的是生成式模型，显然前面介绍的决策时，神经网络，支撑向量机等都是判断是模型
+生成方法可以还原出联合概率分布P(X,Y)，而判别式方法则不能，生成方法学习收敛速度更快，当样本容量增加时，学到的模型可以更快地收敛于真实模型，当存在隐变量时，仍然可以用生成方法学习，此时判别方法就不能用。判别方法往往学习准确率更高，直接学习f(x)可以对数据进行各种程度的抽象，定义并使用特征，可以简化学习问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1为精准率和召回率的调和均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5003,7 +5041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5384,6 +5422,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5828,8 +5869,8 @@
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390922</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183613</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>986023</xdr:rowOff>
     </xdr:to>
@@ -5960,8 +6001,8 @@
       <xdr:rowOff>1703295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289112</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1577789</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>2814359</xdr:rowOff>
     </xdr:to>
@@ -6021,8 +6062,8 @@
       <xdr:rowOff>324970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>517152</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1161491</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>666189</xdr:rowOff>
     </xdr:to>
@@ -7425,26 +7466,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="83"/>
-    <col min="3" max="3" width="19.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" style="83" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="83"/>
-    <col min="5" max="5" width="23.875" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="93" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.46484375" style="93" customWidth="1"/>
     <col min="7" max="7" width="47" style="93" customWidth="1"/>
     <col min="8" max="8" width="45" style="93" customWidth="1"/>
-    <col min="9" max="9" width="75.75" style="83" customWidth="1"/>
-    <col min="10" max="10" width="55.5" style="83" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.73046875" style="83" customWidth="1"/>
+    <col min="10" max="10" width="55.46484375" style="83" customWidth="1"/>
+    <col min="11" max="11" width="29.59765625" style="83" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -7479,17 +7520,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+    <row r="2" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="140" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="84" t="s">
@@ -7512,11 +7553,11 @@
       </c>
       <c r="K2" s="86"/>
     </row>
-    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="140"/>
+    <row r="3" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="138"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="84" t="s">
         <v>66</v>
       </c>
@@ -7529,11 +7570,11 @@
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
     </row>
-    <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="140"/>
+    <row r="4" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="138"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="84" t="s">
         <v>67</v>
       </c>
@@ -7541,18 +7582,18 @@
         <v>68</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H4" s="85"/>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
     </row>
-    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="141"/>
+    <row r="5" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="138"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="84" t="s">
         <v>491</v>
       </c>
@@ -7565,10 +7606,10 @@
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
     </row>
-    <row r="6" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="137"/>
+    <row r="6" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="138"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="88" t="s">
         <v>72</v>
       </c>
@@ -7592,20 +7633,20 @@
       </c>
       <c r="K6" s="86"/>
     </row>
-    <row r="7" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="136" t="s">
+    <row r="7" spans="1:11" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="138"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="137" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G7" s="85" t="s">
         <v>357</v>
@@ -7617,15 +7658,15 @@
         <v>26</v>
       </c>
       <c r="J7" s="131" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K7" s="86"/>
     </row>
-    <row r="8" spans="1:11" s="90" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+    <row r="8" spans="1:11" s="90" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="138"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="88" t="s">
         <v>9</v>
       </c>
@@ -7636,21 +7677,21 @@
         <v>71</v>
       </c>
       <c r="H8" s="85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I8" s="89" t="s">
         <v>359</v>
       </c>
       <c r="J8" s="131" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K8" s="86"/>
     </row>
-    <row r="9" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="137"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
+    <row r="9" spans="1:11" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="138"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="88" t="s">
         <v>14</v>
       </c>
@@ -7664,20 +7705,20 @@
         <v>53</v>
       </c>
       <c r="I9" s="85" t="s">
+        <v>675</v>
+      </c>
+      <c r="J9" s="85" t="s">
         <v>676</v>
       </c>
-      <c r="J9" s="85" t="s">
-        <v>677</v>
-      </c>
       <c r="K9" s="85" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="137"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="138"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="88" t="s">
         <v>12</v>
       </c>
@@ -7688,11 +7729,11 @@
       <c r="J10" s="86"/>
       <c r="K10" s="85"/>
     </row>
-    <row r="11" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="137"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
+    <row r="11" spans="1:11" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="138"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="88" t="s">
         <v>11</v>
       </c>
@@ -7709,25 +7750,25 @@
       </c>
       <c r="K11" s="86"/>
     </row>
-    <row r="12" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A12" s="137"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
+    <row r="12" spans="1:11" ht="222" x14ac:dyDescent="0.4">
+      <c r="A12" s="138"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="88" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H12" s="85" t="s">
         <v>493</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J12" s="85" t="s">
         <v>489</v>
@@ -7736,11 +7777,11 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="138"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
+    <row r="13" spans="1:11" ht="305.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="139"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="88" t="s">
         <v>13</v>
       </c>
@@ -7754,24 +7795,24 @@
         <v>56</v>
       </c>
       <c r="I13" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J13" s="85" t="s">
         <v>363</v>
       </c>
       <c r="K13" s="86"/>
     </row>
-    <row r="14" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A14" s="133" t="s">
+    <row r="14" spans="1:11" ht="235.9" x14ac:dyDescent="0.4">
+      <c r="A14" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="135" t="s">
-        <v>750</v>
-      </c>
-      <c r="D14" s="133" t="s">
+      <c r="C14" s="136" t="s">
+        <v>749</v>
+      </c>
+      <c r="D14" s="134" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="88" t="s">
@@ -7792,11 +7833,11 @@
       </c>
       <c r="K14" s="86"/>
     </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="133"/>
+    <row r="15" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="88" t="s">
         <v>82</v>
       </c>
@@ -7815,16 +7856,16 @@
       </c>
       <c r="K15" s="86"/>
     </row>
-    <row r="16" spans="1:11" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="133"/>
+    <row r="16" spans="1:11" ht="194.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="134"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G16" s="85" t="s">
         <v>75</v>
@@ -7838,13 +7879,13 @@
       </c>
       <c r="K16" s="86"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="133"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="67" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F17" s="91"/>
       <c r="G17" s="85"/>
@@ -7853,13 +7894,13 @@
       <c r="J17" s="85"/>
       <c r="K17" s="86"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="133"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="67" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F18" s="91"/>
       <c r="G18" s="85"/>
@@ -7868,13 +7909,13 @@
       <c r="J18" s="85"/>
       <c r="K18" s="86"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="133"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="129" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F19" s="126"/>
       <c r="G19" s="126"/>
@@ -7883,23 +7924,23 @@
       <c r="J19" s="126"/>
       <c r="K19" s="127"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="133"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="130" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
       <c r="H20" s="83"/>
     </row>
-    <row r="21" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="133"/>
+    <row r="21" spans="1:11" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="88" t="s">
         <v>132</v>
       </c>
@@ -7918,7 +7959,7 @@
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="124"/>
       <c r="B22" s="125"/>
       <c r="C22" s="125"/>
@@ -7931,7 +7972,7 @@
       <c r="J22" s="127"/>
       <c r="K22" s="127"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="124"/>
       <c r="B23" s="125"/>
       <c r="C23" s="125"/>
@@ -7944,7 +7985,7 @@
       <c r="J23" s="127"/>
       <c r="K23" s="127"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="124"/>
       <c r="B24" s="125"/>
       <c r="C24" s="125"/>
@@ -7957,7 +7998,7 @@
       <c r="J24" s="127"/>
       <c r="K24" s="127"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E25" s="92" t="s">
         <v>487</v>
       </c>
@@ -7965,7 +8006,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F28" s="93" t="s">
         <v>367</v>
       </c>
@@ -7998,179 +8039,179 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="77" customWidth="1"/>
-    <col min="3" max="3" width="82.375" style="77" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="77" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.46484375" style="77" customWidth="1"/>
+    <col min="3" max="3" width="82.3984375" style="77" customWidth="1"/>
+    <col min="4" max="4" width="27.46484375" style="77" customWidth="1"/>
     <col min="5" max="16384" width="9" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>625</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="D1" s="96" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="78" t="s">
+        <v>626</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>688</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="78" t="s">
+        <v>667</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="78" t="s">
         <v>670</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>626</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
-        <v>627</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>689</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
-        <v>668</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>690</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="B4" s="78" t="s">
         <v>671</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="78"/>
       <c r="B5" s="78"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="78"/>
       <c r="B6" s="78"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
       <c r="B8" s="78"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="78"/>
       <c r="B9" s="78"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="78"/>
       <c r="B10" s="78"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
       <c r="B11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="76" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A13" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B13" s="79" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A14" s="78" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
-        <v>629</v>
-      </c>
-      <c r="B13" s="79" t="s">
+      <c r="B14" s="79" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="78" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
-        <v>631</v>
-      </c>
-      <c r="B14" s="79" t="s">
+      <c r="B15" s="79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="78" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="79" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
-        <v>633</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+    <row r="17" spans="1:3" ht="111" x14ac:dyDescent="0.4">
+      <c r="A17" s="78" t="s">
         <v>635</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B17" s="79" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+    <row r="18" spans="1:3" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="78" t="s">
         <v>636</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B18" s="79" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+    <row r="19" spans="1:3" ht="69.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="78" t="s">
         <v>637</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B19" s="79" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
-        <v>638</v>
-      </c>
-      <c r="B19" s="79" t="s">
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="78" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="B20" s="70" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="78" t="s">
         <v>644</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>684</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
-        <v>645</v>
-      </c>
       <c r="B21" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" s="69" t="s">
         <v>693</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A22" s="69" t="s">
+        <v>690</v>
+      </c>
+      <c r="B22" s="97" t="s">
         <v>691</v>
-      </c>
-      <c r="B22" s="97" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -8188,75 +8229,75 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="57.75" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+    <col min="2" max="2" width="57.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>681</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>682</v>
       </c>
       <c r="C1" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>700</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>703</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>701</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>704</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="75" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>700</v>
-      </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8275,170 +8316,170 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="100" customWidth="1"/>
-    <col min="2" max="2" width="67.5" style="100" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="100" customWidth="1"/>
+    <col min="1" max="1" width="30.73046875" style="100" customWidth="1"/>
+    <col min="2" max="2" width="67.46484375" style="100" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" style="100" customWidth="1"/>
     <col min="4" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="99" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="101" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="B2" s="102" t="s">
         <v>648</v>
       </c>
-      <c r="B2" s="102" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A3" s="101" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>655</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="101" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" s="102" t="s">
         <v>714</v>
       </c>
-      <c r="B4" s="102" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A5" s="101" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="101" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="101" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
-        <v>653</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
-        <v>652</v>
-      </c>
-      <c r="B6" s="102" t="s">
+      <c r="B7" s="102" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="101" t="s">
+        <v>717</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A9" s="68" t="s">
+        <v>783</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="68" t="s">
+        <v>784</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="101" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
-        <v>716</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
-        <v>718</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="B9" s="69" t="s">
+      <c r="B11" s="132" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+    <row r="12" spans="1:3" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A12" s="69" t="s">
+        <v>795</v>
+      </c>
+      <c r="B12" s="69" t="s">
         <v>785</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="C12" s="70" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="69" t="s">
+        <v>796</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A14" s="101" t="s">
         <v>721</v>
       </c>
-      <c r="B11" s="132" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
-        <v>796</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>786</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
-        <v>797</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>798</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="101" t="s">
+      <c r="B14" s="102" t="s">
         <v>722</v>
       </c>
-      <c r="B14" s="102" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="101" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="101" t="s">
+      <c r="B15" s="101" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="101" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A16" s="101" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="101" t="s">
+      <c r="B16" s="102" t="s">
         <v>726</v>
       </c>
-      <c r="B16" s="102" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="68" t="s">
+        <v>776</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="68" t="s">
         <v>777</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B18" s="69" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
-        <v>778</v>
-      </c>
-      <c r="B18" s="69" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="68" t="s">
+        <v>781</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>780</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
-        <v>782</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -8456,17 +8497,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="23.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="23.73046875" style="5" customWidth="1"/>
     <col min="5" max="5" width="40" style="5" customWidth="1"/>
     <col min="6" max="6" width="89" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.46484375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>462</v>
       </c>
@@ -8489,7 +8530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>460</v>
       </c>
@@ -8500,7 +8541,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>472</v>
       </c>
@@ -8514,7 +8555,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>471</v>
       </c>
@@ -8525,12 +8566,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>476</v>
       </c>
@@ -8550,35 +8591,35 @@
       <selection activeCell="D12" activeCellId="1" sqref="B4 D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="58.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="58.86328125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>807</v>
       </c>
-      <c r="B1" s="74" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="114" t="s">
         <v>809</v>
       </c>
-      <c r="B2" s="114" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -8591,128 +8632,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="25.46484375" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.86328125" style="58" customWidth="1"/>
     <col min="3" max="5" width="9" style="58"/>
-    <col min="6" max="6" width="27.875" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.86328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" style="58" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="B2" s="60" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A3" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+      <c r="A4" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>522</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
-        <v>574</v>
-      </c>
-      <c r="B5" s="60" t="s">
+      <c r="B8" s="60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="59" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="59" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" ht="388.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
-        <v>576</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>566</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="B10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="F11" s="63" t="s">
         <v>577</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>603</v>
-      </c>
-      <c r="F11" s="63" t="s">
+      <c r="G11" s="63" t="s">
         <v>578</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="H11" s="63" t="s">
         <v>579</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="I11" s="63" t="s">
         <v>580</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="J11" s="63" t="s">
         <v>581</v>
       </c>
-      <c r="J11" s="63" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="F12" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G12" s="63">
         <v>2012</v>
@@ -8727,11 +8768,11 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
       <c r="F13" s="63" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G13" s="63">
         <v>8</v>
@@ -8746,11 +8787,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="61"/>
       <c r="B14" s="61"/>
       <c r="F14" s="63" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G14" s="64">
         <v>0.16400000000000001</v>
@@ -8765,49 +8806,49 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="F15" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="G15" s="63" t="s">
-        <v>587</v>
-      </c>
       <c r="H15" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="F16" s="63" t="s">
+        <v>587</v>
+      </c>
+      <c r="G16" s="63" t="s">
         <v>588</v>
       </c>
-      <c r="G16" s="63" t="s">
-        <v>589</v>
-      </c>
       <c r="H16" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="F17" s="63" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G17" s="63">
         <v>5</v>
@@ -8822,30 +8863,30 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="61"/>
       <c r="B18" s="61"/>
       <c r="F18" s="63" t="s">
+        <v>590</v>
+      </c>
+      <c r="G18" s="63" t="s">
         <v>591</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>592</v>
       </c>
       <c r="H18" s="63">
         <v>3</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="61"/>
       <c r="B19" s="61"/>
       <c r="F19" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G19" s="63">
         <v>3</v>
@@ -8860,11 +8901,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
       <c r="F20" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G20" s="65">
         <v>409640961000</v>
@@ -8879,88 +8920,88 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="61"/>
       <c r="B21" s="61"/>
       <c r="F21" s="63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="61"/>
       <c r="B22" s="61"/>
       <c r="F22" s="63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="F23" s="63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I23" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="61"/>
       <c r="B24" s="61"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="61"/>
       <c r="B25" s="61"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="61"/>
       <c r="B26" s="61"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="61"/>
       <c r="B27" s="61"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
     </row>
@@ -8979,29 +9020,29 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="5" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="68.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="87.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="53.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="52.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68.46484375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="87.73046875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="53.1328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="52.265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.86328125" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>102</v>
@@ -9019,15 +9060,15 @@
         <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="399" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="388.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="143" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>665</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>666</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>24</v>
@@ -9039,25 +9080,25 @@
         <v>23</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I2" s="72" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="171" x14ac:dyDescent="0.2">
-      <c r="A3" s="143"/>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="144"/>
       <c r="B3" s="71" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>658</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>659</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -9065,12 +9106,12 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
       <c r="I3" s="72" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -9085,23 +9126,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="44" customWidth="1"/>
-    <col min="2" max="2" width="103.125" style="56" customWidth="1"/>
+    <col min="1" max="1" width="27.73046875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="103.1328125" style="56" customWidth="1"/>
     <col min="3" max="3" width="87" style="44" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="44" customWidth="1"/>
+    <col min="4" max="4" width="39.265625" style="44" customWidth="1"/>
     <col min="5" max="5" width="21" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="44"/>
+    <col min="6" max="8" width="9" style="44"/>
+    <col min="9" max="9" width="29.9296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
@@ -9116,7 +9159,7 @@
       </c>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>28</v>
       </c>
@@ -9127,7 +9170,7 @@
       <c r="D2" s="45"/>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="45" t="s">
         <v>98</v>
       </c>
@@ -9138,85 +9181,85 @@
       <c r="D3" s="45"/>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>611</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>612</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="43"/>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="67" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>605</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>606</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="43"/>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A7" s="67" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A8" s="67" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="43"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9" s="67" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="66" t="s">
         <v>613</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>614</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="43"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="67" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="66" t="s">
         <v>748</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>749</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="43"/>
     </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
         <v>113</v>
       </c>
@@ -9227,7 +9270,7 @@
       <c r="D11" s="45"/>
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="45" t="s">
         <v>115</v>
       </c>
@@ -9238,7 +9281,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
         <v>117</v>
       </c>
@@ -9249,7 +9292,7 @@
       <c r="D13" s="45"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
         <v>119</v>
       </c>
@@ -9260,7 +9303,7 @@
       <c r="D14" s="45"/>
       <c r="E14" s="43"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="46" t="s">
         <v>121</v>
       </c>
@@ -9271,12 +9314,12 @@
       <c r="D15" s="45"/>
       <c r="E15" s="43"/>
     </row>
-    <row r="16" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>124</v>
@@ -9284,7 +9327,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="43"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
         <v>125</v>
       </c>
@@ -9295,7 +9338,7 @@
       <c r="D17" s="45"/>
       <c r="E17" s="43"/>
     </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A18" s="46" t="s">
         <v>127</v>
       </c>
@@ -9306,25 +9349,28 @@
       <c r="D18" s="45"/>
       <c r="E18" s="43"/>
     </row>
-    <row r="19" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+      <c r="I19" s="68" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
         <v>333</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>341</v>
@@ -9334,20 +9380,20 @@
       </c>
       <c r="E20" s="43"/>
     </row>
-    <row r="21" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="208.15" x14ac:dyDescent="0.4">
       <c r="A21" s="45" t="s">
         <v>334</v>
       </c>
       <c r="B21" s="66" t="s">
+        <v>649</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>650</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>651</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="43"/>
     </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A22" s="45" t="s">
         <v>335</v>
       </c>
@@ -9358,18 +9404,18 @@
       <c r="D22" s="45"/>
       <c r="E22" s="43"/>
     </row>
-    <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="45"/>
       <c r="E23" s="43"/>
     </row>
-    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A24" s="46" t="s">
         <v>142</v>
       </c>
@@ -9380,7 +9426,7 @@
       <c r="D24" s="45"/>
       <c r="E24" s="43"/>
     </row>
-    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
         <v>138</v>
       </c>
@@ -9391,18 +9437,18 @@
       <c r="D25" s="45"/>
       <c r="E25" s="43"/>
     </row>
-    <row r="26" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A26" s="47" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
       <c r="E26" s="43"/>
     </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
         <v>143</v>
       </c>
@@ -9413,7 +9459,7 @@
       <c r="D27" s="45"/>
       <c r="E27" s="43"/>
     </row>
-    <row r="28" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
         <v>145</v>
       </c>
@@ -9424,18 +9470,18 @@
       <c r="D28" s="45"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
       <c r="E29" s="43"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
         <v>165</v>
       </c>
@@ -9446,18 +9492,18 @@
       <c r="D30" s="45"/>
       <c r="E30" s="43"/>
     </row>
-    <row r="31" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
         <v>167</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="43"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
         <v>168</v>
       </c>
@@ -9468,7 +9514,7 @@
       <c r="D32" s="45"/>
       <c r="E32" s="43"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
         <v>170</v>
       </c>
@@ -9479,7 +9525,7 @@
       <c r="D33" s="45"/>
       <c r="E33" s="43"/>
     </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A34" s="45" t="s">
         <v>337</v>
       </c>
@@ -9490,7 +9536,7 @@
       <c r="D34" s="45"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A35" s="46" t="s">
         <v>339</v>
       </c>
@@ -9503,12 +9549,12 @@
       <c r="D35" s="45"/>
       <c r="E35" s="43"/>
     </row>
-    <row r="36" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A36" s="45" t="s">
         <v>345</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C36" s="46" t="s">
         <v>346</v>
@@ -9516,48 +9562,48 @@
       <c r="D36" s="45"/>
       <c r="E36" s="43"/>
     </row>
-    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A37" s="45" t="s">
         <v>347</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="145" t="s">
         <v>350</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="43"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="50" t="s">
         <v>348</v>
       </c>
       <c r="B38" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C38" s="145"/>
+      <c r="C38" s="146"/>
       <c r="D38" s="50"/>
       <c r="E38" s="43"/>
     </row>
-    <row r="39" spans="1:5" ht="342" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="333" x14ac:dyDescent="0.4">
       <c r="A39" s="46" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C39" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="D39" s="46" t="s">
         <v>531</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>532</v>
       </c>
       <c r="E39" s="53" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A40" s="47" t="s">
         <v>438</v>
       </c>
@@ -9570,7 +9616,7 @@
       </c>
       <c r="E40" s="45"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="47" t="s">
         <v>463</v>
       </c>
@@ -9581,7 +9627,7 @@
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="47" t="s">
         <v>464</v>
       </c>
@@ -9594,7 +9640,7 @@
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
     </row>
-    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A43" s="47" t="s">
         <v>465</v>
       </c>
@@ -9605,270 +9651,302 @@
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
     </row>
-    <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A44" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>495</v>
+      <c r="B44" s="133" t="s">
+        <v>821</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
     </row>
-    <row r="45" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="111" x14ac:dyDescent="0.4">
       <c r="A45" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B45" s="69" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
     </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="B46" s="55" t="s">
         <v>501</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>502</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="B47" s="55" t="s">
         <v>498</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>499</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
     </row>
-    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A48" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="95" t="s">
+        <v>684</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>685</v>
+      </c>
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>705</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="147" t="s">
+        <v>708</v>
+      </c>
+      <c r="E49" s="43"/>
+    </row>
+    <row r="50" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A50" s="98" t="s">
+        <v>707</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="D50" s="147"/>
+      <c r="E50" s="43"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="54" t="s">
         <v>507</v>
-      </c>
-      <c r="B48" s="95" t="s">
-        <v>685</v>
-      </c>
-      <c r="C48" s="69" t="s">
-        <v>686</v>
-      </c>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="98" t="s">
-        <v>707</v>
-      </c>
-      <c r="B49" s="95" t="s">
-        <v>706</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="146" t="s">
-        <v>709</v>
-      </c>
-      <c r="E49" s="43"/>
-    </row>
-    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="B50" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="C50" s="69" t="s">
-        <v>711</v>
-      </c>
-      <c r="D50" s="146"/>
-      <c r="E50" s="43"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
-        <v>508</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A52" s="54"/>
       <c r="B52" s="55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A53" s="54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
     </row>
-    <row r="54" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A54" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" s="55" t="s">
         <v>519</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>520</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A57" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="B57" s="56" t="s">
         <v>510</v>
       </c>
-      <c r="B57" s="56" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="54" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="54" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
+    <row r="60" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A60" s="54" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
-        <v>523</v>
-      </c>
       <c r="B60" s="70" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A63" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="B63" s="69" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>541</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="B63" s="69" t="s">
+      <c r="C63" s="68" t="s">
         <v>619</v>
       </c>
-      <c r="C63" s="68" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A64" s="68" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="68" t="s">
+      <c r="B64" s="69" t="s">
         <v>621</v>
       </c>
-      <c r="B64" s="69" t="s">
-        <v>622</v>
-      </c>
       <c r="C64" s="68"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="68" t="s">
+        <v>614</v>
+      </c>
+      <c r="B65" s="69" t="s">
         <v>615</v>
       </c>
-      <c r="B65" s="69" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A67" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="B67" s="55" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A68" s="43" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
+      <c r="B68" s="55" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A69" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B69" s="55" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A70" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="B70" s="55" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
-        <v>536</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A70" s="43" t="s">
-        <v>537</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="68" t="s">
+        <v>762</v>
+      </c>
+      <c r="B71" s="70" t="s">
         <v>763</v>
       </c>
-      <c r="B71" s="70" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A72" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="B72" s="70" t="s">
         <v>800</v>
       </c>
-      <c r="B72" s="70" t="s">
-        <v>801</v>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="68" t="s">
+        <v>813</v>
+      </c>
+      <c r="B73" s="70" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="B74" s="70" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="68" t="s">
+        <v>817</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="68" t="s">
+        <v>819</v>
+      </c>
+      <c r="B76" s="70" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -9894,16 +9972,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="96.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1328125" customWidth="1"/>
+    <col min="4" max="4" width="96.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -9920,7 +9998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -9933,11 +10011,11 @@
       <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="148" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -9950,9 +10028,9 @@
       <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="147"/>
-    </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E3" s="148"/>
+    </row>
+    <row r="4" spans="1:5" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -9963,9 +10041,9 @@
         <v>46</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="147"/>
-    </row>
-    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="E4" s="148"/>
+    </row>
+    <row r="5" spans="1:5" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -9974,31 +10052,31 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="147"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="148"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -10018,23 +10096,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="108" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="108" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="108" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" style="108" customWidth="1"/>
+    <col min="2" max="2" width="33.46484375" style="108" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="108" customWidth="1"/>
     <col min="4" max="4" width="91" style="108" customWidth="1"/>
     <col min="5" max="5" width="39" style="113" customWidth="1"/>
-    <col min="6" max="6" width="41.375" style="113" customWidth="1"/>
-    <col min="7" max="7" width="76.875" style="108" customWidth="1"/>
+    <col min="6" max="6" width="41.3984375" style="113" customWidth="1"/>
+    <col min="7" max="7" width="76.86328125" style="108" customWidth="1"/>
     <col min="8" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="106" t="s">
         <v>59</v>
       </c>
@@ -10057,124 +10135,124 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A2" s="109" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>512</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>513</v>
       </c>
       <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
       <c r="G2" s="110" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="235.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="151" t="s">
-        <v>728</v>
+      <c r="B3" s="152" t="s">
+        <v>727</v>
       </c>
       <c r="C3" s="109" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="110" t="s">
         <v>136</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G3" s="110" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="149"/>
-      <c r="B4" s="152"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="137.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="150"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="110" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>738</v>
+      </c>
+      <c r="E4" s="110" t="s">
         <v>730</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>739</v>
-      </c>
-      <c r="E4" s="110" t="s">
-        <v>731</v>
       </c>
       <c r="F4" s="110"/>
       <c r="G4" s="110" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="151"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="110" t="s">
+        <v>728</v>
+      </c>
+      <c r="D5" s="110" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="150"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="110" t="s">
-        <v>729</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>736</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
     </row>
-    <row r="6" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="208.15" x14ac:dyDescent="0.4">
       <c r="A6" s="110" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="110" t="s">
         <v>514</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>515</v>
       </c>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F6" s="110"/>
       <c r="G6" s="110" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="180.4" x14ac:dyDescent="0.4">
       <c r="A7" s="109" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="109"/>
       <c r="D7" s="110" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E7" s="110" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F7" s="110"/>
       <c r="G7" s="110" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A8" s="115" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B8" s="111"/>
       <c r="C8" s="111"/>
       <c r="D8" s="116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
       <c r="G8" s="111"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="111"/>
       <c r="B9" s="111"/>
       <c r="C9" s="111"/>
@@ -10183,7 +10261,7 @@
       <c r="F9" s="112"/>
       <c r="G9" s="111"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="111"/>
       <c r="B10" s="111"/>
       <c r="C10" s="111"/>
@@ -10192,12 +10270,12 @@
       <c r="F10" s="112"/>
       <c r="G10" s="111"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
-        <v>746</v>
-      </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="155" t="s">
+        <v>745</v>
+      </c>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10219,20 +10297,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="63.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.1328125" style="5" customWidth="1"/>
     <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="22.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
@@ -10256,9 +10334,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
-        <v>775</v>
+    <row r="2" spans="1:8" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="157" t="s">
+        <v>774</v>
       </c>
       <c r="B2" s="105" t="s">
         <v>90</v>
@@ -10275,13 +10353,13 @@
       <c r="F2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="157" t="s">
         <v>112</v>
       </c>
       <c r="H2" s="105"/>
     </row>
-    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
+    <row r="3" spans="1:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="157"/>
       <c r="B3" s="105" t="s">
         <v>91</v>
       </c>
@@ -10293,15 +10371,15 @@
       </c>
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
-      <c r="G3" s="156"/>
+      <c r="G3" s="157"/>
       <c r="H3" s="105"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="105" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>89</v>
@@ -10312,7 +10390,7 @@
       <c r="G4" s="72"/>
       <c r="H4" s="105"/>
     </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A5" s="105"/>
       <c r="B5" s="105" t="s">
         <v>93</v>
@@ -10328,7 +10406,7 @@
       <c r="G5" s="105"/>
       <c r="H5" s="105"/>
     </row>
-    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A6" s="105"/>
       <c r="B6" s="105" t="s">
         <v>95</v>
@@ -10362,22 +10440,22 @@
       <selection activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.46484375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="42.265625" style="5" customWidth="1"/>
     <col min="4" max="4" width="40" style="5" customWidth="1"/>
     <col min="5" max="5" width="41" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.265625" style="5" customWidth="1"/>
     <col min="7" max="7" width="36" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="5" customWidth="1"/>
-    <col min="9" max="9" width="97.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="86.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="49.25" customWidth="1"/>
+    <col min="9" max="9" width="97.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86.3984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="49.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>252</v>
       </c>
@@ -10412,14 +10490,14 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+    <row r="2" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="160" t="s">
         <v>233</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -10443,14 +10521,14 @@
       <c r="J2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="157" t="s">
+      <c r="K2" s="158" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="160"/>
+    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="161"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="161"/>
       <c r="D3" s="26" t="s">
         <v>243</v>
       </c>
@@ -10472,13 +10550,13 @@
       <c r="J3" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="K3" s="157"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="166" t="s">
+      <c r="K3" s="158"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="161"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="167" t="s">
         <v>151</v>
       </c>
       <c r="E4" s="31" t="s">
@@ -10499,13 +10577,13 @@
       <c r="J4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="157"/>
-    </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160"/>
+      <c r="K4" s="158"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="161"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="167"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="31" t="s">
         <v>380</v>
       </c>
@@ -10522,10 +10600,10 @@
         <v>382</v>
       </c>
       <c r="J5" s="25"/>
-      <c r="K5" s="157"/>
-    </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="160"/>
+      <c r="K5" s="158"/>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="161"/>
       <c r="B6" s="27"/>
       <c r="C6" s="6"/>
       <c r="D6" s="26" t="s">
@@ -10549,10 +10627,10 @@
       <c r="J6" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="K6" s="157"/>
-    </row>
-    <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="160"/>
+      <c r="K6" s="158"/>
+    </row>
+    <row r="7" spans="1:12" ht="111" x14ac:dyDescent="0.4">
+      <c r="A7" s="161"/>
       <c r="B7" s="27"/>
       <c r="C7" s="6"/>
       <c r="D7" s="26" t="s">
@@ -10576,10 +10654,10 @@
       <c r="J7" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="K7" s="157"/>
-    </row>
-    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="160"/>
+      <c r="K7" s="158"/>
+    </row>
+    <row r="8" spans="1:12" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="161"/>
       <c r="B8" s="27"/>
       <c r="C8" s="6"/>
       <c r="D8" s="26" t="s">
@@ -10603,10 +10681,10 @@
       <c r="J8" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="K8" s="157"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
+      <c r="K8" s="158"/>
+    </row>
+    <row r="9" spans="1:12" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="161"/>
       <c r="B9" s="27"/>
       <c r="C9" s="6"/>
       <c r="D9" s="26" t="s">
@@ -10630,10 +10708,10 @@
       <c r="J9" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="K9" s="157"/>
-    </row>
-    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
+      <c r="K9" s="158"/>
+    </row>
+    <row r="10" spans="1:12" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="161"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="26" t="s">
@@ -10647,15 +10725,15 @@
         <v>190</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="157"/>
+      <c r="K10" s="158"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="163" t="s">
+    <row r="11" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="161"/>
+      <c r="B11" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="160" t="s">
         <v>158</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -10669,12 +10747,12 @@
         <v>429</v>
       </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="157"/>
-    </row>
-    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="160"/>
+      <c r="K11" s="158"/>
+    </row>
+    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="161"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="26" t="s">
         <v>160</v>
       </c>
@@ -10690,16 +10768,16 @@
       <c r="H12" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="159" t="s">
+      <c r="I12" s="160" t="s">
         <v>162</v>
       </c>
       <c r="J12" s="28"/>
-      <c r="K12" s="157"/>
-    </row>
-    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="161"/>
+      <c r="K12" s="158"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="161"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="26" t="s">
         <v>161</v>
       </c>
@@ -10715,12 +10793,12 @@
       <c r="H13" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="161"/>
+      <c r="I13" s="162"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="157"/>
-    </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
+      <c r="K13" s="158"/>
+    </row>
+    <row r="14" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="162"/>
       <c r="B14" s="28" t="s">
         <v>163</v>
       </c>
@@ -10736,16 +10814,16 @@
         <v>369</v>
       </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="157"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="159" t="s">
-        <v>806</v>
-      </c>
-      <c r="B15" s="162" t="s">
+      <c r="K14" s="158"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="160" t="s">
+        <v>805</v>
+      </c>
+      <c r="B15" s="163" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="160" t="s">
         <v>281</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -10765,12 +10843,12 @@
         <v>259</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="157"/>
-    </row>
-    <row r="16" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="160"/>
+      <c r="K15" s="158"/>
+    </row>
+    <row r="16" spans="1:12" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A16" s="161"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="26" t="s">
         <v>262</v>
       </c>
@@ -10790,12 +10868,12 @@
       <c r="J16" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="K16" s="157"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="160"/>
+      <c r="K16" s="158"/>
+    </row>
+    <row r="17" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="26" t="s">
         <v>263</v>
       </c>
@@ -10815,12 +10893,12 @@
       <c r="J17" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="157"/>
-    </row>
-    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="161"/>
+      <c r="K17" s="158"/>
+    </row>
+    <row r="18" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="161"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="26" t="s">
         <v>264</v>
       </c>
@@ -10838,10 +10916,10 @@
         <v>428</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="157"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
+      <c r="K18" s="158"/>
+    </row>
+    <row r="19" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="161"/>
       <c r="B19" s="28" t="s">
         <v>265</v>
       </c>
@@ -10865,18 +10943,18 @@
         <v>279</v>
       </c>
       <c r="J19" s="28"/>
-      <c r="K19" s="157"/>
-    </row>
-    <row r="20" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
-      <c r="B20" s="163" t="s">
+      <c r="K19" s="158"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="161"/>
+      <c r="B20" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="160" t="s">
+        <v>802</v>
+      </c>
+      <c r="D20" s="104" t="s">
         <v>803</v>
-      </c>
-      <c r="D20" s="104" t="s">
-        <v>804</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>283</v>
@@ -10892,12 +10970,12 @@
         <v>285</v>
       </c>
       <c r="J20" s="28"/>
-      <c r="K20" s="157"/>
-    </row>
-    <row r="21" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="161"/>
+      <c r="K20" s="158"/>
+    </row>
+    <row r="21" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="162"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="28" t="s">
         <v>268</v>
       </c>
@@ -10913,16 +10991,16 @@
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="157"/>
-    </row>
-    <row r="22" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="163" t="s">
-        <v>805</v>
+      <c r="K21" s="158"/>
+    </row>
+    <row r="22" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="164" t="s">
+        <v>804</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="170" t="s">
         <v>288</v>
       </c>
       <c r="D22" s="29"/>
@@ -10938,14 +11016,14 @@
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="158"/>
-    </row>
-    <row r="23" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="165"/>
+      <c r="K22" s="159"/>
+    </row>
+    <row r="23" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="166"/>
       <c r="B23" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="169"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="25" t="s">
         <v>295</v>
       </c>
@@ -10961,14 +11039,14 @@
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="158"/>
-    </row>
-    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="165"/>
-      <c r="B24" s="163" t="s">
+      <c r="K23" s="159"/>
+    </row>
+    <row r="24" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="166"/>
+      <c r="B24" s="164" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="160" t="s">
         <v>394</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -10986,10 +11064,10 @@
       <c r="J24" s="29"/>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="165"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="160"/>
+    <row r="25" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="25" t="s">
         <v>391</v>
       </c>
@@ -11005,10 +11083,10 @@
       <c r="J25" s="29"/>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="164"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="161"/>
+    <row r="26" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A26" s="165"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="162"/>
       <c r="D26" s="25" t="s">
         <v>393</v>
       </c>
@@ -11024,14 +11102,14 @@
       <c r="J26" s="29"/>
       <c r="K26" s="36"/>
     </row>
-    <row r="27" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="163" t="s">
+    <row r="27" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="164" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="164" t="s">
         <v>398</v>
       </c>
-      <c r="C27" s="159"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="25" t="s">
         <v>399</v>
       </c>
@@ -11051,10 +11129,10 @@
       </c>
       <c r="K27" s="36"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="165"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="160"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="34" t="s">
         <v>404</v>
       </c>
@@ -11070,10 +11148,10 @@
       <c r="J28" s="33"/>
       <c r="K28" s="37"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="165"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="160"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="34" t="s">
         <v>406</v>
       </c>
@@ -11091,10 +11169,10 @@
       <c r="J29" s="33"/>
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="165"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="160"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="34" t="s">
         <v>409</v>
       </c>
@@ -11110,10 +11188,10 @@
       <c r="J30" s="33"/>
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="165"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="160"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="34" t="s">
         <v>411</v>
       </c>
@@ -11131,10 +11209,10 @@
       <c r="J31" s="33"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="165"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="160"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="34" t="s">
         <v>414</v>
       </c>
@@ -11152,10 +11230,10 @@
       <c r="J32" s="33"/>
       <c r="K32" s="37"/>
     </row>
-    <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="164"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="161"/>
+    <row r="33" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="165"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="162"/>
       <c r="D33" s="34" t="s">
         <v>415</v>
       </c>
@@ -11173,11 +11251,11 @@
       <c r="J33" s="33"/>
       <c r="K33" s="37"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="163" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="164" t="s">
         <v>420</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="164" t="s">
         <v>420</v>
       </c>
       <c r="C34" s="32"/>
@@ -11198,9 +11276,9 @@
       <c r="J34" s="33"/>
       <c r="K34" s="37"/>
     </row>
-    <row r="35" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="164"/>
-      <c r="B35" s="164"/>
+    <row r="35" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="165"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="32"/>
       <c r="D35" s="34" t="s">
         <v>423</v>
@@ -11219,7 +11297,7 @@
       <c r="J35" s="33"/>
       <c r="K35" s="37"/>
     </row>
-    <row r="36" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="29" t="s">
         <v>374</v>
       </c>
@@ -11238,7 +11316,7 @@
       <c r="J36" s="29"/>
       <c r="K36" s="36"/>
     </row>
-    <row r="37" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="33" t="s">
         <v>430</v>
       </c>
@@ -11261,7 +11339,7 @@
       </c>
       <c r="K37" s="36"/>
     </row>
-    <row r="38" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
@@ -11274,26 +11352,26 @@
       <c r="J38" s="35"/>
       <c r="K38" s="36"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="170" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="171" t="s">
         <v>299</v>
       </c>
-      <c r="B41" s="170"/>
+      <c r="B41" s="171"/>
       <c r="C41" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="170" t="s">
+    <row r="42" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="171" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="170"/>
+      <c r="B42" s="171"/>
       <c r="C42" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="171" t="s">
+    <row r="43" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A43" s="172" t="s">
         <v>301</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -11303,8 +11381,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="172"/>
+    <row r="44" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="173"/>
       <c r="B44" s="13" t="s">
         <v>303</v>
       </c>
@@ -11312,10 +11390,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="15"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="16" t="s">
         <v>197</v>
       </c>
@@ -11335,7 +11413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="16" t="s">
         <v>180</v>
       </c>
@@ -11355,7 +11433,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="16" t="s">
         <v>180</v>
       </c>
@@ -11375,7 +11453,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="16" t="s">
         <v>180</v>
       </c>
@@ -11395,7 +11473,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="16" t="s">
         <v>180</v>
       </c>
@@ -11415,7 +11493,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="16" t="s">
         <v>180</v>
       </c>
@@ -11435,7 +11513,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="16" t="s">
         <v>180</v>
       </c>
@@ -11455,7 +11533,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16" t="s">
         <v>180</v>
       </c>
@@ -11475,7 +11553,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A66" s="16" t="s">
         <v>180</v>
       </c>
@@ -11495,7 +11573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="16" t="s">
         <v>218</v>
       </c>
@@ -11515,7 +11593,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="16" t="s">
         <v>218</v>
       </c>
@@ -11535,7 +11613,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="16" t="s">
         <v>218</v>
       </c>
@@ -11555,7 +11633,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="16" t="s">
         <v>218</v>
       </c>
@@ -11575,7 +11653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="16" t="s">
         <v>218</v>
       </c>
@@ -11595,7 +11673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="16" t="s">
         <v>191</v>
       </c>
@@ -11615,7 +11693,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="16" t="s">
         <v>193</v>
       </c>
@@ -11635,21 +11713,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="168" t="s">
+    <row r="75" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="169" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="168"/>
-      <c r="C75" s="168"/>
-      <c r="D75" s="168"/>
-    </row>
-    <row r="76" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="168"/>
-      <c r="B76" s="168"/>
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+    </row>
+    <row r="76" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="169"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>253</v>
       </c>
@@ -11660,7 +11738,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
         <v>254</v>
       </c>
@@ -11669,7 +11747,7 @@
       </c>
       <c r="C80" s="13"/>
     </row>
-    <row r="81" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A81" s="14" t="s">
         <v>255</v>
       </c>
@@ -11678,34 +11756,34 @@
       </c>
       <c r="C81" s="13"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
     </row>
-    <row r="86" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="168" t="s">
+    <row r="86" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="169" t="s">
         <v>317</v>
       </c>
-      <c r="B86" s="168"/>
-      <c r="C86" s="168"/>
-    </row>
-    <row r="87" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="168"/>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-    </row>
-    <row r="88" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="168"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="168"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+    </row>
+    <row r="87" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="169"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+    </row>
+    <row r="88" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="169"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>326</v>
       </c>
@@ -11722,7 +11800,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="305.25" x14ac:dyDescent="0.4">
       <c r="A91" s="14" t="s">
         <v>318</v>
       </c>
@@ -11739,7 +11817,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A92" s="14" t="s">
         <v>319</v>
       </c>
@@ -11752,7 +11830,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="14" t="s">
         <v>327</v>
       </c>
@@ -11761,7 +11839,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
     </row>
-    <row r="94" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A94" s="14" t="s">
         <v>328</v>
       </c>
@@ -11774,42 +11852,42 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -11861,14 +11939,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="23.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="70.125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="23.86328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="70.1328125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -11879,7 +11957,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>174</v>
       </c>
@@ -11890,12 +11968,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -11915,21 +11993,21 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>441</v>
@@ -11941,12 +12019,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
-        <v>751</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>549</v>
+    <row r="2" spans="1:12" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A2" s="171" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" s="157" t="s">
+        <v>548</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>444</v>
@@ -11955,12 +12033,12 @@
         <v>446</v>
       </c>
       <c r="E2" s="117" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="170"/>
-      <c r="B3" s="156"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="171"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="72" t="s">
         <v>445</v>
       </c>
@@ -11969,9 +12047,9 @@
       </c>
       <c r="E3" s="118"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="170"/>
-      <c r="B4" s="156"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="171"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="72" t="s">
         <v>450</v>
       </c>
@@ -11980,9 +12058,9 @@
       </c>
       <c r="E4" s="118"/>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
-      <c r="B5" s="156"/>
+    <row r="5" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="171"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="72" t="s">
         <v>448</v>
       </c>
@@ -11991,24 +12069,24 @@
       </c>
       <c r="E5" s="118"/>
     </row>
-    <row r="6" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="156"/>
+    <row r="6" spans="1:12" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A6" s="171"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="E6" s="117" t="s">
         <v>553</v>
       </c>
-      <c r="E6" s="117" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
-      <c r="B7" s="156"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="171"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>452</v>
@@ -12017,9 +12095,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
-      <c r="B8" s="156"/>
+    <row r="8" spans="1:12" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="171"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="72" t="s">
         <v>453</v>
       </c>
@@ -12030,9 +12108,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
-      <c r="B9" s="156"/>
+    <row r="9" spans="1:12" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A9" s="171"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="72" t="s">
         <v>454</v>
       </c>
@@ -12043,9 +12121,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="156"/>
+    <row r="10" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="171"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="72" t="s">
         <v>457</v>
       </c>
@@ -12054,44 +12132,44 @@
       </c>
       <c r="E10" s="118"/>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
-      <c r="B11" s="156"/>
+    <row r="11" spans="1:12" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A11" s="171"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="72" t="s">
+        <v>741</v>
+      </c>
+      <c r="D11" s="72" t="s">
         <v>742</v>
       </c>
-      <c r="D11" s="72" t="s">
-        <v>743</v>
-      </c>
       <c r="E11" s="118"/>
     </row>
-    <row r="12" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="156" t="s">
-        <v>550</v>
+    <row r="12" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="171"/>
+      <c r="B12" s="157" t="s">
+        <v>549</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="117" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
-      <c r="B13" s="156"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="171"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="72" t="s">
         <v>482</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="118" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
-      <c r="B14" s="156"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="171"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="72" t="s">
         <v>483</v>
       </c>
@@ -12100,9 +12178,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="156"/>
+    <row r="15" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="171"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="72" t="s">
         <v>484</v>
       </c>
@@ -12110,111 +12188,111 @@
       <c r="E15" s="118" t="s">
         <v>486</v>
       </c>
-      <c r="H15" s="173" t="s">
-        <v>558</v>
-      </c>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-    </row>
-    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174" t="s">
+      <c r="H15" s="174" t="s">
+        <v>557</v>
+      </c>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+    </row>
+    <row r="16" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="175" t="s">
+        <v>757</v>
+      </c>
+      <c r="B16" s="175" t="s">
         <v>758</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="C16" s="72" t="s">
+        <v>754</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="172"/>
+    </row>
+    <row r="17" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="176"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="72" t="s">
+        <v>752</v>
+      </c>
+      <c r="D17" s="121"/>
+      <c r="E17" s="178"/>
+    </row>
+    <row r="18" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="176"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="72" t="s">
+        <v>753</v>
+      </c>
+      <c r="D18" s="121"/>
+      <c r="E18" s="173"/>
+    </row>
+    <row r="19" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="176"/>
+      <c r="B19" s="157" t="s">
         <v>759</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C19" s="72" t="s">
         <v>755</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="171"/>
-    </row>
-    <row r="17" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="175"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="72" t="s">
-        <v>753</v>
-      </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="177"/>
-    </row>
-    <row r="18" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="175"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="72" t="s">
-        <v>754</v>
-      </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="172"/>
-    </row>
-    <row r="19" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="175"/>
-      <c r="B19" s="156" t="s">
-        <v>760</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>756</v>
       </c>
       <c r="D19" s="121"/>
       <c r="E19" s="122" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="176"/>
-      <c r="B20" s="156"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="177"/>
+      <c r="B20" s="157"/>
       <c r="C20" s="72" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="122" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="170" t="s">
-        <v>787</v>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="171" t="s">
+        <v>786</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="72" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="171"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E22" s="105"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="173" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="173"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="173"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="173"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="173"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E26" s="174" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E27" s="174"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E28" s="174"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E29" s="174"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E30" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="10">
